--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DDFF8B-5ADF-407A-963D-913FA3EC7467}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="235">
   <si>
     <t>UHID</t>
   </si>
@@ -266,9 +266,6 @@
     <t>E.coli, A. baumannii,  S saprophyticus</t>
   </si>
   <si>
-    <t>E.fecalis</t>
-  </si>
-  <si>
     <t>A. baumannii, S.aureus</t>
   </si>
   <si>
@@ -360,6 +357,390 @@
   </si>
   <si>
     <t>E. coli, K pneumoniae, A baumannii, S saprophyticus, E. faecalis</t>
+  </si>
+  <si>
+    <t>Patients Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>P.aurogenosa</t>
+  </si>
+  <si>
+    <t>A.baumnnii</t>
+  </si>
+  <si>
+    <t>P.mirabilis</t>
+  </si>
+  <si>
+    <t>E.faecalis</t>
+  </si>
+  <si>
+    <t>S. aureus</t>
+  </si>
+  <si>
+    <t>S. saprophyticus</t>
+  </si>
+  <si>
+    <t>Sahroj</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Shyanu</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Saloni</t>
+  </si>
+  <si>
+    <t>Ravita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>kedari Devi</t>
+  </si>
+  <si>
+    <t>Babita Devi</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Pooja Rani</t>
+  </si>
+  <si>
+    <t>Kushum Devi</t>
+  </si>
+  <si>
+    <t>Prem kumari</t>
+  </si>
+  <si>
+    <t>Pramila Devi</t>
+  </si>
+  <si>
+    <t>Aasha</t>
+  </si>
+  <si>
+    <t>Shweta Pandey</t>
+  </si>
+  <si>
+    <t>Nitipriya</t>
+  </si>
+  <si>
+    <t>Nitoo</t>
+  </si>
+  <si>
+    <t>Jannat</t>
+  </si>
+  <si>
+    <t>Pawandeep Kaur</t>
+  </si>
+  <si>
+    <t>Santosh Dhaundiyal</t>
+  </si>
+  <si>
+    <t>Phulmavati</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Meenal Sharma</t>
+  </si>
+  <si>
+    <t>Annu Devi</t>
+  </si>
+  <si>
+    <t>Rajni Devi</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>Shagupta</t>
+  </si>
+  <si>
+    <t>Dimple</t>
+  </si>
+  <si>
+    <t>Reena</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Manju</t>
+  </si>
+  <si>
+    <t>Priyanshi</t>
+  </si>
+  <si>
+    <t>Tanuja Negi</t>
+  </si>
+  <si>
+    <t>Sumitra Mehar</t>
+  </si>
+  <si>
+    <t>Manisha Bisht</t>
+  </si>
+  <si>
+    <t>Jasila devi</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>Meena kashyap</t>
+  </si>
+  <si>
+    <t>Shiwani pal</t>
+  </si>
+  <si>
+    <t>Aasma</t>
+  </si>
+  <si>
+    <t>Asha saini</t>
+  </si>
+  <si>
+    <t>Anjali</t>
+  </si>
+  <si>
+    <t>Shakuntala devi</t>
+  </si>
+  <si>
+    <t>Rekha</t>
+  </si>
+  <si>
+    <t>Vimla</t>
+  </si>
+  <si>
+    <t>Anchal</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>Gajnesh sharma</t>
+  </si>
+  <si>
+    <t>Maya devi</t>
+  </si>
+  <si>
+    <t>Neena Devi</t>
+  </si>
+  <si>
+    <t>Chattar lal</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Vandana</t>
+  </si>
+  <si>
+    <t>Seema kapoor</t>
+  </si>
+  <si>
+    <t>Shahnaj</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>Sarojini</t>
+  </si>
+  <si>
+    <t>Vimla devi</t>
+  </si>
+  <si>
+    <t>Neetu</t>
+  </si>
+  <si>
+    <t>Manju Devi</t>
+  </si>
+  <si>
+    <t>Muarti</t>
+  </si>
+  <si>
+    <t>Kalpana</t>
+  </si>
+  <si>
+    <t>Annu Kumari</t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>Deepika Singh</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>Manisha Devi</t>
+  </si>
+  <si>
+    <t>Rajendra Singh</t>
+  </si>
+  <si>
+    <t>Reena Singh</t>
+  </si>
+  <si>
+    <t>Ramrati</t>
+  </si>
+  <si>
+    <t>Kusum lata</t>
+  </si>
+  <si>
+    <t>Tavassum Khatoon</t>
+  </si>
+  <si>
+    <t>Heena Khatoon</t>
+  </si>
+  <si>
+    <t>Mamta Devi</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>Rajia</t>
+  </si>
+  <si>
+    <t>Pushpa kumari</t>
+  </si>
+  <si>
+    <t>Sulekha</t>
+  </si>
+  <si>
+    <t>Jaiwati</t>
+  </si>
+  <si>
+    <t>Shahnaz</t>
+  </si>
+  <si>
+    <t>Minakshi Man</t>
+  </si>
+  <si>
+    <t>Gangadei</t>
+  </si>
+  <si>
+    <t>Brijmohan Pokhriyal</t>
+  </si>
+  <si>
+    <t>Devki Bhatt</t>
+  </si>
+  <si>
+    <t>Chandramani Tiwari</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Bhawna</t>
+  </si>
+  <si>
+    <t>Koshal Devi</t>
+  </si>
+  <si>
+    <t>Indro</t>
+  </si>
+  <si>
+    <t>Amisha</t>
+  </si>
+  <si>
+    <t>Archna</t>
+  </si>
+  <si>
+    <t>Gunjan Garg</t>
+  </si>
+  <si>
+    <t>Kanchan</t>
+  </si>
+  <si>
+    <t>Rakhi Devi</t>
+  </si>
+  <si>
+    <t>Teena</t>
+  </si>
+  <si>
+    <t>Deveshwari Devi</t>
+  </si>
+  <si>
+    <t>Anita Devi</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Pinky Lekhwar</t>
+  </si>
+  <si>
+    <t>Kaushal</t>
+  </si>
+  <si>
+    <t>Sanju</t>
+  </si>
+  <si>
+    <t>Sulochana devi</t>
+  </si>
+  <si>
+    <t>Shikha Rani</t>
+  </si>
+  <si>
+    <t>Tulshi devi</t>
+  </si>
+  <si>
+    <t>Shalni devi</t>
+  </si>
+  <si>
+    <t>Sharda</t>
+  </si>
+  <si>
+    <t>Sela</t>
+  </si>
+  <si>
+    <t>Dimple Jaiswal</t>
+  </si>
+  <si>
+    <t>Purushottam singh</t>
+  </si>
+  <si>
+    <t>Yashoda Devi</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>Nasrin Jahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharamwati </t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Seema devi</t>
   </si>
 </sst>
 </file>
@@ -742,1290 +1123,5064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20220065432</v>
       </c>
       <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>-5.2608600000000001</v>
+      </c>
+      <c r="J2">
+        <v>-4.0979400000000004</v>
+      </c>
+      <c r="K2">
+        <v>-3.5848</v>
+      </c>
+      <c r="L2">
+        <v>-8.10731</v>
+      </c>
+      <c r="M2">
+        <v>-5.62819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20240016182</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>-6.6332500000000003</v>
+      </c>
+      <c r="H3">
+        <v>-10.127599999999999</v>
+      </c>
+      <c r="I3">
+        <v>-8.3008600000000001</v>
+      </c>
+      <c r="J3">
+        <v>-13.2248</v>
+      </c>
+      <c r="K3">
+        <v>-11.9412</v>
+      </c>
+      <c r="L3">
+        <v>-13.6409</v>
+      </c>
+      <c r="M3">
+        <v>-14.938700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20230125389</v>
       </c>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>-15.309799999999999</v>
+      </c>
+      <c r="H4">
+        <v>-10.0174</v>
+      </c>
+      <c r="I4">
+        <v>-9.0999300000000005</v>
+      </c>
+      <c r="J4">
+        <v>-8.3041400000000003</v>
+      </c>
+      <c r="K4">
+        <v>-5.0667600000000004</v>
+      </c>
+      <c r="L4">
+        <v>-5.4212100000000003</v>
+      </c>
+      <c r="M4">
+        <v>-8.7779699999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20180022685</v>
       </c>
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>-7.7070400000000001</v>
+      </c>
+      <c r="H5">
+        <v>-8.0891000000000002</v>
+      </c>
+      <c r="I5">
+        <v>-4.79176</v>
+      </c>
+      <c r="J5">
+        <v>-8.6341599999999996</v>
+      </c>
+      <c r="K5">
+        <v>-11.845700000000001</v>
+      </c>
+      <c r="L5">
+        <v>-9.3165700000000005</v>
+      </c>
+      <c r="M5">
+        <v>-9.9033899999999999</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20201415102</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20240012395</v>
       </c>
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>-10.255100000000001</v>
+      </c>
+      <c r="H7">
+        <v>-7.2602799999999998</v>
+      </c>
+      <c r="I7">
+        <v>-6.8930300000000004</v>
+      </c>
+      <c r="J7">
+        <v>-14.3432</v>
+      </c>
+      <c r="K7">
+        <v>-11.544700000000001</v>
+      </c>
+      <c r="L7">
+        <v>-10.7879</v>
+      </c>
+      <c r="M7">
+        <v>-10.824199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20220166372</v>
       </c>
       <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>-8.8733400000000007</v>
+      </c>
+      <c r="H8">
+        <v>-5.3978000000000002</v>
+      </c>
+      <c r="I8">
+        <v>-12.2784</v>
+      </c>
+      <c r="J8">
+        <v>-8.0111399999999993</v>
+      </c>
+      <c r="K8">
+        <v>-11.003299999999999</v>
+      </c>
+      <c r="L8">
+        <v>-13.599600000000001</v>
+      </c>
+      <c r="M8">
+        <v>-11.6668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20240018475</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9">
+        <v>-11.3352</v>
+      </c>
+      <c r="H9">
+        <v>-13.8536</v>
+      </c>
+      <c r="I9">
+        <v>-10.786</v>
+      </c>
+      <c r="J9">
+        <v>-6.5873200000000001</v>
+      </c>
+      <c r="K9">
+        <v>-10.3881</v>
+      </c>
+      <c r="L9">
+        <v>-4.6000899999999998</v>
+      </c>
+      <c r="M9">
+        <v>-12.629099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20230149608</v>
       </c>
       <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>-11.282</v>
+      </c>
+      <c r="H10">
+        <v>-8.4055300000000006</v>
+      </c>
+      <c r="I10">
+        <v>-10.447900000000001</v>
+      </c>
+      <c r="J10">
+        <v>-8.2483500000000003</v>
+      </c>
+      <c r="K10">
+        <v>-12.13</v>
+      </c>
+      <c r="L10">
+        <v>-12.506399999999999</v>
+      </c>
+      <c r="M10">
+        <v>-12.8856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20240016829</v>
       </c>
       <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>-8.73</v>
+      </c>
+      <c r="H11">
+        <v>-8.1300000000000008</v>
+      </c>
+      <c r="I11">
+        <v>-7.81</v>
+      </c>
+      <c r="J11">
+        <v>-9.15</v>
+      </c>
+      <c r="K11">
+        <v>-8.3699999999999992</v>
+      </c>
+      <c r="L11">
+        <v>-12.39</v>
+      </c>
+      <c r="M11">
+        <v>-10.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20230179067</v>
       </c>
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>-10.79</v>
+      </c>
+      <c r="H12">
+        <v>-12.34</v>
+      </c>
+      <c r="I12">
+        <v>-9.2089999999999996</v>
+      </c>
+      <c r="J12">
+        <v>-7.52</v>
+      </c>
+      <c r="K12">
+        <v>-14.75</v>
+      </c>
+      <c r="L12">
+        <v>-4.71</v>
+      </c>
+      <c r="M12">
+        <v>-6.2089999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20180188108</v>
       </c>
       <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>-6.48</v>
+      </c>
+      <c r="H13">
+        <v>-10.06</v>
+      </c>
+      <c r="I13">
+        <v>-9.01</v>
+      </c>
+      <c r="J13">
+        <v>-2.302</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>-4.53</v>
+      </c>
+      <c r="M13">
+        <v>-6.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20230141608</v>
       </c>
       <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>-7.35</v>
+      </c>
+      <c r="H14">
+        <v>-11.55</v>
+      </c>
+      <c r="I14">
+        <v>-10.96</v>
+      </c>
+      <c r="J14">
+        <v>-2.302</v>
+      </c>
+      <c r="K14">
+        <v>-10.43</v>
+      </c>
+      <c r="L14">
+        <v>-2.13</v>
+      </c>
+      <c r="M14">
+        <v>-8.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20240020494</v>
       </c>
       <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>-5.4089999999999998</v>
+      </c>
+      <c r="H15">
+        <v>-13.14</v>
+      </c>
+      <c r="I15">
+        <v>-3.58</v>
+      </c>
+      <c r="J15">
+        <v>-8.52</v>
+      </c>
+      <c r="K15">
+        <v>-10.119999999999999</v>
+      </c>
+      <c r="L15">
+        <v>-6.52</v>
+      </c>
+      <c r="M15">
+        <v>-7.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20240020519</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>-6.27</v>
+      </c>
+      <c r="H16">
+        <v>-6.38</v>
+      </c>
+      <c r="I16">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="J16">
+        <v>-4.05</v>
+      </c>
+      <c r="K16">
+        <v>-5.82</v>
+      </c>
+      <c r="L16">
+        <v>-1.37</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20240015483</v>
       </c>
       <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="H17">
+        <v>-7.88</v>
+      </c>
+      <c r="I17">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="J17">
+        <v>-9.5399999999999991</v>
+      </c>
+      <c r="K17">
+        <v>-7.64</v>
+      </c>
+      <c r="L17">
+        <v>-3.87</v>
+      </c>
+      <c r="M17">
+        <v>-6.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20240001249</v>
       </c>
       <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>-10.78</v>
+      </c>
+      <c r="H18">
+        <v>-12.26</v>
+      </c>
+      <c r="I18">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="J18">
+        <v>-8.3800000000000008</v>
+      </c>
+      <c r="K18">
+        <v>-5.79</v>
+      </c>
+      <c r="L18">
+        <v>-13.48</v>
+      </c>
+      <c r="M18">
+        <v>-5.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210094336</v>
       </c>
       <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>-24.48</v>
+      </c>
+      <c r="H19">
+        <v>-11.94</v>
+      </c>
+      <c r="I19">
+        <v>-9.74</v>
+      </c>
+      <c r="J19">
+        <v>-15.41</v>
+      </c>
+      <c r="K19">
+        <v>-16.41</v>
+      </c>
+      <c r="L19">
+        <v>-5.23</v>
+      </c>
+      <c r="M19">
+        <v>-4.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20240006140</v>
       </c>
       <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>-9.18</v>
+      </c>
+      <c r="H20">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="I20">
+        <v>-1.41</v>
+      </c>
+      <c r="J20">
+        <v>-5.84</v>
+      </c>
+      <c r="K20">
+        <v>-3.47</v>
+      </c>
+      <c r="L20">
+        <v>-6.28</v>
+      </c>
+      <c r="M20">
+        <v>-6.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20240020436</v>
       </c>
       <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>-11.36</v>
+      </c>
+      <c r="H21">
+        <v>-6.81</v>
+      </c>
+      <c r="I21">
+        <v>-10.023999999999999</v>
+      </c>
+      <c r="J21">
+        <v>-8.93</v>
+      </c>
+      <c r="K21">
+        <v>-7.22</v>
+      </c>
+      <c r="L21">
+        <v>-5.88</v>
+      </c>
+      <c r="M21">
+        <v>-7.6059999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20240022478</v>
       </c>
       <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="H22">
+        <v>-5.43</v>
+      </c>
+      <c r="I22">
+        <v>-5.29</v>
+      </c>
+      <c r="J22">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="K22">
+        <v>-3.46</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20240022523</v>
       </c>
       <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>-11.506</v>
+      </c>
+      <c r="H23">
+        <v>-3.702</v>
+      </c>
+      <c r="I23">
+        <v>-5.26</v>
+      </c>
+      <c r="J23">
+        <v>-4.24</v>
+      </c>
+      <c r="K23">
+        <v>-3.58</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>-5.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20220102808</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C24">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>-5.69</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-4.59</v>
+      </c>
+      <c r="J24">
+        <v>-6.8029999999999999</v>
+      </c>
+      <c r="K24">
+        <v>-3.38</v>
+      </c>
+      <c r="L24">
+        <v>-5.66</v>
+      </c>
+      <c r="M24">
+        <v>-6.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20240022502</v>
       </c>
       <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="H25">
+        <v>-6.69</v>
+      </c>
+      <c r="I25">
+        <v>-4.62</v>
+      </c>
+      <c r="J25">
+        <v>-5.69</v>
+      </c>
+      <c r="K25">
+        <v>-7.58</v>
+      </c>
+      <c r="L25">
+        <v>-8.4700000000000006</v>
+      </c>
+      <c r="M25">
+        <v>-5.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20240017188</v>
       </c>
       <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>-5.66</v>
+      </c>
+      <c r="H26">
+        <v>-6.81</v>
+      </c>
+      <c r="I26">
+        <v>-7.39</v>
+      </c>
+      <c r="J26">
+        <v>-1.92</v>
+      </c>
+      <c r="K26">
+        <v>-7.67</v>
+      </c>
+      <c r="L26">
+        <v>-8.94</v>
+      </c>
+      <c r="M26">
+        <v>-6.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20220064259</v>
       </c>
       <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>-10.75</v>
+      </c>
+      <c r="H27">
+        <v>-6.88</v>
+      </c>
+      <c r="I27">
+        <v>-7.74</v>
+      </c>
+      <c r="J27">
+        <v>-9.42</v>
+      </c>
+      <c r="K27">
+        <v>-5.2089999999999996</v>
+      </c>
+      <c r="L27">
+        <v>-8.26</v>
+      </c>
+      <c r="M27">
+        <v>-6.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20240019044</v>
       </c>
       <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>-7.89</v>
+      </c>
+      <c r="H28">
+        <v>-8.69</v>
+      </c>
+      <c r="I28">
+        <v>-6.61</v>
+      </c>
+      <c r="J28">
+        <v>-6.79</v>
+      </c>
+      <c r="K28">
+        <v>-8.27</v>
+      </c>
+      <c r="L28">
+        <v>-5.57</v>
+      </c>
+      <c r="M28">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20240024003</v>
       </c>
       <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>-9.3800000000000008</v>
+      </c>
+      <c r="H29">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="I29">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="J29">
+        <v>-6.77</v>
+      </c>
+      <c r="K29">
+        <v>-9.1199999999999992</v>
+      </c>
+      <c r="L29">
+        <v>-6.45</v>
+      </c>
+      <c r="M29">
+        <v>-9.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20240012256</v>
       </c>
       <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>-10.25</v>
+      </c>
+      <c r="H30">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="I30">
+        <v>-6.85</v>
+      </c>
+      <c r="J30">
+        <v>-5.23</v>
+      </c>
+      <c r="K30">
+        <v>-4.78</v>
+      </c>
+      <c r="L30">
+        <v>-4.4029999999999996</v>
+      </c>
+      <c r="M30">
+        <v>-6.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210046443</v>
       </c>
       <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>-7.67</v>
+      </c>
+      <c r="H31">
+        <v>-8.17</v>
+      </c>
+      <c r="I31">
+        <v>-4.01</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-6.35</v>
+      </c>
+      <c r="L31">
+        <v>-4.84</v>
+      </c>
+      <c r="M31">
+        <v>-7.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20240024207</v>
       </c>
       <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>-6.03</v>
+      </c>
+      <c r="H32">
+        <v>-8.18</v>
+      </c>
+      <c r="I32">
+        <v>-7.11</v>
+      </c>
+      <c r="J32">
+        <v>-6.39</v>
+      </c>
+      <c r="K32">
+        <v>-8.07</v>
+      </c>
+      <c r="L32">
+        <v>-4.16</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20220153472</v>
       </c>
       <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>-4.47</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>-9.2089999999999996</v>
+      </c>
+      <c r="J33">
+        <v>-8.14</v>
+      </c>
+      <c r="K33">
+        <v>-8.17</v>
+      </c>
+      <c r="L33">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="M33">
+        <v>-3.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20240024158</v>
       </c>
       <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>-12.69</v>
+      </c>
+      <c r="H34">
+        <v>-5.37</v>
+      </c>
+      <c r="I34">
+        <v>-4.37</v>
+      </c>
+      <c r="J34">
+        <v>-7.27</v>
+      </c>
+      <c r="K34">
+        <v>-2.42</v>
+      </c>
+      <c r="L34">
+        <v>-5.7089999999999996</v>
+      </c>
+      <c r="M34">
+        <v>-6.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20220088296</v>
       </c>
       <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>-10.88</v>
+      </c>
+      <c r="H35">
+        <v>-11.01</v>
+      </c>
+      <c r="I35">
+        <v>-8.68</v>
+      </c>
+      <c r="J35">
+        <v>-7.15</v>
+      </c>
+      <c r="K35">
+        <v>-5.62</v>
+      </c>
+      <c r="L35">
+        <v>-8.0020000000000007</v>
+      </c>
+      <c r="M35">
+        <v>-8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20220064546</v>
       </c>
       <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>-13.24</v>
+      </c>
+      <c r="H36">
+        <v>-3.44</v>
+      </c>
+      <c r="I36">
+        <v>-5.14</v>
+      </c>
+      <c r="J36">
+        <v>-5.7</v>
+      </c>
+      <c r="K36">
+        <v>-6.19</v>
+      </c>
+      <c r="L36">
+        <v>-5.85</v>
+      </c>
+      <c r="M36">
+        <v>-6.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20240024631</v>
       </c>
       <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>-7.95</v>
+      </c>
+      <c r="H37">
+        <v>-6.2</v>
+      </c>
+      <c r="I37">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="J37">
+        <v>-6.58</v>
+      </c>
+      <c r="K37">
+        <v>-5.91</v>
+      </c>
+      <c r="L37">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="M37">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20240022566</v>
       </c>
       <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>-11.39</v>
+      </c>
+      <c r="H38">
+        <v>-7.64</v>
+      </c>
+      <c r="I38">
+        <v>-9.49</v>
+      </c>
+      <c r="J38">
+        <v>-5.57</v>
+      </c>
+      <c r="K38">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="L38">
+        <v>-10.039999999999999</v>
+      </c>
+      <c r="M38">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210126376</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>-4.58</v>
+      </c>
+      <c r="H39">
+        <v>-4.26</v>
+      </c>
+      <c r="I39">
+        <v>-5.6</v>
+      </c>
+      <c r="J39">
+        <v>-6.25</v>
+      </c>
+      <c r="K39">
+        <v>-6.26</v>
+      </c>
+      <c r="L39">
+        <v>-6.4</v>
+      </c>
+      <c r="M39">
+        <v>-7.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20240012094</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>-6.29</v>
+      </c>
+      <c r="H40">
+        <v>-5.66</v>
+      </c>
+      <c r="I40">
+        <v>-5.01</v>
+      </c>
+      <c r="J40">
+        <v>-6.69</v>
+      </c>
+      <c r="K40">
+        <v>-6.17</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20240027303</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>-6.02</v>
+      </c>
+      <c r="H41">
+        <v>-4.67</v>
+      </c>
+      <c r="I41">
+        <v>-5.82</v>
+      </c>
+      <c r="J41">
+        <v>-3.96</v>
+      </c>
+      <c r="K41">
+        <v>-7.37</v>
+      </c>
+      <c r="L41">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="M41">
+        <v>-6.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20240002618</v>
       </c>
       <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>-6.91</v>
+      </c>
+      <c r="H42">
+        <v>-4.49</v>
+      </c>
+      <c r="I42">
+        <v>-4.72</v>
+      </c>
+      <c r="J42">
+        <v>-9.34</v>
+      </c>
+      <c r="K42">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="L42">
+        <v>-7.14</v>
+      </c>
+      <c r="M42">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20240023202</v>
       </c>
       <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>-9.69</v>
+      </c>
+      <c r="H43">
+        <v>-5.39</v>
+      </c>
+      <c r="I43">
+        <v>-9.5</v>
+      </c>
+      <c r="J43">
+        <v>-4.79</v>
+      </c>
+      <c r="K43">
+        <v>-6.77</v>
+      </c>
+      <c r="L43">
+        <v>-5.78</v>
+      </c>
+      <c r="M43">
+        <v>-9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20240027383</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>-5.66</v>
+      </c>
+      <c r="H44">
+        <v>-7.46</v>
+      </c>
+      <c r="I44">
+        <v>-0.2</v>
+      </c>
+      <c r="J44">
+        <v>-6.06</v>
+      </c>
+      <c r="K44">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="L44">
+        <v>-6.53</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20210126581</v>
       </c>
       <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>-8.85</v>
+      </c>
+      <c r="H45">
+        <v>-9.39</v>
+      </c>
+      <c r="I45">
+        <v>-10.27</v>
+      </c>
+      <c r="J45">
+        <v>-8.8699999999999992</v>
+      </c>
+      <c r="K45">
+        <v>-6.85</v>
+      </c>
+      <c r="L45">
+        <v>-9.07</v>
+      </c>
+      <c r="M45">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20240026634</v>
       </c>
       <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>-9.2799999999999994</v>
+      </c>
+      <c r="H46">
+        <v>-7.56</v>
+      </c>
+      <c r="I46">
+        <v>-10.48</v>
+      </c>
+      <c r="J46">
+        <v>-7.02</v>
+      </c>
+      <c r="K46">
+        <v>-7.18</v>
+      </c>
+      <c r="L46">
+        <v>-5.86</v>
+      </c>
+      <c r="M46">
+        <v>-7.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20240015339</v>
       </c>
       <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="s">
         <v>39</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>-9.42</v>
+      </c>
+      <c r="H47">
+        <v>-9.74</v>
+      </c>
+      <c r="I47">
+        <v>-7.68</v>
+      </c>
+      <c r="J47">
+        <v>-6.27</v>
+      </c>
+      <c r="K47">
+        <v>-6.75</v>
+      </c>
+      <c r="L47">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="M47">
+        <v>-8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20240028955</v>
       </c>
       <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>-9.69</v>
+      </c>
+      <c r="H48">
+        <v>-5.3</v>
+      </c>
+      <c r="I48">
+        <v>-6.31</v>
+      </c>
+      <c r="J48">
+        <v>-7.21</v>
+      </c>
+      <c r="K48">
+        <v>-6.51</v>
+      </c>
+      <c r="L48">
+        <v>-9.61</v>
+      </c>
+      <c r="M48">
+        <v>-3.84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20240028466</v>
       </c>
       <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>-9.2100000000000009</v>
+      </c>
+      <c r="H49">
+        <v>-11.95</v>
+      </c>
+      <c r="I49">
+        <v>-7.76</v>
+      </c>
+      <c r="J49">
+        <v>-3.18</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-4.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20240029036</v>
       </c>
       <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>-8.66</v>
+      </c>
+      <c r="H50">
+        <v>-6.14</v>
+      </c>
+      <c r="I50">
+        <v>-6.41</v>
+      </c>
+      <c r="J50">
+        <v>-6.95</v>
+      </c>
+      <c r="K50">
+        <v>-7.6</v>
+      </c>
+      <c r="L50">
+        <v>-4.67</v>
+      </c>
+      <c r="M50">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20240028839</v>
       </c>
       <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>-5.47</v>
+      </c>
+      <c r="H51">
+        <v>-5.38</v>
+      </c>
+      <c r="I51">
+        <v>-4.38</v>
+      </c>
+      <c r="J51">
+        <v>-8.77</v>
+      </c>
+      <c r="K51">
+        <v>-8.08</v>
+      </c>
+      <c r="L51">
+        <v>-8.1</v>
+      </c>
+      <c r="M51">
+        <v>-6.98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20240025209</v>
       </c>
       <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>-6.54</v>
+      </c>
+      <c r="H52">
+        <v>-5.27</v>
+      </c>
+      <c r="I52">
+        <v>-7.48</v>
+      </c>
+      <c r="J52">
+        <v>-6.89</v>
+      </c>
+      <c r="K52">
+        <v>-8.24</v>
+      </c>
+      <c r="L52">
+        <v>-6.25</v>
+      </c>
+      <c r="M52">
+        <v>-6.33</v>
+      </c>
+      <c r="N52">
+        <v>-5.55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20240028100</v>
       </c>
       <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>-7.31</v>
+      </c>
+      <c r="H53">
+        <v>-11.32</v>
+      </c>
+      <c r="I53">
+        <v>-5.33</v>
+      </c>
+      <c r="J53">
+        <v>-6.57</v>
+      </c>
+      <c r="K53">
+        <v>-5.29</v>
+      </c>
+      <c r="L53">
+        <v>-7.91</v>
+      </c>
+      <c r="M53">
+        <v>-5.12</v>
+      </c>
+      <c r="N53">
+        <v>-7.76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20220083756</v>
       </c>
       <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>-5.31</v>
+      </c>
+      <c r="H54">
+        <v>-11</v>
+      </c>
+      <c r="I54">
+        <v>-5.53</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>-7.15</v>
+      </c>
+      <c r="L54">
+        <v>-6.47</v>
+      </c>
+      <c r="M54">
+        <v>-8.58</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20240030665</v>
       </c>
       <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>-4.13</v>
+      </c>
+      <c r="H55">
+        <v>-7.17</v>
+      </c>
+      <c r="I55">
+        <v>-10.01</v>
+      </c>
+      <c r="J55">
+        <v>-3.06</v>
+      </c>
+      <c r="K55">
+        <v>-6.67</v>
+      </c>
+      <c r="L55">
+        <v>-5</v>
+      </c>
+      <c r="M55">
+        <v>-6.08</v>
+      </c>
+      <c r="N55">
+        <v>-11.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20240030957</v>
       </c>
       <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="F56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>-8.16</v>
+      </c>
+      <c r="H56">
+        <v>-4.79</v>
+      </c>
+      <c r="I56">
+        <v>-8.9</v>
+      </c>
+      <c r="J56">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="K56">
+        <v>-9.19</v>
+      </c>
+      <c r="L56">
+        <v>-9.48</v>
+      </c>
+      <c r="M56">
+        <v>-6.5</v>
+      </c>
+      <c r="N56">
+        <v>-8.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20230158280</v>
       </c>
       <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="F57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>-2.34</v>
+      </c>
+      <c r="J57">
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="K57">
+        <v>-7.73</v>
+      </c>
+      <c r="L57">
+        <v>-14.3</v>
+      </c>
+      <c r="M57">
+        <v>-8.84</v>
+      </c>
+      <c r="N57">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20240012274</v>
       </c>
       <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="F58" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>-10.95</v>
+      </c>
+      <c r="H58">
+        <v>-5.29</v>
+      </c>
+      <c r="I58">
+        <v>-2.86</v>
+      </c>
+      <c r="J58">
+        <v>-9.36</v>
+      </c>
+      <c r="K58">
+        <v>-1.54</v>
+      </c>
+      <c r="L58">
+        <v>-4.2</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>-4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20240029225</v>
       </c>
       <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" t="s">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="F59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>-9.42</v>
+      </c>
+      <c r="H59">
+        <v>-7.33</v>
+      </c>
+      <c r="I59">
+        <v>-5.63</v>
+      </c>
+      <c r="J59">
+        <v>-7.19</v>
+      </c>
+      <c r="K59">
+        <v>-8.42</v>
+      </c>
+      <c r="L59">
+        <v>-7.98</v>
+      </c>
+      <c r="M59">
+        <v>-8.5</v>
+      </c>
+      <c r="N59">
+        <v>-4.37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20240032359</v>
       </c>
       <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="F60" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>-5.53</v>
+      </c>
+      <c r="H60">
+        <v>-6.44</v>
+      </c>
+      <c r="I60">
+        <v>-5.58</v>
+      </c>
+      <c r="J60">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="K60">
+        <v>-4.99</v>
+      </c>
+      <c r="L60">
+        <v>-3.74</v>
+      </c>
+      <c r="M60">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="N60">
+        <v>-8.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20240002772</v>
       </c>
       <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" t="s">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="F61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>-8.64</v>
+      </c>
+      <c r="I61">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="K61">
+        <v>-5.33</v>
+      </c>
+      <c r="M61">
+        <v>-5.23</v>
+      </c>
+      <c r="N61">
+        <v>-3.66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20240030597</v>
       </c>
       <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" t="s">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>-9.4700000000000006</v>
+      </c>
+      <c r="H62">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="I62">
+        <v>-7.36</v>
+      </c>
+      <c r="J62">
+        <v>-4.92</v>
+      </c>
+      <c r="K62">
+        <v>-3.99</v>
+      </c>
+      <c r="L62">
+        <v>-8.24</v>
+      </c>
+      <c r="M62">
+        <v>-7.46</v>
+      </c>
+      <c r="N62">
+        <v>-7.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20240030258</v>
       </c>
       <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" t="s">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="F63" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>-10.61</v>
+      </c>
+      <c r="H63">
+        <v>-8.51</v>
+      </c>
+      <c r="I63">
+        <v>-9.27</v>
+      </c>
+      <c r="J63">
+        <v>-10.64</v>
+      </c>
+      <c r="K63">
+        <v>-10.58</v>
+      </c>
+      <c r="L63">
+        <v>-12.5</v>
+      </c>
+      <c r="M63">
+        <v>-10.35</v>
+      </c>
+      <c r="N63">
+        <v>-8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20230083087</v>
       </c>
       <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="F64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>-4.41</v>
+      </c>
+      <c r="H64">
+        <v>-2.13</v>
+      </c>
+      <c r="I64">
+        <v>-4.41</v>
+      </c>
+      <c r="J64">
+        <v>-7.93</v>
+      </c>
+      <c r="K64">
+        <v>-2.36</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-4.63</v>
+      </c>
+      <c r="N64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20240039022</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <v>-6.81</v>
+      </c>
+      <c r="H65">
+        <v>-3.87</v>
+      </c>
+      <c r="I65">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="J65">
+        <v>-6.66</v>
+      </c>
+      <c r="K65">
+        <v>-1.41</v>
+      </c>
+      <c r="L65">
+        <v>-1.56</v>
+      </c>
+      <c r="M65">
+        <v>-1.52</v>
+      </c>
+      <c r="N65">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20240037502</v>
       </c>
       <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" t="s">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="F66" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>-3.81</v>
+      </c>
+      <c r="H66">
+        <v>-7.4</v>
+      </c>
+      <c r="I66">
+        <v>-8.44</v>
+      </c>
+      <c r="J66">
+        <v>-7.33</v>
+      </c>
+      <c r="K66">
+        <v>-7.18</v>
+      </c>
+      <c r="L66">
+        <v>-8.4</v>
+      </c>
+      <c r="M66">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="N66">
+        <v>-6.89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20240032128</v>
       </c>
       <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" t="s">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="F67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>-14.13</v>
+      </c>
+      <c r="H67">
+        <v>-7.19</v>
+      </c>
+      <c r="I67">
+        <v>-9.16</v>
+      </c>
+      <c r="J67">
+        <v>-1.62</v>
+      </c>
+      <c r="K67">
+        <v>-4.63</v>
+      </c>
+      <c r="L67">
+        <v>-9.64</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>-9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20240035983</v>
       </c>
       <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>-1.25</v>
+      </c>
+      <c r="H68">
+        <v>-1.76</v>
+      </c>
+      <c r="I68">
+        <v>-3.81</v>
+      </c>
+      <c r="J68">
+        <v>-1.24</v>
+      </c>
+      <c r="K68">
+        <v>-4.13</v>
+      </c>
+      <c r="L68">
+        <v>-9.35</v>
+      </c>
+      <c r="M68">
+        <v>-1.55</v>
+      </c>
+      <c r="N68">
+        <v>-9.81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20190007174</v>
       </c>
       <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>-10.74</v>
+      </c>
+      <c r="H69">
+        <v>-10.41</v>
+      </c>
+      <c r="I69">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="J69">
+        <v>-6.04</v>
+      </c>
+      <c r="K69">
+        <v>-6.36</v>
+      </c>
+      <c r="L69">
+        <v>-4.26</v>
+      </c>
+      <c r="M69">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="N69">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20240051938</v>
       </c>
       <c r="B70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>-3.03</v>
+      </c>
+      <c r="H70">
+        <v>-5.13</v>
+      </c>
+      <c r="I70">
+        <v>-4.42</v>
+      </c>
+      <c r="J70">
+        <v>-8.27</v>
+      </c>
+      <c r="K70">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="L70">
+        <v>-2.75</v>
+      </c>
+      <c r="M70">
+        <v>-6.9</v>
+      </c>
+      <c r="N70">
+        <v>-3.47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20240057825</v>
       </c>
       <c r="B71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>-7.13</v>
+      </c>
+      <c r="H71">
+        <v>-8.33</v>
+      </c>
+      <c r="I71">
+        <v>-8.92</v>
+      </c>
+      <c r="J71">
+        <v>-6.95</v>
+      </c>
+      <c r="K71">
+        <v>-6.04</v>
+      </c>
+      <c r="L71">
+        <v>-4.72</v>
+      </c>
+      <c r="M71">
+        <v>-7.62</v>
+      </c>
+      <c r="N71">
+        <v>-5.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20240034567</v>
       </c>
       <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" t="s">
         <v>50</v>
       </c>
-      <c r="C72" t="s">
+      <c r="F72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>-5.22</v>
+      </c>
+      <c r="H72">
+        <v>-7.36</v>
+      </c>
+      <c r="I72">
+        <v>-3.75</v>
+      </c>
+      <c r="J72">
+        <v>-12.11</v>
+      </c>
+      <c r="K72">
+        <v>-12.9</v>
+      </c>
+      <c r="L72">
+        <v>-10.36</v>
+      </c>
+      <c r="M72">
+        <v>-5.09</v>
+      </c>
+      <c r="N72">
+        <v>-4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20240060316</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>-2</v>
+      </c>
+      <c r="I73">
+        <v>-3.53</v>
+      </c>
+      <c r="J73">
+        <v>-2.67</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="M73">
+        <v>-2.59</v>
+      </c>
+      <c r="N73">
+        <v>-6.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20240048714</v>
       </c>
       <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" t="s">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="F74" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>-6.7</v>
+      </c>
+      <c r="H74">
+        <v>-9.8699999999999992</v>
+      </c>
+      <c r="I74">
+        <v>-3.19</v>
+      </c>
+      <c r="M74">
+        <v>-10.24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20230023891</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>-2.9</v>
+      </c>
+      <c r="H75">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="I75">
+        <v>-5.89</v>
+      </c>
+      <c r="J75">
+        <v>-4.18</v>
+      </c>
+      <c r="K75">
+        <v>-5.22</v>
+      </c>
+      <c r="L75">
+        <v>-2.67</v>
+      </c>
+      <c r="M75">
+        <v>-6.43</v>
+      </c>
+      <c r="N75">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20180142185</v>
       </c>
       <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76">
+        <v>42</v>
+      </c>
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" t="s">
         <v>74</v>
       </c>
-      <c r="C76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76">
+        <v>-11</v>
+      </c>
+      <c r="H76">
+        <v>-6.57</v>
+      </c>
+      <c r="I76">
+        <v>-10.18</v>
+      </c>
+      <c r="J76">
+        <v>-11</v>
+      </c>
+      <c r="K76">
+        <v>-8.67</v>
+      </c>
+      <c r="L76">
+        <v>-10</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>-7.86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20240058395</v>
       </c>
       <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" t="s">
         <v>75</v>
       </c>
-      <c r="C77" t="s">
+      <c r="F77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>-9.7200000000000006</v>
+      </c>
+      <c r="H77">
+        <v>-5.24</v>
+      </c>
+      <c r="I77">
+        <v>-3.06</v>
+      </c>
+      <c r="J77">
+        <v>-8.23</v>
+      </c>
+      <c r="K77">
+        <v>-7</v>
+      </c>
+      <c r="L77">
+        <v>-5.6</v>
+      </c>
+      <c r="M77">
+        <v>-3.33</v>
+      </c>
+      <c r="N77">
+        <v>-8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20200075595</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>-7.7</v>
+      </c>
+      <c r="H78">
+        <v>-2.99</v>
+      </c>
+      <c r="I78">
+        <v>-7.94</v>
+      </c>
+      <c r="J78">
+        <v>-5.47</v>
+      </c>
+      <c r="K78">
+        <v>-6.9</v>
+      </c>
+      <c r="L78">
+        <v>-8.77</v>
+      </c>
+      <c r="M78">
+        <v>-5.65</v>
+      </c>
+      <c r="N78">
+        <v>-7.16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20230040481</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>-3.17</v>
+      </c>
+      <c r="H79">
+        <v>-1.9</v>
+      </c>
+      <c r="I79">
+        <v>-2.9</v>
+      </c>
+      <c r="J79">
+        <v>-1.35</v>
+      </c>
+      <c r="K79">
+        <v>-2.04</v>
+      </c>
+      <c r="L79">
+        <v>-3</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>-2.71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20240062455</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="C80">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80">
+        <v>-5.14</v>
+      </c>
+      <c r="H80">
+        <v>-0.94</v>
+      </c>
+      <c r="I80">
+        <v>-4.83</v>
+      </c>
+      <c r="J80">
+        <v>-0.44</v>
+      </c>
+      <c r="K80">
+        <v>-6.21</v>
+      </c>
+      <c r="L80">
+        <v>-3.5</v>
+      </c>
+      <c r="M80">
+        <v>-6.33</v>
+      </c>
+      <c r="N80">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20240062254</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C81">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81">
+        <v>-3.91</v>
+      </c>
+      <c r="H81">
+        <v>-1.82</v>
+      </c>
+      <c r="I81">
+        <v>-3</v>
+      </c>
+      <c r="J81">
+        <v>-5.03</v>
+      </c>
+      <c r="K81">
+        <v>-6.26</v>
+      </c>
+      <c r="L81">
+        <v>-1.81</v>
+      </c>
+      <c r="M81">
+        <v>-1.71</v>
+      </c>
+      <c r="N81">
+        <v>-2.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20240048215</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>-6.72</v>
+      </c>
+      <c r="H82">
+        <v>-6.04</v>
+      </c>
+      <c r="I82">
+        <v>-6.04</v>
+      </c>
+      <c r="J82">
+        <v>-10.37</v>
+      </c>
+      <c r="K82">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="L82">
+        <v>-6.79</v>
+      </c>
+      <c r="M82">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="N82">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20240060273</v>
       </c>
       <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" t="s">
         <v>6</v>
       </c>
-      <c r="C83" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G83">
+        <v>-7.94</v>
+      </c>
+      <c r="H83">
+        <v>-6.94</v>
+      </c>
+      <c r="I83">
+        <v>-6.75</v>
+      </c>
+      <c r="J83">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="K83">
+        <v>-6.96</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>-4.57</v>
+      </c>
+      <c r="N83">
+        <v>-7.55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20240054804</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="C84">
+        <v>56</v>
+      </c>
+      <c r="D84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>-2.75</v>
+      </c>
+      <c r="H84">
+        <v>-1.38</v>
+      </c>
+      <c r="I84">
+        <v>-0.17</v>
+      </c>
+      <c r="J84">
+        <v>-1.54</v>
+      </c>
+      <c r="K84">
+        <v>-2.44</v>
+      </c>
+      <c r="L84">
+        <v>-2.52</v>
+      </c>
+      <c r="M84">
+        <v>-2.17</v>
+      </c>
+      <c r="N84">
+        <v>-4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20240051976</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="C85">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85">
+        <v>-10.5</v>
+      </c>
+      <c r="H85">
+        <v>-6.95</v>
+      </c>
+      <c r="I85">
+        <v>-3.16</v>
+      </c>
+      <c r="J85">
+        <v>-3.16</v>
+      </c>
+      <c r="K85">
+        <v>-2.63</v>
+      </c>
+      <c r="L85">
+        <v>-9.36</v>
+      </c>
+      <c r="M85">
+        <v>-2.8</v>
+      </c>
+      <c r="N85">
+        <v>-4.16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20240068214</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="C86">
+        <v>71</v>
+      </c>
+      <c r="D86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E86" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86">
+        <v>-3.93</v>
+      </c>
+      <c r="H86">
+        <v>-5</v>
+      </c>
+      <c r="I86">
+        <v>-1.54</v>
+      </c>
+      <c r="J86">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="K86">
+        <v>-7.86</v>
+      </c>
+      <c r="L86">
+        <v>-9.02</v>
+      </c>
+      <c r="M86">
+        <v>-3.9</v>
+      </c>
+      <c r="N86">
+        <v>-5.73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20240068215</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="C87">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>-4.2</v>
+      </c>
+      <c r="H87">
+        <v>-3.16</v>
+      </c>
+      <c r="I87">
+        <v>-5.14</v>
+      </c>
+      <c r="J87">
+        <v>-4.21</v>
+      </c>
+      <c r="K87">
+        <v>-4.91</v>
+      </c>
+      <c r="L87">
+        <v>-5.03</v>
+      </c>
+      <c r="M87">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="N87">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20240066137</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="C88">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>-4.29</v>
+      </c>
+      <c r="H88">
+        <v>-5.87</v>
+      </c>
+      <c r="I88">
+        <v>-4.63</v>
+      </c>
+      <c r="J88">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="K88">
+        <v>-3.96</v>
+      </c>
+      <c r="L88">
+        <v>-6.32</v>
+      </c>
+      <c r="M88">
+        <v>-3.62</v>
+      </c>
+      <c r="N88">
+        <v>-3.57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20240069492</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="C89">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>-5.19</v>
+      </c>
+      <c r="H89">
+        <v>-5.32</v>
+      </c>
+      <c r="I89">
+        <v>-6.39</v>
+      </c>
+      <c r="J89">
+        <v>-6.25</v>
+      </c>
+      <c r="K89">
+        <v>-6.21</v>
+      </c>
+      <c r="L89">
+        <v>-4.18</v>
+      </c>
+      <c r="M89">
+        <v>-4.18</v>
+      </c>
+      <c r="N89">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20240067159</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>-5.9</v>
+      </c>
+      <c r="H90">
+        <v>-1.65</v>
+      </c>
+      <c r="I90">
+        <v>-1.41</v>
+      </c>
+      <c r="J90">
+        <v>-1.75</v>
+      </c>
+      <c r="K90">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="L90">
+        <v>-1.41</v>
+      </c>
+      <c r="M90">
+        <v>-3.28</v>
+      </c>
+      <c r="N90">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20230028720</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>-9.32</v>
+      </c>
+      <c r="H91">
+        <v>-3.33</v>
+      </c>
+      <c r="I91">
+        <v>-6.58</v>
+      </c>
+      <c r="J91">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="K91">
+        <v>-4.91</v>
+      </c>
+      <c r="L91">
+        <v>-2.23</v>
+      </c>
+      <c r="M91">
+        <v>-8.99</v>
+      </c>
+      <c r="N91">
+        <v>-5.62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20240046542</v>
       </c>
       <c r="B92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92">
+        <v>67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" t="s">
         <v>82</v>
       </c>
-      <c r="C92" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>-6.35</v>
+      </c>
+      <c r="H92">
+        <v>-5.22</v>
+      </c>
+      <c r="I92">
+        <v>-9.31</v>
+      </c>
+      <c r="J92">
+        <v>-4.3499999999999996</v>
+      </c>
+      <c r="K92">
+        <v>-4.8899999999999997</v>
+      </c>
+      <c r="L92">
+        <v>-3.19</v>
+      </c>
+      <c r="M92">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="N92">
+        <v>-3.52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20230137322</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93">
+        <v>-3.3</v>
+      </c>
+      <c r="H93">
+        <v>-7.09</v>
+      </c>
+      <c r="I93">
+        <v>-4.95</v>
+      </c>
+      <c r="J93">
+        <v>-8.4600000000000009</v>
+      </c>
+      <c r="K93">
+        <v>-1.98</v>
+      </c>
+      <c r="L93">
+        <v>-4.47</v>
+      </c>
+      <c r="M93">
+        <v>-1.38</v>
+      </c>
+      <c r="N93">
+        <v>-8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20240015478</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94">
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94">
+        <v>-7.54</v>
+      </c>
+      <c r="H94">
+        <v>-3.34</v>
+      </c>
+      <c r="I94">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="J94">
+        <v>-6.6</v>
+      </c>
+      <c r="K94">
+        <v>-9.33</v>
+      </c>
+      <c r="L94">
+        <v>-6.91</v>
+      </c>
+      <c r="M94">
+        <v>-9.51</v>
+      </c>
+      <c r="N94">
+        <v>-5.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20240068424</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" t="s">
+        <v>85</v>
+      </c>
+      <c r="F95" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>-4.63</v>
+      </c>
+      <c r="H95">
+        <v>-5.69</v>
+      </c>
+      <c r="I95">
+        <v>-1.89</v>
+      </c>
+      <c r="J95">
+        <v>-7.69</v>
+      </c>
+      <c r="K95">
+        <v>-3.16</v>
+      </c>
+      <c r="L95">
+        <v>-2.67</v>
+      </c>
+      <c r="M95">
+        <v>-8.98</v>
+      </c>
+      <c r="N95">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20240071058</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96">
+        <v>65</v>
+      </c>
+      <c r="D96" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>-10.72</v>
+      </c>
+      <c r="H96">
+        <v>-3.91</v>
+      </c>
+      <c r="I96">
+        <v>-3.82</v>
+      </c>
+      <c r="J96">
+        <v>-4.93</v>
+      </c>
+      <c r="K96">
+        <v>-9.51</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>-1.98</v>
+      </c>
+      <c r="N96">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20240074728</v>
       </c>
       <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97">
+        <v>46</v>
+      </c>
+      <c r="D97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" t="s">
         <v>88</v>
       </c>
-      <c r="C97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>-8.42</v>
+      </c>
+      <c r="H97">
+        <v>-9.4499999999999993</v>
+      </c>
+      <c r="I97">
+        <v>-5.73</v>
+      </c>
+      <c r="J97">
+        <v>-3.17</v>
+      </c>
+      <c r="K97">
+        <v>-7.33</v>
+      </c>
+      <c r="L97">
+        <v>-5.22</v>
+      </c>
+      <c r="M97">
+        <v>-3.15</v>
+      </c>
+      <c r="N97">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20240074281</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="C98">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98">
+        <v>-4.17</v>
+      </c>
+      <c r="H98">
+        <v>-4.08</v>
+      </c>
+      <c r="I98">
+        <v>-3.23</v>
+      </c>
+      <c r="J98">
+        <v>-4.26</v>
+      </c>
+      <c r="K98">
+        <v>-5.79</v>
+      </c>
+      <c r="L98">
+        <v>-6.66</v>
+      </c>
+      <c r="M98">
+        <v>-2.8</v>
+      </c>
+      <c r="N98">
+        <v>-7.48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20240076716</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="C99">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99">
+        <v>-7.98</v>
+      </c>
+      <c r="H99">
+        <v>-8.74</v>
+      </c>
+      <c r="I99">
+        <v>-7.49</v>
+      </c>
+      <c r="J99">
+        <v>-7.34</v>
+      </c>
+      <c r="K99">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="L99">
+        <v>-7.06</v>
+      </c>
+      <c r="M99">
+        <v>-7.74</v>
+      </c>
+      <c r="N99">
+        <v>-7.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20240078762</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="C100">
+        <v>37</v>
+      </c>
+      <c r="D100" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100">
+        <v>-6.22</v>
+      </c>
+      <c r="H100">
+        <v>-5.66</v>
+      </c>
+      <c r="I100">
+        <v>-3.71</v>
+      </c>
+      <c r="J100">
+        <v>-11.24</v>
+      </c>
+      <c r="K100">
+        <v>-1.24</v>
+      </c>
+      <c r="L100">
+        <v>-3.45</v>
+      </c>
+      <c r="M100">
+        <v>-2.98</v>
+      </c>
+      <c r="N100">
+        <v>-5.65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20240078772</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="C101">
+        <v>43</v>
+      </c>
+      <c r="D101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101">
+        <v>-5.7</v>
+      </c>
+      <c r="H101">
+        <v>-7.62</v>
+      </c>
+      <c r="I101">
+        <v>-6</v>
+      </c>
+      <c r="J101">
+        <v>-4.87</v>
+      </c>
+      <c r="K101">
+        <v>-6.42</v>
+      </c>
+      <c r="L101">
+        <v>-5.63</v>
+      </c>
+      <c r="M101">
+        <v>-6.25</v>
+      </c>
+      <c r="N101">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20240062956</v>
       </c>
       <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" t="s">
         <v>93</v>
       </c>
-      <c r="C102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>-5.1440000000000001</v>
+      </c>
+      <c r="H102">
+        <v>-8.7200000000000006</v>
+      </c>
+      <c r="I102">
+        <v>-8.3109999999999999</v>
+      </c>
+      <c r="J102">
+        <v>-5.22</v>
+      </c>
+      <c r="K102">
+        <v>-10.59</v>
+      </c>
+      <c r="L102">
+        <v>-2.84</v>
+      </c>
+      <c r="M102">
+        <v>-13.48</v>
+      </c>
+      <c r="N102">
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20240088127</v>
       </c>
       <c r="B103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" t="s">
         <v>6</v>
       </c>
-      <c r="C103" t="s">
+      <c r="F103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>-8.1</v>
+      </c>
+      <c r="H103">
+        <v>-5.39</v>
+      </c>
+      <c r="I103">
+        <v>-3.94</v>
+      </c>
+      <c r="J103">
+        <v>-5.04</v>
+      </c>
+      <c r="K103">
+        <v>-3.49</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>-5.45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20240076818</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>-4.29</v>
+      </c>
+      <c r="H104">
+        <v>-4.63</v>
+      </c>
+      <c r="I104">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="J104">
+        <v>-3.96</v>
+      </c>
+      <c r="K104">
+        <v>-6.32</v>
+      </c>
+      <c r="L104">
+        <v>-3.62</v>
+      </c>
+      <c r="M104">
+        <v>-3.57</v>
+      </c>
+      <c r="N104">
+        <v>-3.57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20240070348</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105">
+        <v>60</v>
+      </c>
+      <c r="D105" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>-7.4980000000000002</v>
+      </c>
+      <c r="H105">
+        <v>-6.8</v>
+      </c>
+      <c r="I105">
+        <v>-4.43</v>
+      </c>
+      <c r="J105">
+        <v>-5.4889999999999999</v>
+      </c>
+      <c r="K105">
+        <v>-5.18</v>
+      </c>
+      <c r="L105">
+        <v>-7</v>
+      </c>
+      <c r="M105">
+        <v>-6.21</v>
+      </c>
+      <c r="N105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20240028527</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="C106">
+        <v>41</v>
+      </c>
+      <c r="D106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>-5.68</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20230003855</v>
       </c>
       <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" t="s">
         <v>28</v>
       </c>
-      <c r="C107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>95</v>
+      </c>
+      <c r="G107">
+        <v>-10.09</v>
+      </c>
+      <c r="H107">
+        <v>-7.69</v>
+      </c>
+      <c r="I107">
+        <v>-8</v>
+      </c>
+      <c r="J107">
+        <v>-9.39</v>
+      </c>
+      <c r="K107">
+        <v>-8.99</v>
+      </c>
+      <c r="M107">
+        <v>-9.49</v>
+      </c>
+      <c r="N107">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20240092861</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="C108">
+        <v>60</v>
+      </c>
+      <c r="D108" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" t="s">
+        <v>119</v>
+      </c>
+      <c r="I108" t="s">
+        <v>119</v>
+      </c>
+      <c r="J108">
+        <v>-4</v>
+      </c>
+      <c r="K108">
+        <v>-5.04</v>
+      </c>
+      <c r="L108">
+        <v>-11.81</v>
+      </c>
+      <c r="N108">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20240087671</v>
       </c>
       <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" t="s">
         <v>98</v>
       </c>
-      <c r="C109" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>-7.09</v>
+      </c>
+      <c r="H109">
+        <v>-7.79</v>
+      </c>
+      <c r="I109">
+        <v>-8.5</v>
+      </c>
+      <c r="J109">
+        <v>-5.6</v>
+      </c>
+      <c r="K109">
+        <v>-8.99</v>
+      </c>
+      <c r="L109">
+        <v>-8</v>
+      </c>
+      <c r="M109">
+        <v>-8.5</v>
+      </c>
+      <c r="N109">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20230121277</v>
       </c>
       <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110">
+        <v>42</v>
+      </c>
+      <c r="D110" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" t="s">
         <v>100</v>
       </c>
-      <c r="C110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>-10.29</v>
+      </c>
+      <c r="H110">
+        <v>-5.41</v>
+      </c>
+      <c r="I110">
+        <v>-5.15</v>
+      </c>
+      <c r="J110">
+        <v>-8.2899999999999991</v>
+      </c>
+      <c r="K110">
+        <v>-5.01</v>
+      </c>
+      <c r="L110">
+        <v>-7.3</v>
+      </c>
+      <c r="M110">
+        <v>-5.87</v>
+      </c>
+      <c r="N110">
+        <v>-6.39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20240094465</v>
       </c>
       <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" t="s">
         <v>102</v>
       </c>
-      <c r="C111" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>-9.5</v>
+      </c>
+      <c r="H111">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="I111">
+        <v>-6.9</v>
+      </c>
+      <c r="J111">
+        <v>-10.9</v>
+      </c>
+      <c r="K111">
+        <v>-10.29</v>
+      </c>
+      <c r="L111">
+        <v>-7.59</v>
+      </c>
+      <c r="M111">
+        <v>-8.2899999999999991</v>
+      </c>
+      <c r="N111">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20230156801</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="C112">
+        <v>56</v>
+      </c>
+      <c r="D112" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112">
+        <v>-2.84</v>
+      </c>
+      <c r="H112">
+        <v>-4.37</v>
+      </c>
+      <c r="I112">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="J112">
+        <v>-3</v>
+      </c>
+      <c r="K112">
+        <v>-5.99</v>
+      </c>
+      <c r="L112">
+        <v>-1.69</v>
+      </c>
+      <c r="M112">
+        <v>-4.67</v>
+      </c>
+      <c r="N112">
+        <v>-7.47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20240053790</v>
       </c>
       <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113" t="s">
         <v>105</v>
       </c>
-      <c r="C113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="H113">
+        <v>-7.25</v>
+      </c>
+      <c r="I113">
+        <v>-6.34</v>
+      </c>
+      <c r="J113">
+        <v>-6.92</v>
+      </c>
+      <c r="K113">
+        <v>-4.8</v>
+      </c>
+      <c r="L113">
+        <v>-8.52</v>
+      </c>
+      <c r="M113">
+        <v>-5.81</v>
+      </c>
+      <c r="N113">
+        <v>-1.47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20240039512</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="C114">
+        <v>49</v>
+      </c>
+      <c r="D114" t="s">
+        <v>117</v>
+      </c>
+      <c r="E114" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="H114">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="I114">
+        <v>-7.5</v>
+      </c>
+      <c r="J114">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="K114">
+        <v>-6.1</v>
+      </c>
+      <c r="L114">
+        <v>-11.2</v>
+      </c>
+      <c r="M114">
+        <v>-7.5</v>
+      </c>
+      <c r="N114">
+        <v>-9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20240107218</v>
       </c>
       <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="H115">
+        <v>-5.52</v>
+      </c>
+      <c r="I115">
+        <v>-7.77</v>
+      </c>
+      <c r="J115">
+        <v>-6.37</v>
+      </c>
+      <c r="K115">
+        <v>-5.83</v>
+      </c>
+      <c r="L115">
+        <v>-5.65</v>
+      </c>
+      <c r="M115">
+        <v>-4.09</v>
+      </c>
+      <c r="N115">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20240099770</v>
       </c>
       <c r="B116" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116">
+        <v>45</v>
+      </c>
+      <c r="D116" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20170059075</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="C117">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117">
+        <v>-5.41</v>
+      </c>
+      <c r="H117">
+        <v>-7.42</v>
+      </c>
+      <c r="I117">
+        <v>-7.85</v>
+      </c>
+      <c r="J117">
+        <v>-5.64</v>
+      </c>
+      <c r="K117">
+        <v>-6.67</v>
+      </c>
+      <c r="L117">
+        <v>-3.18</v>
+      </c>
+      <c r="M117">
+        <v>-6.34</v>
+      </c>
+      <c r="N117">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20210062776</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="C118">
+        <v>32</v>
+      </c>
+      <c r="D118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118">
+        <v>-5.6</v>
+      </c>
+      <c r="H118">
+        <v>-2.7</v>
+      </c>
+      <c r="I118">
+        <v>-6.7</v>
+      </c>
+      <c r="J118">
+        <v>-6.2</v>
+      </c>
+      <c r="K118">
+        <v>-6.7</v>
+      </c>
+      <c r="L118">
+        <v>-6.4</v>
+      </c>
+      <c r="M118">
+        <v>-7.5</v>
+      </c>
+      <c r="N118">
+        <v>-9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20240043449</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C119">
+        <v>54</v>
+      </c>
+      <c r="D119" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="I119">
+        <v>-7.9</v>
+      </c>
+      <c r="J119">
+        <v>-7.5</v>
+      </c>
+      <c r="K119">
+        <v>-6.9</v>
+      </c>
+      <c r="L119">
+        <v>-7.5</v>
+      </c>
+      <c r="M119">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="N119">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20240076642</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C120">
+        <v>43</v>
+      </c>
+      <c r="D120" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120">
+        <v>-3.66</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>-6.01</v>
+      </c>
+      <c r="J120">
+        <v>-7.52</v>
+      </c>
+      <c r="K120">
+        <v>-5.95</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>-4.18</v>
+      </c>
+      <c r="N120">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20240094375</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>234</v>
+      </c>
+      <c r="C121">
+        <v>49</v>
+      </c>
+      <c r="D121" t="s">
+        <v>117</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="H121">
+        <v>-6.4</v>
+      </c>
+      <c r="I121">
+        <v>-9.24</v>
+      </c>
+      <c r="J121">
+        <v>-7.92</v>
+      </c>
+      <c r="K121">
+        <v>-7.64</v>
+      </c>
+      <c r="L121">
+        <v>-3.57</v>
+      </c>
+      <c r="M121">
+        <v>-6.12</v>
+      </c>
+      <c r="N121">
+        <v>-1.88</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DDFF8B-5ADF-407A-963D-913FA3EC7467}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75605C4-4550-4324-83DF-CD5C742C7DAB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="199">
   <si>
     <t>UHID</t>
   </si>
   <si>
-    <t>RAMJA Results</t>
-  </si>
-  <si>
     <t>AIIMS Result culture</t>
   </si>
   <si>
@@ -53,252 +50,69 @@
     <t>Contamination</t>
   </si>
   <si>
-    <t>E.Coli, K.pneumoniae, P. aeruginosa, A. baumanni and S. aureus</t>
-  </si>
-  <si>
     <t>E.coli</t>
   </si>
   <si>
-    <t>K.pneumoniae, E. faecalis, P. mirabilis,  A. baumanni and S. aureus</t>
-  </si>
-  <si>
     <t>CONTAMINATION</t>
   </si>
   <si>
-    <t>Polymicrobial (E.coli, A. baumannii, P.mirabilis, E. faecalis,S aureus</t>
-  </si>
-  <si>
-    <t>Pseudomonas, P.mirabilis, E.Faecalis, S. aureus</t>
-  </si>
-  <si>
     <t>E.coli &amp; Pseudomnas</t>
   </si>
   <si>
-    <t>E. Coli, Pseudomonas, P.mirabilis, E.Faecalis, S. aureus</t>
-  </si>
-  <si>
     <t>E.coli,A.Baumini</t>
   </si>
   <si>
-    <t>E. Coli, K pneumoniae, A baumannii, P.mirabilis, S aureus, E.Faecalis</t>
-  </si>
-  <si>
     <t>Sterile</t>
   </si>
   <si>
-    <t>E. Coli, K. Pneumoniae, P.mirabilis, P aeruginosa</t>
-  </si>
-  <si>
-    <t>K. Pneumoniae and P aeruiginosa</t>
-  </si>
-  <si>
     <t>sterile</t>
   </si>
   <si>
-    <t>K. Pneumoniae, P. aeruginosa, P.mirabilis, S aureus,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> K pneumoniae, A baumannii, P.mirabilis</t>
-  </si>
-  <si>
     <t>E.Coli</t>
   </si>
   <si>
-    <t>E.coli, Klebsiella pneumonia, A baumannii</t>
-  </si>
-  <si>
     <t>E.coli &amp; Klebsiella pneumonia</t>
   </si>
   <si>
-    <t>E.coli, K. Pneumoniae, E.faecalis, A baumannii</t>
-  </si>
-  <si>
-    <t>E.coli, K. Pne, P aeruginosa, A. baumannii, P.mirabilis</t>
-  </si>
-  <si>
     <t>E. Coli</t>
   </si>
   <si>
-    <t>E. Coli, P aeruginosa, A baumannii</t>
-  </si>
-  <si>
     <t>E. coli</t>
   </si>
   <si>
-    <t xml:space="preserve"> E.Faecalis</t>
-  </si>
-  <si>
-    <t>E.coli, E.faecalis, A baumannii</t>
-  </si>
-  <si>
-    <t>Klebsiella pneumonia, and P. mirabilis</t>
-  </si>
-  <si>
     <t>Candida spp.</t>
   </si>
   <si>
-    <t>E. Coli, K pneumoniae, P.mirabilis, S aureus</t>
-  </si>
-  <si>
-    <t>E. Coli, K pneumoniae</t>
-  </si>
-  <si>
-    <t>K pneumoniae</t>
-  </si>
-  <si>
-    <t>K pneumoniae, P.mirabilis</t>
-  </si>
-  <si>
-    <t>A baumannii, P mirabilis and Psedomonas Aurogenosa</t>
-  </si>
-  <si>
     <t>contamination</t>
   </si>
   <si>
-    <t>E. Coli, K pneumoniae, S aureus, E.Faecalis</t>
-  </si>
-  <si>
-    <t>P aeruginosa</t>
-  </si>
-  <si>
-    <t>E. Coli, P aeruginosa, P.mirabilis, S aureus, E.Faecalis</t>
-  </si>
-  <si>
     <t>Klebsiella pneumoniae</t>
   </si>
   <si>
-    <t>A baumannii, P mirabilis and S aureus</t>
-  </si>
-  <si>
-    <t>E. Coli, P aeruginosa, S aureus</t>
-  </si>
-  <si>
-    <t>E. Coli, K pneumoniae, A baumannii, E.Faecalis</t>
-  </si>
-  <si>
-    <t>E. Coli, P. aeruginosa</t>
-  </si>
-  <si>
-    <t>E. coli, E faecalis</t>
-  </si>
-  <si>
-    <t>E. coli and K pneumoniae</t>
-  </si>
-  <si>
-    <t>E coli</t>
-  </si>
-  <si>
     <t>A. baumannii, P.mirabilis, E. Faecalis</t>
   </si>
   <si>
-    <t>P mirabilis</t>
-  </si>
-  <si>
     <t>K. Pneumoniae</t>
   </si>
   <si>
-    <t>K. Pneumoniae ans S aureus</t>
-  </si>
-  <si>
-    <t>Pseudomonas and S. saprophyticus</t>
-  </si>
-  <si>
-    <t>E. Coli, A baumannii, P.mirabilis, E.Faecalis, S saprophyticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A baumannii, E.Faecalis, S aureus</t>
-  </si>
-  <si>
-    <t>E. Coli and A baumannii</t>
-  </si>
-  <si>
-    <t>E. Coli, P.mirabilis, S aureus</t>
-  </si>
-  <si>
-    <t>S saprophyticus</t>
-  </si>
-  <si>
-    <t>K. Pneumoniae ans P aeruginosa</t>
-  </si>
-  <si>
-    <t>E. Coli and E.Faecalis</t>
-  </si>
-  <si>
-    <t>E.coli,K pneumoniae, P aeruginosa A. baumannii, P.mirabilis, E. Faecalis, S.aureus, S saprophyticus</t>
-  </si>
-  <si>
     <t>A.Baumini</t>
   </si>
   <si>
     <t>Enterococcus faecalis &gt;105CFU/ml)</t>
   </si>
   <si>
-    <t>P aeruginosa, E. Faecalis, S.aureus</t>
-  </si>
-  <si>
-    <t>E.coli, P aeruginosa, E. Faecalis, S saprophyticus</t>
-  </si>
-  <si>
     <t>Pseudomonas aeuroginosa</t>
   </si>
   <si>
-    <t>E. Faecalis, S saprophyticus</t>
-  </si>
-  <si>
-    <t>E.coli and K pneumoniae</t>
-  </si>
-  <si>
-    <t>A. Bauminni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K pneumoniae and P aeruginosa </t>
-  </si>
-  <si>
     <t>Insignificant growth</t>
   </si>
   <si>
-    <t>S. Aureus and K.Pneuminoneae</t>
-  </si>
-  <si>
-    <t>E.Coli, psedomomass, A. baumannii, E. Faecalis, P mirabilis</t>
-  </si>
-  <si>
-    <t>E.coli, A. baumannii,  S saprophyticus</t>
-  </si>
-  <si>
-    <t>A. baumannii, S.aureus</t>
-  </si>
-  <si>
     <t>klebsiella, E.coli</t>
   </si>
   <si>
-    <t>E. coli, E. Faecalis</t>
-  </si>
-  <si>
-    <t>E. Faecalis</t>
-  </si>
-  <si>
-    <t>E. coli, S.aureus</t>
-  </si>
-  <si>
-    <t>P. aeruginosa</t>
-  </si>
-  <si>
     <t>Acintobacter spp.</t>
   </si>
   <si>
-    <t>A baumannii, S saprophyticus</t>
-  </si>
-  <si>
-    <t>P mirabilis, S aureus, E.coli</t>
-  </si>
-  <si>
-    <t>S aureus</t>
-  </si>
-  <si>
-    <t>E.Coli, P mirabilis</t>
-  </si>
-  <si>
     <t>E.coli and K.pneumoneae</t>
   </si>
   <si>
@@ -308,15 +122,9 @@
     <t>Commensal Flora</t>
   </si>
   <si>
-    <t>K pneumoniae, P mirabilis</t>
-  </si>
-  <si>
     <t>A. Baumannii</t>
   </si>
   <si>
-    <t>K pneumoniae, P aeruginosa, P mirabilis, S.aureus, S. saprophyticus</t>
-  </si>
-  <si>
     <t>K pneumoniae and P mirabilis</t>
   </si>
   <si>
@@ -329,9 +137,6 @@
     <t>E. faecalis</t>
   </si>
   <si>
-    <t>P mirabilis, P. aeruginosa, S.Aureus, E faecalis</t>
-  </si>
-  <si>
     <t>Insignificant growth gram positive cocci</t>
   </si>
   <si>
@@ -341,24 +146,15 @@
     <t>Insignificant Gram negative bacilli</t>
   </si>
   <si>
-    <t>E. coli, K pneumoniae, P mirabilis, S.aureus, S. saprophyticus, A baumanni</t>
-  </si>
-  <si>
     <t>Candida spp. and Insignificant gram negative bacilli</t>
   </si>
   <si>
     <t>Insignificant gram negative bacilli</t>
   </si>
   <si>
-    <t>Escherichia coli, E faecalis</t>
-  </si>
-  <si>
     <t>Escherichia coli</t>
   </si>
   <si>
-    <t>E. coli, K pneumoniae, A baumannii, S saprophyticus, E. faecalis</t>
-  </si>
-  <si>
     <t>Patients Name</t>
   </si>
   <si>
@@ -395,18 +191,12 @@
     <t>Shyanu</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Saloni</t>
   </si>
   <si>
     <t>Ravita</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Jyoti</t>
   </si>
   <si>
@@ -728,19 +518,121 @@
     <t>Yashoda Devi</t>
   </si>
   <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
-    <t>Nasrin Jahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dharamwati </t>
-  </si>
-  <si>
-    <t>Kiran</t>
-  </si>
-  <si>
-    <t>Seema devi</t>
+    <t>RAMJA Result</t>
+  </si>
+  <si>
+    <t>E.Coli. and K.pne</t>
+  </si>
+  <si>
+    <t>P. mirabilis</t>
+  </si>
+  <si>
+    <t>Polymicrobial (E.coli, A. baumannii, P.mirabilis, E. faecalis</t>
+  </si>
+  <si>
+    <t>E.coli, Pseudomonas, P.mirabilis, E.Faecalis, S. aureus</t>
+  </si>
+  <si>
+    <t>Polymicrobial (E. Coli, A.baumannii, Pseudomonas, P.mirabilis, E.Faecalis, S. aureus)</t>
+  </si>
+  <si>
+    <t>E.Faecalis, S. aureus</t>
+  </si>
+  <si>
+    <t>E. Coli, K. Pne, P.mirabilis</t>
+  </si>
+  <si>
+    <t>K. Pne</t>
+  </si>
+  <si>
+    <t>K. Pne, Pseudomonas, P.mirabilis</t>
+  </si>
+  <si>
+    <t>K. Pne, and P.mirabilis</t>
+  </si>
+  <si>
+    <t>Weak E.coli</t>
+  </si>
+  <si>
+    <t>E.coli, K. Pne, E.faecalis</t>
+  </si>
+  <si>
+    <t>E.coli, K. Pne, A. baumannii, P.mirabilis</t>
+  </si>
+  <si>
+    <t>E. Coli and Pseudomonas</t>
+  </si>
+  <si>
+    <t>P.Mirabilis and E.Fecalis</t>
+  </si>
+  <si>
+    <t>E.coli, K pneumonnae and Psedomonas Aurogenosa</t>
+  </si>
+  <si>
+    <t>E. Coli and E.faecalis</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae &amp; S.Aureus</t>
+  </si>
+  <si>
+    <t>Pseudomonas</t>
+  </si>
+  <si>
+    <t>Pseudomonas, S. saprophyticus</t>
+  </si>
+  <si>
+    <t>E.feacalis, A.baumannii &amp; S.aureus</t>
+  </si>
+  <si>
+    <t>K.Pneumonae and Pseudomonas</t>
+  </si>
+  <si>
+    <t>E.coli, A. baumannii, P.mirabilis, E. Faecalis, S.aureus</t>
+  </si>
+  <si>
+    <t>E.Fecalis and S.Aureus</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeuroginosa and E.coli</t>
+  </si>
+  <si>
+    <t>E.coli and K. Pne</t>
+  </si>
+  <si>
+    <t>E.coli, S. Aureus and K.Pneuminoneae</t>
+  </si>
+  <si>
+    <t>E.Coli, psedomomass, A. baumannii, E. Faecalis</t>
+  </si>
+  <si>
+    <t>A. baumannii</t>
+  </si>
+  <si>
+    <t>E. coli and Klebsiella</t>
+  </si>
+  <si>
+    <t>P.Aurogenosa</t>
+  </si>
+  <si>
+    <t>Klebsiella, P.mirabilis and S.Saprophytics</t>
+  </si>
+  <si>
+    <t>K pneumoniae and P mirabilis, S.aureus, S. saprophyticus</t>
+  </si>
+  <si>
+    <t>S.Aureus ,Saprohutics, and Mirababilis</t>
+  </si>
+  <si>
+    <t>A. baumanni, P mirabilis, S saprophyticus</t>
+  </si>
+  <si>
+    <t>S.Saprophytics</t>
+  </si>
+  <si>
+    <t>Yasmine</t>
+  </si>
+  <si>
+    <t>A.Baumini, E.coli</t>
   </si>
 </sst>
 </file>
@@ -1123,17 +1015,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="R80" sqref="R80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1141,43 +1033,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1185,19 +1077,19 @@
         <v>20220065432</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>-5.2608600000000001</v>
@@ -1209,10 +1101,10 @@
         <v>-3.5848</v>
       </c>
       <c r="L2">
+        <v>-5.62819</v>
+      </c>
+      <c r="M2">
         <v>-8.10731</v>
-      </c>
-      <c r="M2">
-        <v>-5.62819</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1220,16 +1112,13 @@
         <v>20240016182</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>-6.6332500000000003</v>
@@ -1247,10 +1136,10 @@
         <v>-11.9412</v>
       </c>
       <c r="L3">
+        <v>-14.938700000000001</v>
+      </c>
+      <c r="M3">
         <v>-13.6409</v>
-      </c>
-      <c r="M3">
-        <v>-14.938700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,19 +1147,19 @@
         <v>20230125389</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>-15.309799999999999</v>
@@ -1288,10 +1177,10 @@
         <v>-5.0667600000000004</v>
       </c>
       <c r="L4">
+        <v>-8.7779699999999998</v>
+      </c>
+      <c r="M4">
         <v>-5.4212100000000003</v>
-      </c>
-      <c r="M4">
-        <v>-8.7779699999999998</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1299,19 +1188,19 @@
         <v>20180022685</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>-7.7070400000000001</v>
@@ -1329,13 +1218,10 @@
         <v>-11.845700000000001</v>
       </c>
       <c r="L5">
+        <v>-9.9033899999999999</v>
+      </c>
+      <c r="M5">
         <v>-9.3165700000000005</v>
-      </c>
-      <c r="M5">
-        <v>-9.9033899999999999</v>
-      </c>
-      <c r="N5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1343,13 +1229,13 @@
         <v>20201415102</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1378,19 +1264,19 @@
         <v>20240012395</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>-10.255100000000001</v>
@@ -1408,10 +1294,10 @@
         <v>-11.544700000000001</v>
       </c>
       <c r="L7">
+        <v>-10.824199999999999</v>
+      </c>
+      <c r="M7">
         <v>-10.7879</v>
-      </c>
-      <c r="M7">
-        <v>-10.824199999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1419,22 +1305,22 @@
         <v>20220166372</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>-8.8733400000000007</v>
+        <v>-9.0399999999999991</v>
       </c>
       <c r="H8">
         <v>-5.3978000000000002</v>
@@ -1449,10 +1335,10 @@
         <v>-11.003299999999999</v>
       </c>
       <c r="L8">
+        <v>-11.6668</v>
+      </c>
+      <c r="M8">
         <v>-13.599600000000001</v>
-      </c>
-      <c r="M8">
-        <v>-11.6668</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1460,13 +1346,13 @@
         <v>20240018475</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>-11.3352</v>
@@ -1484,10 +1370,10 @@
         <v>-10.3881</v>
       </c>
       <c r="L9">
+        <v>-12.629099999999999</v>
+      </c>
+      <c r="M9">
         <v>-4.6000899999999998</v>
-      </c>
-      <c r="M9">
-        <v>-12.629099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1495,19 +1381,19 @@
         <v>20230149608</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>-11.282</v>
@@ -1525,10 +1411,10 @@
         <v>-12.13</v>
       </c>
       <c r="L10">
+        <v>-12.8856</v>
+      </c>
+      <c r="M10">
         <v>-12.506399999999999</v>
-      </c>
-      <c r="M10">
-        <v>-12.8856</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1536,19 +1422,19 @@
         <v>20240016829</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>-8.73</v>
@@ -1566,10 +1452,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="L11">
+        <v>-10.66</v>
+      </c>
+      <c r="M11">
         <v>-12.39</v>
-      </c>
-      <c r="M11">
-        <v>-10.66</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1577,19 +1463,19 @@
         <v>20230179067</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>-10.79</v>
@@ -1607,10 +1493,10 @@
         <v>-14.75</v>
       </c>
       <c r="L12">
+        <v>-6.2089999999999996</v>
+      </c>
+      <c r="M12">
         <v>-4.71</v>
-      </c>
-      <c r="M12">
-        <v>-6.2089999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1618,19 +1504,19 @@
         <v>20180188108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>-6.48</v>
@@ -1648,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="L13">
+        <v>-6.35</v>
+      </c>
+      <c r="M13">
         <v>-4.53</v>
-      </c>
-      <c r="M13">
-        <v>-6.35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1659,19 +1545,19 @@
         <v>20230141608</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>-7.35</v>
@@ -1689,10 +1575,10 @@
         <v>-10.43</v>
       </c>
       <c r="L14">
+        <v>-8.77</v>
+      </c>
+      <c r="M14">
         <v>-2.13</v>
-      </c>
-      <c r="M14">
-        <v>-8.77</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1700,19 +1586,19 @@
         <v>20240020494</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>-5.4089999999999998</v>
@@ -1730,10 +1616,10 @@
         <v>-10.119999999999999</v>
       </c>
       <c r="L15">
+        <v>-7.81</v>
+      </c>
+      <c r="M15">
         <v>-6.52</v>
-      </c>
-      <c r="M15">
-        <v>-7.81</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1741,19 +1627,19 @@
         <v>20240020519</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>-6.27</v>
@@ -1771,10 +1657,10 @@
         <v>-5.82</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>-1.37</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,19 +1668,19 @@
         <v>20240015483</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>-8.6300000000000008</v>
@@ -1812,10 +1698,10 @@
         <v>-7.64</v>
       </c>
       <c r="L17">
+        <v>-6.58</v>
+      </c>
+      <c r="M17">
         <v>-3.87</v>
-      </c>
-      <c r="M17">
-        <v>-6.58</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1823,19 +1709,19 @@
         <v>20240001249</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>-10.78</v>
@@ -1853,10 +1739,10 @@
         <v>-5.79</v>
       </c>
       <c r="L18">
+        <v>-5.62</v>
+      </c>
+      <c r="M18">
         <v>-13.48</v>
-      </c>
-      <c r="M18">
-        <v>-5.62</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1864,19 +1750,19 @@
         <v>20210094336</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>-24.48</v>
@@ -1894,10 +1780,10 @@
         <v>-16.41</v>
       </c>
       <c r="L19">
+        <v>-4.67</v>
+      </c>
+      <c r="M19">
         <v>-5.23</v>
-      </c>
-      <c r="M19">
-        <v>-4.67</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1905,19 +1791,19 @@
         <v>20240006140</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>-9.18</v>
@@ -1935,10 +1821,10 @@
         <v>-3.47</v>
       </c>
       <c r="L20">
+        <v>-6.44</v>
+      </c>
+      <c r="M20">
         <v>-6.28</v>
-      </c>
-      <c r="M20">
-        <v>-6.44</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1946,19 +1832,19 @@
         <v>20240020436</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>-11.36</v>
@@ -1976,10 +1862,10 @@
         <v>-7.22</v>
       </c>
       <c r="L21">
+        <v>-7.6059999999999999</v>
+      </c>
+      <c r="M21">
         <v>-5.88</v>
-      </c>
-      <c r="M21">
-        <v>-7.6059999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1987,16 +1873,16 @@
         <v>20240022478</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <v>-8.0500000000000007</v>
@@ -2014,10 +1900,10 @@
         <v>-3.46</v>
       </c>
       <c r="L22">
+        <v>-7.04</v>
+      </c>
+      <c r="M22">
         <v>0</v>
-      </c>
-      <c r="M22">
-        <v>-7.04</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2025,19 +1911,19 @@
         <v>20240022523</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>-11.506</v>
@@ -2055,10 +1941,10 @@
         <v>-3.58</v>
       </c>
       <c r="L23">
+        <v>-5.62</v>
+      </c>
+      <c r="M23">
         <v>0</v>
-      </c>
-      <c r="M23">
-        <v>-5.62</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2066,16 +1952,16 @@
         <v>20220102808</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>-5.69</v>
@@ -2093,10 +1979,10 @@
         <v>-3.38</v>
       </c>
       <c r="L24">
+        <v>-6.47</v>
+      </c>
+      <c r="M24">
         <v>-5.66</v>
-      </c>
-      <c r="M24">
-        <v>-6.47</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2104,19 +1990,19 @@
         <v>20240022502</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>-2.2400000000000002</v>
@@ -2134,10 +2020,10 @@
         <v>-7.58</v>
       </c>
       <c r="L25">
+        <v>-5.78</v>
+      </c>
+      <c r="M25">
         <v>-8.4700000000000006</v>
-      </c>
-      <c r="M25">
-        <v>-5.78</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2145,16 +2031,16 @@
         <v>20240017188</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>-5.66</v>
@@ -2172,10 +2058,10 @@
         <v>-7.67</v>
       </c>
       <c r="L26">
+        <v>-6.93</v>
+      </c>
+      <c r="M26">
         <v>-8.94</v>
-      </c>
-      <c r="M26">
-        <v>-6.93</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2183,19 +2069,19 @@
         <v>20220064259</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>-10.75</v>
@@ -2213,10 +2099,10 @@
         <v>-5.2089999999999996</v>
       </c>
       <c r="L27">
+        <v>-6.06</v>
+      </c>
+      <c r="M27">
         <v>-8.26</v>
-      </c>
-      <c r="M27">
-        <v>-6.06</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2224,19 +2110,19 @@
         <v>20240019044</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>-7.89</v>
@@ -2254,10 +2140,10 @@
         <v>-8.27</v>
       </c>
       <c r="L28">
+        <v>-4.41</v>
+      </c>
+      <c r="M28">
         <v>-5.57</v>
-      </c>
-      <c r="M28">
-        <v>-4.41</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2265,19 +2151,19 @@
         <v>20240024003</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>-9.3800000000000008</v>
@@ -2295,10 +2181,10 @@
         <v>-9.1199999999999992</v>
       </c>
       <c r="L29">
+        <v>-9.23</v>
+      </c>
+      <c r="M29">
         <v>-6.45</v>
-      </c>
-      <c r="M29">
-        <v>-9.23</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2306,19 +2192,19 @@
         <v>20240012256</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="C30">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <v>-10.25</v>
@@ -2336,10 +2222,10 @@
         <v>-4.78</v>
       </c>
       <c r="L30">
+        <v>-6.82</v>
+      </c>
+      <c r="M30">
         <v>-4.4029999999999996</v>
-      </c>
-      <c r="M30">
-        <v>-6.82</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2347,19 +2233,19 @@
         <v>20210046443</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>-7.67</v>
@@ -2377,10 +2263,10 @@
         <v>-6.35</v>
       </c>
       <c r="L31">
+        <v>-7.37</v>
+      </c>
+      <c r="M31">
         <v>-4.84</v>
-      </c>
-      <c r="M31">
-        <v>-7.37</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2388,16 +2274,16 @@
         <v>20240024207</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>-6.03</v>
@@ -2415,10 +2301,10 @@
         <v>-8.07</v>
       </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>-4.16</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2426,19 +2312,19 @@
         <v>20220153472</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G33">
         <v>-4.47</v>
@@ -2456,10 +2342,10 @@
         <v>-8.17</v>
       </c>
       <c r="L33">
+        <v>-3.95</v>
+      </c>
+      <c r="M33">
         <v>-2.5099999999999998</v>
-      </c>
-      <c r="M33">
-        <v>-3.95</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2467,19 +2353,19 @@
         <v>20240024158</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>-12.69</v>
@@ -2497,10 +2383,10 @@
         <v>-2.42</v>
       </c>
       <c r="L34">
+        <v>-6.88</v>
+      </c>
+      <c r="M34">
         <v>-5.7089999999999996</v>
-      </c>
-      <c r="M34">
-        <v>-6.88</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2508,19 +2394,19 @@
         <v>20220088296</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>-10.88</v>
@@ -2538,10 +2424,10 @@
         <v>-5.62</v>
       </c>
       <c r="L35">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="M35">
         <v>-8.0020000000000007</v>
-      </c>
-      <c r="M35">
-        <v>-8.6300000000000008</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2549,19 +2435,19 @@
         <v>20220064546</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <v>-13.24</v>
@@ -2579,10 +2465,10 @@
         <v>-6.19</v>
       </c>
       <c r="L36">
+        <v>-6.81</v>
+      </c>
+      <c r="M36">
         <v>-5.85</v>
-      </c>
-      <c r="M36">
-        <v>-6.81</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2590,16 +2476,16 @@
         <v>20240024631</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>-7.95</v>
@@ -2617,10 +2503,10 @@
         <v>-5.91</v>
       </c>
       <c r="L37">
+        <v>-2.46</v>
+      </c>
+      <c r="M37">
         <v>-4.0599999999999996</v>
-      </c>
-      <c r="M37">
-        <v>-2.46</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2628,16 +2514,16 @@
         <v>20240022566</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="G38">
         <v>-11.39</v>
@@ -2655,10 +2541,10 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="L38">
+        <v>-8.4</v>
+      </c>
+      <c r="M38">
         <v>-10.039999999999999</v>
-      </c>
-      <c r="M38">
-        <v>-8.4</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2666,25 +2552,25 @@
         <v>20210126376</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G39">
         <v>-4.58</v>
       </c>
       <c r="H39">
-        <v>-4.26</v>
+        <v>-8.67</v>
       </c>
       <c r="I39">
         <v>-5.6</v>
@@ -2696,10 +2582,10 @@
         <v>-6.26</v>
       </c>
       <c r="L39">
+        <v>-7.57</v>
+      </c>
+      <c r="M39">
         <v>-6.4</v>
-      </c>
-      <c r="M39">
-        <v>-7.57</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2707,22 +2593,22 @@
         <v>20240012094</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>-6.29</v>
+        <v>-8.26</v>
       </c>
       <c r="H40">
         <v>-5.66</v>
@@ -2737,10 +2623,10 @@
         <v>-6.17</v>
       </c>
       <c r="L40">
+        <v>-0.01</v>
+      </c>
+      <c r="M40">
         <v>0</v>
-      </c>
-      <c r="M40">
-        <v>-0.01</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,19 +2634,19 @@
         <v>20240027303</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41">
         <v>-6.02</v>
@@ -2778,10 +2664,10 @@
         <v>-7.37</v>
       </c>
       <c r="L41">
+        <v>-6.86</v>
+      </c>
+      <c r="M41">
         <v>-4.7300000000000004</v>
-      </c>
-      <c r="M41">
-        <v>-6.86</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2789,19 +2675,19 @@
         <v>20240002618</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>-6.91</v>
@@ -2819,10 +2705,10 @@
         <v>-9.3699999999999992</v>
       </c>
       <c r="L42">
+        <v>-8.1</v>
+      </c>
+      <c r="M42">
         <v>-7.14</v>
-      </c>
-      <c r="M42">
-        <v>-8.1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2830,19 +2716,19 @@
         <v>20240023202</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <v>-9.69</v>
@@ -2860,10 +2746,10 @@
         <v>-6.77</v>
       </c>
       <c r="L43">
+        <v>-9.4499999999999993</v>
+      </c>
+      <c r="M43">
         <v>-5.78</v>
-      </c>
-      <c r="M43">
-        <v>-9.4499999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2871,19 +2757,19 @@
         <v>20240027383</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <v>-5.66</v>
@@ -2901,10 +2787,10 @@
         <v>-2.4700000000000002</v>
       </c>
       <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>-6.53</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2912,16 +2798,16 @@
         <v>20210126581</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="G45">
         <v>-8.85</v>
@@ -2939,10 +2825,10 @@
         <v>-6.85</v>
       </c>
       <c r="L45">
+        <v>-7.9</v>
+      </c>
+      <c r="M45">
         <v>-9.07</v>
-      </c>
-      <c r="M45">
-        <v>-7.9</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2950,16 +2836,16 @@
         <v>20240026634</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="G46">
         <v>-9.2799999999999994</v>
@@ -2977,10 +2863,10 @@
         <v>-7.18</v>
       </c>
       <c r="L46">
+        <v>-7.96</v>
+      </c>
+      <c r="M46">
         <v>-5.86</v>
-      </c>
-      <c r="M46">
-        <v>-7.96</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2988,19 +2874,19 @@
         <v>20240015339</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G47">
         <v>-9.42</v>
@@ -3018,10 +2904,10 @@
         <v>-6.75</v>
       </c>
       <c r="L47">
+        <v>-8.5500000000000007</v>
+      </c>
+      <c r="M47">
         <v>-9.1999999999999993</v>
-      </c>
-      <c r="M47">
-        <v>-8.5500000000000007</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3029,16 +2915,16 @@
         <v>20240028955</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C48">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G48">
         <v>-9.69</v>
@@ -3056,10 +2942,10 @@
         <v>-6.51</v>
       </c>
       <c r="L48">
+        <v>-3.84</v>
+      </c>
+      <c r="M48">
         <v>-9.61</v>
-      </c>
-      <c r="M48">
-        <v>-3.84</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3067,16 +2953,16 @@
         <v>20240028466</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="G49">
         <v>-9.2100000000000009</v>
@@ -3094,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="L49">
+        <v>-4.66</v>
+      </c>
+      <c r="M49">
         <v>0</v>
-      </c>
-      <c r="M49">
-        <v>-4.66</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3105,19 +2991,19 @@
         <v>20240029036</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <v>-8.66</v>
@@ -3135,10 +3021,10 @@
         <v>-7.6</v>
       </c>
       <c r="L50">
+        <v>-3.33</v>
+      </c>
+      <c r="M50">
         <v>-4.67</v>
-      </c>
-      <c r="M50">
-        <v>-3.33</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3146,19 +3032,19 @@
         <v>20240028839</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="C51">
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G51">
         <v>-5.47</v>
@@ -3176,10 +3062,10 @@
         <v>-8.08</v>
       </c>
       <c r="L51">
+        <v>-6.98</v>
+      </c>
+      <c r="M51">
         <v>-8.1</v>
-      </c>
-      <c r="M51">
-        <v>-6.98</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3187,19 +3073,19 @@
         <v>20240025209</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G52">
         <v>-6.54</v>
@@ -3217,10 +3103,10 @@
         <v>-8.24</v>
       </c>
       <c r="L52">
+        <v>-6.33</v>
+      </c>
+      <c r="M52">
         <v>-6.25</v>
-      </c>
-      <c r="M52">
-        <v>-6.33</v>
       </c>
       <c r="N52">
         <v>-5.55</v>
@@ -3231,19 +3117,19 @@
         <v>20240028100</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C53">
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G53">
         <v>-7.31</v>
@@ -3261,10 +3147,10 @@
         <v>-5.29</v>
       </c>
       <c r="L53">
+        <v>-5.12</v>
+      </c>
+      <c r="M53">
         <v>-7.91</v>
-      </c>
-      <c r="M53">
-        <v>-5.12</v>
       </c>
       <c r="N53">
         <v>-7.76</v>
@@ -3275,19 +3161,19 @@
         <v>20220083756</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <v>-5.31</v>
@@ -3305,10 +3191,10 @@
         <v>-7.15</v>
       </c>
       <c r="L54">
+        <v>-8.58</v>
+      </c>
+      <c r="M54">
         <v>-6.47</v>
-      </c>
-      <c r="M54">
-        <v>-8.58</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3319,16 +3205,16 @@
         <v>20240030665</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C55">
         <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="G55">
         <v>-4.13</v>
@@ -3346,10 +3232,10 @@
         <v>-6.67</v>
       </c>
       <c r="L55">
+        <v>-6.08</v>
+      </c>
+      <c r="M55">
         <v>-5</v>
-      </c>
-      <c r="M55">
-        <v>-6.08</v>
       </c>
       <c r="N55">
         <v>-11.36</v>
@@ -3360,19 +3246,19 @@
         <v>20240030957</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C56">
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G56">
         <v>-8.16</v>
@@ -3390,10 +3276,10 @@
         <v>-9.19</v>
       </c>
       <c r="L56">
+        <v>-6.5</v>
+      </c>
+      <c r="M56">
         <v>-9.48</v>
-      </c>
-      <c r="M56">
-        <v>-6.5</v>
       </c>
       <c r="N56">
         <v>-8.58</v>
@@ -3404,19 +3290,19 @@
         <v>20230158280</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="C57">
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="F57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>-4.3099999999999996</v>
@@ -3434,10 +3320,10 @@
         <v>-7.73</v>
       </c>
       <c r="L57">
+        <v>-8.84</v>
+      </c>
+      <c r="M57">
         <v>-14.3</v>
-      </c>
-      <c r="M57">
-        <v>-8.84</v>
       </c>
       <c r="N57">
         <v>-6.6</v>
@@ -3448,19 +3334,19 @@
         <v>20240012274</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="C58">
         <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G58">
         <v>-10.95</v>
@@ -3478,10 +3364,10 @@
         <v>-1.54</v>
       </c>
       <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>-4.2</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
       </c>
       <c r="N58">
         <v>-4.5199999999999996</v>
@@ -3492,19 +3378,19 @@
         <v>20240029225</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G59">
         <v>-9.42</v>
@@ -3522,10 +3408,10 @@
         <v>-8.42</v>
       </c>
       <c r="L59">
+        <v>-8.5</v>
+      </c>
+      <c r="M59">
         <v>-7.98</v>
-      </c>
-      <c r="M59">
-        <v>-8.5</v>
       </c>
       <c r="N59">
         <v>-4.37</v>
@@ -3536,22 +3422,22 @@
         <v>20240032359</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="C60">
         <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>-5.53</v>
+        <v>-8.86</v>
       </c>
       <c r="H60">
         <v>-6.44</v>
@@ -3566,10 +3452,10 @@
         <v>-4.99</v>
       </c>
       <c r="L60">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="M60">
         <v>-3.74</v>
-      </c>
-      <c r="M60">
-        <v>-4.9400000000000004</v>
       </c>
       <c r="N60">
         <v>-8.41</v>
@@ -3580,19 +3466,19 @@
         <v>20240002772</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="C61">
         <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="F61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>-8.64</v>
@@ -3603,7 +3489,7 @@
       <c r="K61">
         <v>-5.33</v>
       </c>
-      <c r="M61">
+      <c r="L61">
         <v>-5.23</v>
       </c>
       <c r="N61">
@@ -3615,19 +3501,19 @@
         <v>20240030597</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C62">
         <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <v>-9.4700000000000006</v>
@@ -3645,10 +3531,10 @@
         <v>-3.99</v>
       </c>
       <c r="L62">
+        <v>-7.46</v>
+      </c>
+      <c r="M62">
         <v>-8.24</v>
-      </c>
-      <c r="M62">
-        <v>-7.46</v>
       </c>
       <c r="N62">
         <v>-7.31</v>
@@ -3659,19 +3545,19 @@
         <v>20240030258</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C63">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G63">
         <v>-10.61</v>
@@ -3689,10 +3575,10 @@
         <v>-10.58</v>
       </c>
       <c r="L63">
+        <v>-10.35</v>
+      </c>
+      <c r="M63">
         <v>-12.5</v>
-      </c>
-      <c r="M63">
-        <v>-10.35</v>
       </c>
       <c r="N63">
         <v>-8.5399999999999991</v>
@@ -3703,16 +3589,16 @@
         <v>20230083087</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G64">
         <v>-4.41</v>
@@ -3730,13 +3616,13 @@
         <v>-2.36</v>
       </c>
       <c r="L64">
+        <v>-4.63</v>
+      </c>
+      <c r="M64">
         <v>0</v>
       </c>
-      <c r="M64">
-        <v>-4.63</v>
-      </c>
       <c r="N64">
-        <v>74</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3744,19 +3630,19 @@
         <v>20240039022</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="C65">
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G65">
         <v>-6.81</v>
@@ -3774,10 +3660,10 @@
         <v>-1.41</v>
       </c>
       <c r="L65">
+        <v>-1.52</v>
+      </c>
+      <c r="M65">
         <v>-1.56</v>
-      </c>
-      <c r="M65">
-        <v>-1.52</v>
       </c>
       <c r="N65">
         <v>-1.1100000000000001</v>
@@ -3788,19 +3674,19 @@
         <v>20240037502</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="C66">
         <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G66">
         <v>-3.81</v>
@@ -3818,10 +3704,10 @@
         <v>-7.18</v>
       </c>
       <c r="L66">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="M66">
         <v>-8.4</v>
-      </c>
-      <c r="M66">
-        <v>-8.0299999999999994</v>
       </c>
       <c r="N66">
         <v>-6.89</v>
@@ -3832,19 +3718,19 @@
         <v>20240032128</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="C67">
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G67">
         <v>-14.13</v>
@@ -3862,10 +3748,10 @@
         <v>-4.63</v>
       </c>
       <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>-9.64</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
       </c>
       <c r="N67">
         <v>-9.4600000000000009</v>
@@ -3876,13 +3762,13 @@
         <v>20240035983</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="G68">
         <v>-1.25</v>
@@ -3900,10 +3786,10 @@
         <v>-4.13</v>
       </c>
       <c r="L68">
+        <v>-1.55</v>
+      </c>
+      <c r="M68">
         <v>-9.35</v>
-      </c>
-      <c r="M68">
-        <v>-1.55</v>
       </c>
       <c r="N68">
         <v>-9.81</v>
@@ -3914,16 +3800,16 @@
         <v>20190007174</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G69">
         <v>-10.74</v>
@@ -3941,10 +3827,10 @@
         <v>-6.36</v>
       </c>
       <c r="L69">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="M69">
         <v>-4.26</v>
-      </c>
-      <c r="M69">
-        <v>-4.8600000000000003</v>
       </c>
       <c r="N69">
         <v>-4.4000000000000004</v>
@@ -3955,22 +3841,22 @@
         <v>20240051938</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>-3.03</v>
+        <v>-7.23</v>
       </c>
       <c r="H70">
         <v>-5.13</v>
@@ -3985,10 +3871,10 @@
         <v>-4.6900000000000004</v>
       </c>
       <c r="L70">
+        <v>-6.9</v>
+      </c>
+      <c r="M70">
         <v>-2.75</v>
-      </c>
-      <c r="M70">
-        <v>-6.9</v>
       </c>
       <c r="N70">
         <v>-3.47</v>
@@ -3999,16 +3885,16 @@
         <v>20240057825</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="C71">
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G71">
         <v>-7.13</v>
@@ -4026,10 +3912,10 @@
         <v>-6.04</v>
       </c>
       <c r="L71">
+        <v>-7.62</v>
+      </c>
+      <c r="M71">
         <v>-4.72</v>
-      </c>
-      <c r="M71">
-        <v>-7.62</v>
       </c>
       <c r="N71">
         <v>-5.64</v>
@@ -4040,19 +3926,19 @@
         <v>20240034567</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="C72">
         <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G72">
         <v>-5.22</v>
@@ -4070,10 +3956,10 @@
         <v>-12.9</v>
       </c>
       <c r="L72">
+        <v>-5.09</v>
+      </c>
+      <c r="M72">
         <v>-10.36</v>
-      </c>
-      <c r="M72">
-        <v>-5.09</v>
       </c>
       <c r="N72">
         <v>-4.0199999999999996</v>
@@ -4084,19 +3970,19 @@
         <v>20240060316</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C73">
         <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4114,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="L73">
+        <v>-2.59</v>
+      </c>
+      <c r="M73">
         <v>-4.1500000000000004</v>
-      </c>
-      <c r="M73">
-        <v>-2.59</v>
       </c>
       <c r="N73">
         <v>-6.06</v>
@@ -4128,22 +4014,22 @@
         <v>20240048714</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="C74">
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>-6.7</v>
+        <v>7.93</v>
       </c>
       <c r="H74">
         <v>-9.8699999999999992</v>
@@ -4151,7 +4037,7 @@
       <c r="I74">
         <v>-3.19</v>
       </c>
-      <c r="M74">
+      <c r="L74">
         <v>-10.24</v>
       </c>
     </row>
@@ -4160,19 +4046,19 @@
         <v>20230023891</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="C75">
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <v>-2.9</v>
@@ -4190,10 +4076,10 @@
         <v>-5.22</v>
       </c>
       <c r="L75">
+        <v>-6.43</v>
+      </c>
+      <c r="M75">
         <v>-2.67</v>
-      </c>
-      <c r="M75">
-        <v>-6.43</v>
       </c>
       <c r="N75">
         <v>-1.4</v>
@@ -4204,19 +4090,19 @@
         <v>20180142185</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C76">
         <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G76">
         <v>-11</v>
@@ -4234,10 +4120,10 @@
         <v>-8.67</v>
       </c>
       <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
         <v>-10</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
       </c>
       <c r="N76">
         <v>-7.86</v>
@@ -4248,19 +4134,19 @@
         <v>20240058395</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C77">
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G77">
         <v>-9.7200000000000006</v>
@@ -4278,10 +4164,10 @@
         <v>-7</v>
       </c>
       <c r="L77">
+        <v>-3.33</v>
+      </c>
+      <c r="M77">
         <v>-5.6</v>
-      </c>
-      <c r="M77">
-        <v>-3.33</v>
       </c>
       <c r="N77">
         <v>-8.1199999999999992</v>
@@ -4292,19 +4178,19 @@
         <v>20200075595</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C78">
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>-7.7</v>
@@ -4322,10 +4208,10 @@
         <v>-6.9</v>
       </c>
       <c r="L78">
+        <v>-5.65</v>
+      </c>
+      <c r="M78">
         <v>-8.77</v>
-      </c>
-      <c r="M78">
-        <v>-5.65</v>
       </c>
       <c r="N78">
         <v>-7.16</v>
@@ -4336,19 +4222,19 @@
         <v>20230040481</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="C79">
         <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
         <v>15</v>
-      </c>
-      <c r="F79" t="s">
-        <v>38</v>
       </c>
       <c r="G79">
         <v>-3.17</v>
@@ -4366,10 +4252,10 @@
         <v>-2.04</v>
       </c>
       <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
         <v>-3</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
       </c>
       <c r="N79">
         <v>-2.71</v>
@@ -4380,19 +4266,19 @@
         <v>20240062455</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="C80">
         <v>43</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G80">
         <v>-5.14</v>
@@ -4410,10 +4296,10 @@
         <v>-6.21</v>
       </c>
       <c r="L80">
+        <v>-6.33</v>
+      </c>
+      <c r="M80">
         <v>-3.5</v>
-      </c>
-      <c r="M80">
-        <v>-6.33</v>
       </c>
       <c r="N80">
         <v>-4</v>
@@ -4424,19 +4310,19 @@
         <v>20240062254</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="C81">
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G81">
         <v>-3.91</v>
@@ -4454,10 +4340,10 @@
         <v>-6.26</v>
       </c>
       <c r="L81">
+        <v>-1.71</v>
+      </c>
+      <c r="M81">
         <v>-1.81</v>
-      </c>
-      <c r="M81">
-        <v>-1.71</v>
       </c>
       <c r="N81">
         <v>-2.88</v>
@@ -4468,19 +4354,19 @@
         <v>20240048215</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="C82">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E82" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G82">
         <v>-6.72</v>
@@ -4498,10 +4384,10 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="L82">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="M82">
         <v>-6.79</v>
-      </c>
-      <c r="M82">
-        <v>-9.3000000000000007</v>
       </c>
       <c r="N82">
         <v>-2.9</v>
@@ -4512,19 +4398,19 @@
         <v>20240060273</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C83">
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G83">
         <v>-7.94</v>
@@ -4542,10 +4428,10 @@
         <v>-6.96</v>
       </c>
       <c r="L83">
+        <v>-4.57</v>
+      </c>
+      <c r="M83">
         <v>0</v>
-      </c>
-      <c r="M83">
-        <v>-4.57</v>
       </c>
       <c r="N83">
         <v>-7.55</v>
@@ -4556,19 +4442,19 @@
         <v>20240054804</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="C84">
         <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G84">
         <v>-2.75</v>
@@ -4586,10 +4472,10 @@
         <v>-2.44</v>
       </c>
       <c r="L84">
+        <v>-2.17</v>
+      </c>
+      <c r="M84">
         <v>-2.52</v>
-      </c>
-      <c r="M84">
-        <v>-2.17</v>
       </c>
       <c r="N84">
         <v>-4.7300000000000004</v>
@@ -4600,19 +4486,19 @@
         <v>20240051976</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C85">
         <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G85">
         <v>-10.5</v>
@@ -4630,10 +4516,10 @@
         <v>-2.63</v>
       </c>
       <c r="L85">
+        <v>-2.8</v>
+      </c>
+      <c r="M85">
         <v>-9.36</v>
-      </c>
-      <c r="M85">
-        <v>-2.8</v>
       </c>
       <c r="N85">
         <v>-4.16</v>
@@ -4644,19 +4530,19 @@
         <v>20240068214</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="C86">
         <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G86">
         <v>-3.93</v>
@@ -4674,10 +4560,10 @@
         <v>-7.86</v>
       </c>
       <c r="L86">
+        <v>-3.9</v>
+      </c>
+      <c r="M86">
         <v>-9.02</v>
-      </c>
-      <c r="M86">
-        <v>-3.9</v>
       </c>
       <c r="N86">
         <v>-5.73</v>
@@ -4685,22 +4571,22 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20240068215</v>
+        <v>20240068214</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="C87">
         <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G87">
         <v>-4.2</v>
@@ -4718,10 +4604,10 @@
         <v>-4.91</v>
       </c>
       <c r="L87">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="M87">
         <v>-5.03</v>
-      </c>
-      <c r="M87">
-        <v>-4.1500000000000004</v>
       </c>
       <c r="N87">
         <v>-2.39</v>
@@ -4732,19 +4618,19 @@
         <v>20240066137</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="C88">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G88">
         <v>-4.29</v>
@@ -4762,10 +4648,10 @@
         <v>-3.96</v>
       </c>
       <c r="L88">
+        <v>-3.62</v>
+      </c>
+      <c r="M88">
         <v>-6.32</v>
-      </c>
-      <c r="M88">
-        <v>-3.62</v>
       </c>
       <c r="N88">
         <v>-3.57</v>
@@ -4776,19 +4662,19 @@
         <v>20240069492</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="C89">
         <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G89">
         <v>-5.19</v>
@@ -4820,19 +4706,19 @@
         <v>20240067159</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="C90">
         <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G90">
         <v>-5.9</v>
@@ -4850,10 +4736,10 @@
         <v>-4.1399999999999997</v>
       </c>
       <c r="L90">
+        <v>-3.28</v>
+      </c>
+      <c r="M90">
         <v>-1.41</v>
-      </c>
-      <c r="M90">
-        <v>-3.28</v>
       </c>
       <c r="N90">
         <v>-4.7</v>
@@ -4864,19 +4750,19 @@
         <v>20230028720</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C91">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G91">
         <v>-9.32</v>
@@ -4894,10 +4780,10 @@
         <v>-4.91</v>
       </c>
       <c r="L91">
+        <v>-8.99</v>
+      </c>
+      <c r="M91">
         <v>-2.23</v>
-      </c>
-      <c r="M91">
-        <v>-8.99</v>
       </c>
       <c r="N91">
         <v>-5.62</v>
@@ -4908,19 +4794,19 @@
         <v>20240046542</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C92">
         <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G92">
         <v>-6.35</v>
@@ -4938,10 +4824,10 @@
         <v>-4.8899999999999997</v>
       </c>
       <c r="L92">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="M92">
         <v>-3.19</v>
-      </c>
-      <c r="M92">
-        <v>-4.0599999999999996</v>
       </c>
       <c r="N92">
         <v>-3.52</v>
@@ -4952,19 +4838,19 @@
         <v>20230137322</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C93">
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G93">
         <v>-3.3</v>
@@ -4982,10 +4868,10 @@
         <v>-1.98</v>
       </c>
       <c r="L93">
+        <v>-1.38</v>
+      </c>
+      <c r="M93">
         <v>-4.47</v>
-      </c>
-      <c r="M93">
-        <v>-1.38</v>
       </c>
       <c r="N93">
         <v>-8.7899999999999991</v>
@@ -4996,19 +4882,19 @@
         <v>20240015478</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="C94">
         <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G94">
         <v>-7.54</v>
@@ -5026,10 +4912,10 @@
         <v>-9.33</v>
       </c>
       <c r="L94">
+        <v>-9.51</v>
+      </c>
+      <c r="M94">
         <v>-6.91</v>
-      </c>
-      <c r="M94">
-        <v>-9.51</v>
       </c>
       <c r="N94">
         <v>-5.43</v>
@@ -5040,25 +4926,25 @@
         <v>20240068424</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="C95">
         <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G95">
         <v>-4.63</v>
       </c>
       <c r="H95">
-        <v>-5.69</v>
+        <v>-9</v>
       </c>
       <c r="I95">
         <v>-1.89</v>
@@ -5070,10 +4956,10 @@
         <v>-3.16</v>
       </c>
       <c r="L95">
+        <v>-8.98</v>
+      </c>
+      <c r="M95">
         <v>-2.67</v>
-      </c>
-      <c r="M95">
-        <v>-8.98</v>
       </c>
       <c r="N95">
         <v>-1.48</v>
@@ -5084,19 +4970,19 @@
         <v>20240071058</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="C96">
         <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G96">
         <v>-10.72</v>
@@ -5114,10 +5000,10 @@
         <v>-9.51</v>
       </c>
       <c r="L96">
+        <v>-1.98</v>
+      </c>
+      <c r="M96">
         <v>0</v>
-      </c>
-      <c r="M96">
-        <v>-1.98</v>
       </c>
       <c r="N96">
         <v>-0.16</v>
@@ -5128,19 +5014,19 @@
         <v>20240074728</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C97">
         <v>46</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="G97">
         <v>-8.42</v>
@@ -5158,10 +5044,10 @@
         <v>-7.33</v>
       </c>
       <c r="L97">
+        <v>-3.15</v>
+      </c>
+      <c r="M97">
         <v>-5.22</v>
-      </c>
-      <c r="M97">
-        <v>-3.15</v>
       </c>
       <c r="N97">
         <v>-3.43</v>
@@ -5172,19 +5058,19 @@
         <v>20240074281</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="C98">
         <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="G98">
         <v>-4.17</v>
@@ -5202,10 +5088,10 @@
         <v>-5.79</v>
       </c>
       <c r="L98">
+        <v>-2.8</v>
+      </c>
+      <c r="M98">
         <v>-6.66</v>
-      </c>
-      <c r="M98">
-        <v>-2.8</v>
       </c>
       <c r="N98">
         <v>-7.48</v>
@@ -5216,19 +5102,19 @@
         <v>20240076716</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="C99">
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G99">
         <v>-7.98</v>
@@ -5246,10 +5132,10 @@
         <v>-8.8000000000000007</v>
       </c>
       <c r="L99">
+        <v>-7.74</v>
+      </c>
+      <c r="M99">
         <v>-7.06</v>
-      </c>
-      <c r="M99">
-        <v>-7.74</v>
       </c>
       <c r="N99">
         <v>-7.15</v>
@@ -5260,19 +5146,19 @@
         <v>20240078762</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="C100">
         <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G100">
         <v>-6.22</v>
@@ -5290,10 +5176,10 @@
         <v>-1.24</v>
       </c>
       <c r="L100">
+        <v>-2.98</v>
+      </c>
+      <c r="M100">
         <v>-3.45</v>
-      </c>
-      <c r="M100">
-        <v>-2.98</v>
       </c>
       <c r="N100">
         <v>-5.65</v>
@@ -5304,19 +5190,19 @@
         <v>20240078772</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="C101">
         <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G101">
         <v>-5.7</v>
@@ -5334,10 +5220,10 @@
         <v>-6.42</v>
       </c>
       <c r="L101">
+        <v>-6.25</v>
+      </c>
+      <c r="M101">
         <v>-5.63</v>
-      </c>
-      <c r="M101">
-        <v>-6.25</v>
       </c>
       <c r="N101">
         <v>-6</v>
@@ -5348,19 +5234,19 @@
         <v>20240062956</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="C102">
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>-5.1440000000000001</v>
@@ -5378,10 +5264,10 @@
         <v>-10.59</v>
       </c>
       <c r="L102">
+        <v>-13.48</v>
+      </c>
+      <c r="M102">
         <v>-2.84</v>
-      </c>
-      <c r="M102">
-        <v>-13.48</v>
       </c>
       <c r="N102">
         <v>-12.54</v>
@@ -5392,19 +5278,19 @@
         <v>20240088127</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="C103">
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G103">
         <v>-8.1</v>
@@ -5422,10 +5308,10 @@
         <v>-3.49</v>
       </c>
       <c r="L103">
+        <v>-5.45</v>
+      </c>
+      <c r="M103">
         <v>0</v>
-      </c>
-      <c r="M103">
-        <v>-5.45</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5433,19 +5319,19 @@
         <v>20240076818</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="C104">
         <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G104">
         <v>-4.29</v>
@@ -5463,10 +5349,10 @@
         <v>-6.32</v>
       </c>
       <c r="L104">
+        <v>-3.57</v>
+      </c>
+      <c r="M104">
         <v>-3.62</v>
-      </c>
-      <c r="M104">
-        <v>-3.57</v>
       </c>
       <c r="N104">
         <v>-3.57</v>
@@ -5477,25 +5363,25 @@
         <v>20240070348</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="C105">
         <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G105">
-        <v>-7.4980000000000002</v>
+        <v>6.4</v>
       </c>
       <c r="H105">
-        <v>-6.8</v>
+        <v>-8.11</v>
       </c>
       <c r="I105">
         <v>-4.43</v>
@@ -5507,10 +5393,10 @@
         <v>-5.18</v>
       </c>
       <c r="L105">
+        <v>-6.21</v>
+      </c>
+      <c r="M105">
         <v>-7</v>
-      </c>
-      <c r="M105">
-        <v>-6.21</v>
       </c>
       <c r="N105">
         <v>7</v>
@@ -5521,19 +5407,19 @@
         <v>20240028527</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="C106">
         <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5565,19 +5451,19 @@
         <v>20230003855</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C107">
         <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>-10.09</v>
@@ -5594,7 +5480,7 @@
       <c r="K107">
         <v>-8.99</v>
       </c>
-      <c r="M107">
+      <c r="L107">
         <v>-9.49</v>
       </c>
       <c r="N107">
@@ -5606,28 +5492,19 @@
         <v>20240092861</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="C108">
         <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E108" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>96</v>
-      </c>
-      <c r="G108" t="s">
-        <v>119</v>
-      </c>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-      <c r="I108" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="J108">
         <v>-4</v>
@@ -5635,7 +5512,7 @@
       <c r="K108">
         <v>-5.04</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>-11.81</v>
       </c>
       <c r="N108">
@@ -5647,19 +5524,19 @@
         <v>20240087671</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="C109">
         <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>-7.09</v>
@@ -5677,10 +5554,10 @@
         <v>-8.99</v>
       </c>
       <c r="L109">
+        <v>-8.5</v>
+      </c>
+      <c r="M109">
         <v>-8</v>
-      </c>
-      <c r="M109">
-        <v>-8.5</v>
       </c>
       <c r="N109">
         <v>-7.2</v>
@@ -5691,19 +5568,19 @@
         <v>20230121277</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="C110">
         <v>42</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E110" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>-10.29</v>
@@ -5721,10 +5598,10 @@
         <v>-5.01</v>
       </c>
       <c r="L110">
+        <v>-5.87</v>
+      </c>
+      <c r="M110">
         <v>-7.3</v>
-      </c>
-      <c r="M110">
-        <v>-5.87</v>
       </c>
       <c r="N110">
         <v>-6.39</v>
@@ -5735,19 +5612,19 @@
         <v>20240094465</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="C111">
         <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="F111" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>-9.5</v>
@@ -5765,10 +5642,10 @@
         <v>-10.29</v>
       </c>
       <c r="L111">
+        <v>-8.2899999999999991</v>
+      </c>
+      <c r="M111">
         <v>-7.59</v>
-      </c>
-      <c r="M111">
-        <v>-8.2899999999999991</v>
       </c>
       <c r="N111">
         <v>-10.7</v>
@@ -5779,19 +5656,19 @@
         <v>20230156801</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="C112">
         <v>56</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>-2.84</v>
@@ -5809,10 +5686,10 @@
         <v>-5.99</v>
       </c>
       <c r="L112">
+        <v>-4.67</v>
+      </c>
+      <c r="M112">
         <v>-1.69</v>
-      </c>
-      <c r="M112">
-        <v>-4.67</v>
       </c>
       <c r="N112">
         <v>-7.47</v>
@@ -5823,19 +5700,19 @@
         <v>20240053790</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="C113">
         <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>-8.8000000000000007</v>
@@ -5853,10 +5730,10 @@
         <v>-4.8</v>
       </c>
       <c r="L113">
+        <v>-5.81</v>
+      </c>
+      <c r="M113">
         <v>-8.52</v>
-      </c>
-      <c r="M113">
-        <v>-5.81</v>
       </c>
       <c r="N113">
         <v>-1.47</v>
@@ -5867,19 +5744,19 @@
         <v>20240039512</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="C114">
         <v>49</v>
       </c>
       <c r="D114" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E114" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G114">
         <v>-8.8000000000000007</v>
@@ -5897,10 +5774,10 @@
         <v>-6.1</v>
       </c>
       <c r="L114">
+        <v>-7.5</v>
+      </c>
+      <c r="M114">
         <v>-11.2</v>
-      </c>
-      <c r="M114">
-        <v>-7.5</v>
       </c>
       <c r="N114">
         <v>-9.6999999999999993</v>
@@ -5911,16 +5788,19 @@
         <v>20240107218</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="C115">
         <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E115" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
       </c>
       <c r="G115">
         <v>-8.1999999999999993</v>
@@ -5938,10 +5818,10 @@
         <v>-5.83</v>
       </c>
       <c r="L115">
+        <v>-4.09</v>
+      </c>
+      <c r="M115">
         <v>-5.65</v>
-      </c>
-      <c r="M115">
-        <v>-4.09</v>
       </c>
       <c r="N115">
         <v>-7.04</v>
@@ -5952,235 +5832,89 @@
         <v>20240099770</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="C116">
         <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>-9.26</v>
+      </c>
+      <c r="H116">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="I116">
+        <v>-4.47</v>
+      </c>
+      <c r="J116">
+        <v>-5.69</v>
+      </c>
+      <c r="K116">
+        <v>-5.9</v>
+      </c>
+      <c r="L116">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="M116">
+        <v>-4.6100000000000003</v>
+      </c>
+      <c r="N116">
+        <v>-4.83</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>20170059075</v>
+        <v>20240112650</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C117">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G117">
-        <v>-5.41</v>
+        <v>-3.97</v>
       </c>
       <c r="H117">
-        <v>-7.42</v>
+        <v>-6.09</v>
       </c>
       <c r="I117">
-        <v>-7.85</v>
+        <v>-5.15</v>
       </c>
       <c r="J117">
-        <v>-5.64</v>
+        <v>-6.09</v>
       </c>
       <c r="K117">
-        <v>-6.67</v>
+        <v>-5.44</v>
       </c>
       <c r="L117">
-        <v>-3.18</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="M117">
-        <v>-6.34</v>
+        <v>-6.77</v>
       </c>
       <c r="N117">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>20210062776</v>
-      </c>
-      <c r="B118" t="s">
-        <v>231</v>
-      </c>
-      <c r="C118">
-        <v>32</v>
-      </c>
-      <c r="D118" t="s">
-        <v>117</v>
-      </c>
-      <c r="E118" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118">
-        <v>-5.6</v>
-      </c>
-      <c r="H118">
-        <v>-2.7</v>
-      </c>
-      <c r="I118">
-        <v>-6.7</v>
-      </c>
-      <c r="J118">
-        <v>-6.2</v>
-      </c>
-      <c r="K118">
-        <v>-6.7</v>
-      </c>
-      <c r="L118">
-        <v>-6.4</v>
-      </c>
-      <c r="M118">
-        <v>-7.5</v>
-      </c>
-      <c r="N118">
-        <v>-9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>20240043449</v>
-      </c>
-      <c r="B119" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119">
-        <v>54</v>
-      </c>
-      <c r="D119" t="s">
-        <v>117</v>
-      </c>
-      <c r="E119" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119">
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="I119">
-        <v>-7.9</v>
-      </c>
-      <c r="J119">
-        <v>-7.5</v>
-      </c>
-      <c r="K119">
-        <v>-6.9</v>
-      </c>
-      <c r="L119">
-        <v>-7.5</v>
-      </c>
-      <c r="M119">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="N119">
-        <v>-9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>20240076642</v>
-      </c>
-      <c r="B120" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120">
-        <v>43</v>
-      </c>
-      <c r="D120" t="s">
-        <v>117</v>
-      </c>
-      <c r="E120" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120">
-        <v>-3.66</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>-6.01</v>
-      </c>
-      <c r="J120">
-        <v>-7.52</v>
-      </c>
-      <c r="K120">
-        <v>-5.95</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>-4.18</v>
-      </c>
-      <c r="N120">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>20240094375</v>
-      </c>
-      <c r="B121" t="s">
-        <v>234</v>
-      </c>
-      <c r="C121">
-        <v>49</v>
-      </c>
-      <c r="D121" t="s">
-        <v>117</v>
-      </c>
-      <c r="E121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121">
-        <v>-4.8099999999999996</v>
-      </c>
-      <c r="H121">
-        <v>-6.4</v>
-      </c>
-      <c r="I121">
-        <v>-9.24</v>
-      </c>
-      <c r="J121">
-        <v>-7.92</v>
-      </c>
-      <c r="K121">
-        <v>-7.64</v>
-      </c>
-      <c r="L121">
-        <v>-3.57</v>
-      </c>
-      <c r="M121">
-        <v>-6.12</v>
-      </c>
-      <c r="N121">
-        <v>-1.88</v>
+        <v>-4.2699999999999996</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A121">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A122:A125">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75605C4-4550-4324-83DF-CD5C742C7DAB}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1A4AD4-078F-4C7B-8835-2F122D4AB68A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="198">
   <si>
     <t>UHID</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Insignificant growth of colonizer</t>
-  </si>
-  <si>
-    <t>Not Sent for Culture</t>
   </si>
   <si>
     <t>E. faecalis</t>
@@ -1017,15 +1014,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q86" sqref="Q86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1033,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1054,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1077,13 +1074,13 @@
         <v>20220065432</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1112,13 +1109,13 @@
         <v>20240016182</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>-6.6332500000000003</v>
@@ -1147,16 +1144,16 @@
         <v>20230125389</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1188,16 +1185,16 @@
         <v>20180022685</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1229,13 +1226,13 @@
         <v>20201415102</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1264,16 +1261,16 @@
         <v>20240012395</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -1305,16 +1302,16 @@
         <v>20220166372</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1346,13 +1343,13 @@
         <v>20240018475</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>-11.3352</v>
@@ -1381,16 +1378,16 @@
         <v>20230149608</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -1422,16 +1419,16 @@
         <v>20240016829</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1463,16 +1460,16 @@
         <v>20230179067</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1504,16 +1501,16 @@
         <v>20180188108</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1545,16 +1542,16 @@
         <v>20230141608</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -1586,16 +1583,16 @@
         <v>20240020494</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1627,16 +1624,16 @@
         <v>20240020519</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1668,13 +1665,13 @@
         <v>20240015483</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1709,16 +1706,16 @@
         <v>20240001249</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1750,16 +1747,16 @@
         <v>20210094336</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1791,13 +1788,13 @@
         <v>20240006140</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1832,16 +1829,16 @@
         <v>20240020436</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1873,13 +1870,13 @@
         <v>20240022478</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1911,13 +1908,13 @@
         <v>20240022523</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1952,13 +1949,13 @@
         <v>20220102808</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1990,16 +1987,16 @@
         <v>20240022502</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -2031,13 +2028,13 @@
         <v>20240017188</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -2069,13 +2066,13 @@
         <v>20220064259</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2110,13 +2107,13 @@
         <v>20240019044</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2151,13 +2148,13 @@
         <v>20240024003</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29">
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -2192,13 +2189,13 @@
         <v>20240012256</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2233,13 +2230,13 @@
         <v>20210046443</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31">
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -2274,13 +2271,13 @@
         <v>20240024207</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -2312,13 +2309,13 @@
         <v>20220153472</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -2353,13 +2350,13 @@
         <v>20240024158</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2394,16 +2391,16 @@
         <v>20220088296</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -2435,13 +2432,13 @@
         <v>20220064546</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2476,13 +2473,13 @@
         <v>20240024631</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -2514,16 +2511,16 @@
         <v>20240022566</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G38">
         <v>-11.39</v>
@@ -2552,16 +2549,16 @@
         <v>20210126376</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2593,13 +2590,13 @@
         <v>20240012094</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -2634,13 +2631,13 @@
         <v>20240027303</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -2675,13 +2672,13 @@
         <v>20240002618</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -2716,13 +2713,13 @@
         <v>20240023202</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43">
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -2757,13 +2754,13 @@
         <v>20240027383</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44">
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -2798,16 +2795,16 @@
         <v>20210126581</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45">
         <v>-8.85</v>
@@ -2836,16 +2833,16 @@
         <v>20240026634</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46">
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G46">
         <v>-9.2799999999999994</v>
@@ -2874,13 +2871,13 @@
         <v>20240015339</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -2915,13 +2912,13 @@
         <v>20240028955</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -2953,16 +2950,16 @@
         <v>20240028466</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G49">
         <v>-9.2100000000000009</v>
@@ -2991,13 +2988,13 @@
         <v>20240029036</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -3032,13 +3029,13 @@
         <v>20240028839</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51">
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -3073,13 +3070,13 @@
         <v>20240025209</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -3117,16 +3114,16 @@
         <v>20240028100</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -3161,16 +3158,16 @@
         <v>20220083756</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54">
         <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -3205,16 +3202,16 @@
         <v>20240030665</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G55">
         <v>-4.13</v>
@@ -3246,13 +3243,13 @@
         <v>20240030957</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56">
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -3290,16 +3287,16 @@
         <v>20230158280</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57">
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F57" t="s">
         <v>2</v>
@@ -3334,13 +3331,13 @@
         <v>20240012274</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -3378,13 +3375,13 @@
         <v>20240029225</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59">
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -3422,13 +3419,13 @@
         <v>20240032359</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -3466,16 +3463,16 @@
         <v>20240002772</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61">
         <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F61" t="s">
         <v>2</v>
@@ -3501,13 +3498,13 @@
         <v>20240030597</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62">
         <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -3545,16 +3542,16 @@
         <v>20240030258</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -3589,10 +3586,10 @@
         <v>20230083087</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3630,13 +3627,13 @@
         <v>20240039022</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65">
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -3674,16 +3671,16 @@
         <v>20240037502</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66">
         <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -3718,16 +3715,16 @@
         <v>20240032128</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67">
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F67" t="s">
         <v>21</v>
@@ -3762,10 +3759,10 @@
         <v>20240035983</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -3800,13 +3797,13 @@
         <v>20190007174</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -3841,16 +3838,16 @@
         <v>20240051938</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70">
         <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
@@ -3885,13 +3882,13 @@
         <v>20240057825</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71">
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -3926,13 +3923,13 @@
         <v>20240034567</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72">
         <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
@@ -3970,13 +3967,13 @@
         <v>20240060316</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73">
         <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -4014,16 +4011,16 @@
         <v>20240048714</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74">
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
@@ -4046,13 +4043,13 @@
         <v>20230023891</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75">
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -4090,16 +4087,16 @@
         <v>20180142185</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76">
         <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -4134,13 +4131,13 @@
         <v>20240058395</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77">
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -4178,16 +4175,16 @@
         <v>20200075595</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78">
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
         <v>2</v>
@@ -4222,13 +4219,13 @@
         <v>20230040481</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79">
         <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -4266,13 +4263,13 @@
         <v>20240062455</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80">
         <v>43</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -4310,13 +4307,13 @@
         <v>20240062254</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81">
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -4354,16 +4351,16 @@
         <v>20240048215</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
@@ -4398,16 +4395,16 @@
         <v>20240060273</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C83">
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F83" t="s">
         <v>23</v>
@@ -4442,13 +4439,13 @@
         <v>20240054804</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84">
         <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -4486,13 +4483,13 @@
         <v>20240051976</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85">
         <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -4530,13 +4527,13 @@
         <v>20240068214</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C86">
         <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -4574,13 +4571,13 @@
         <v>20240068214</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87">
         <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -4618,13 +4615,13 @@
         <v>20240066137</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C88">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -4662,13 +4659,13 @@
         <v>20240069492</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89">
         <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -4706,13 +4703,13 @@
         <v>20240067159</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90">
         <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -4750,13 +4747,13 @@
         <v>20230028720</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4794,16 +4791,16 @@
         <v>20240046542</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92">
         <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F92" t="s">
         <v>24</v>
@@ -4838,13 +4835,13 @@
         <v>20230137322</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93">
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -4882,13 +4879,13 @@
         <v>20240015478</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94">
         <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -4926,16 +4923,16 @@
         <v>20240068424</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95">
         <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -4970,13 +4967,13 @@
         <v>20240071058</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96">
         <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -5014,13 +5011,13 @@
         <v>20240074728</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97">
         <v>46</v>
       </c>
       <c r="D97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s">
         <v>25</v>
@@ -5058,13 +5055,13 @@
         <v>20240074281</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98">
         <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -5102,13 +5099,13 @@
         <v>20240076716</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C99">
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -5146,13 +5143,13 @@
         <v>20240078762</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100">
         <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E100" t="s">
         <v>28</v>
@@ -5190,13 +5187,13 @@
         <v>20240078772</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101">
         <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -5234,16 +5231,16 @@
         <v>20240062956</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102">
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
         <v>29</v>
@@ -5278,13 +5275,13 @@
         <v>20240088127</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C103">
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -5319,13 +5316,13 @@
         <v>20240076818</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104">
         <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -5363,13 +5360,13 @@
         <v>20240070348</v>
       </c>
       <c r="B105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C105">
         <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
@@ -5407,13 +5404,13 @@
         <v>20240028527</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106">
         <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -5451,19 +5448,16 @@
         <v>20230003855</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107">
         <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>31</v>
       </c>
       <c r="G107">
         <v>-10.09</v>
@@ -5492,19 +5486,19 @@
         <v>20240092861</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108">
         <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J108">
         <v>-4</v>
@@ -5524,19 +5518,19 @@
         <v>20240087671</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109">
         <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>-7.09</v>
@@ -5568,19 +5562,19 @@
         <v>20230121277</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110">
         <v>42</v>
       </c>
       <c r="D110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
         <v>34</v>
-      </c>
-      <c r="F110" t="s">
-        <v>35</v>
       </c>
       <c r="G110">
         <v>-10.29</v>
@@ -5612,19 +5606,19 @@
         <v>20240094465</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111">
         <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>-9.5</v>
@@ -5656,19 +5650,19 @@
         <v>20230156801</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C112">
         <v>56</v>
       </c>
       <c r="D112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>-2.84</v>
@@ -5700,19 +5694,19 @@
         <v>20240053790</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C113">
         <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>-8.8000000000000007</v>
@@ -5744,16 +5738,16 @@
         <v>20240039512</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C114">
         <v>49</v>
       </c>
       <c r="D114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
         <v>8</v>
@@ -5788,13 +5782,13 @@
         <v>20240107218</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C115">
         <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -5832,13 +5826,13 @@
         <v>20240099770</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116">
         <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
@@ -5876,13 +5870,13 @@
         <v>20240112650</v>
       </c>
       <c r="B117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C117">
         <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1A4AD4-078F-4C7B-8835-2F122D4AB68A}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2400B59E-6C79-4CD0-B176-3019FDC0F7AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -671,7 +671,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1014,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4568,7 +4588,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20240068214</v>
+        <v>20240068215</v>
       </c>
       <c r="B87" t="s">
         <v>133</v>
@@ -5908,7 +5928,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A122:A125">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A117">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2400B59E-6C79-4CD0-B176-3019FDC0F7AC}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{346C1558-EB35-4882-B83F-2AE9A37A97A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="214">
   <si>
     <t>UHID</t>
   </si>
@@ -630,6 +630,54 @@
   </si>
   <si>
     <t>A.Baumini, E.coli</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>Nasrin Jahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharamwati </t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Seema devi</t>
+  </si>
+  <si>
+    <t>Sulochana</t>
+  </si>
+  <si>
+    <t>Roshan Jaha</t>
+  </si>
+  <si>
+    <t>Parmila</t>
+  </si>
+  <si>
+    <t>Laxmi devi</t>
+  </si>
+  <si>
+    <t>Priyanka Uniyal</t>
+  </si>
+  <si>
+    <t>Farahana</t>
+  </si>
+  <si>
+    <t>Durga negi</t>
+  </si>
+  <si>
+    <t>Ritu Thakur</t>
+  </si>
+  <si>
+    <t>Jagpreet Kaur</t>
+  </si>
+  <si>
+    <t>Meenakshi</t>
+  </si>
+  <si>
+    <t>Enterococcus faecium</t>
   </si>
 </sst>
 </file>
@@ -1032,17 +1080,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T127" sqref="T127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1980,6 +2028,9 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
       <c r="G24">
         <v>-5.69</v>
       </c>
@@ -5901,6 +5952,9 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
       <c r="G117">
         <v>-3.97</v>
       </c>
@@ -5926,11 +5980,584 @@
         <v>-4.2699999999999996</v>
       </c>
     </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>20170059075</v>
+      </c>
+      <c r="B118" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118">
+        <v>-5.41</v>
+      </c>
+      <c r="H118">
+        <v>-7.42</v>
+      </c>
+      <c r="I118">
+        <v>-7.85</v>
+      </c>
+      <c r="J118">
+        <v>-5.64</v>
+      </c>
+      <c r="K118">
+        <v>-6.67</v>
+      </c>
+      <c r="L118">
+        <v>-6.34</v>
+      </c>
+      <c r="M118">
+        <v>-3.18</v>
+      </c>
+      <c r="N118">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>20210062776</v>
+      </c>
+      <c r="B119" t="s">
+        <v>199</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119">
+        <v>-5.6</v>
+      </c>
+      <c r="H119">
+        <v>-2.7</v>
+      </c>
+      <c r="I119">
+        <v>-6.7</v>
+      </c>
+      <c r="J119">
+        <v>-6.2</v>
+      </c>
+      <c r="K119">
+        <v>-6.7</v>
+      </c>
+      <c r="L119">
+        <v>-7.5</v>
+      </c>
+      <c r="M119">
+        <v>-6.4</v>
+      </c>
+      <c r="N119">
+        <v>-9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>20240043449</v>
+      </c>
+      <c r="B120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120">
+        <v>54</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="I120">
+        <v>-7.9</v>
+      </c>
+      <c r="J120">
+        <v>-7.5</v>
+      </c>
+      <c r="K120">
+        <v>-6.9</v>
+      </c>
+      <c r="L120">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="M120">
+        <v>-7.5</v>
+      </c>
+      <c r="N120">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>20240076642</v>
+      </c>
+      <c r="B121" t="s">
+        <v>201</v>
+      </c>
+      <c r="C121">
+        <v>43</v>
+      </c>
+      <c r="D121" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <v>-3.66</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>-6.01</v>
+      </c>
+      <c r="J121">
+        <v>-7.52</v>
+      </c>
+      <c r="K121">
+        <v>-5.95</v>
+      </c>
+      <c r="L121">
+        <v>-4.18</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>20240094375</v>
+      </c>
+      <c r="B122" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122">
+        <v>49</v>
+      </c>
+      <c r="D122" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="H122">
+        <v>-6.4</v>
+      </c>
+      <c r="I122">
+        <v>-9.24</v>
+      </c>
+      <c r="J122">
+        <v>-7.92</v>
+      </c>
+      <c r="K122">
+        <v>-7.64</v>
+      </c>
+      <c r="L122">
+        <v>-6.12</v>
+      </c>
+      <c r="M122">
+        <v>-3.57</v>
+      </c>
+      <c r="N122">
+        <v>-1.88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>20240092862</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123">
+        <v>60</v>
+      </c>
+      <c r="D123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123">
+        <v>-7.03</v>
+      </c>
+      <c r="H123">
+        <v>-6.64</v>
+      </c>
+      <c r="I123">
+        <v>-5.54</v>
+      </c>
+      <c r="J123">
+        <v>-6.77</v>
+      </c>
+      <c r="K123">
+        <v>-5.29</v>
+      </c>
+      <c r="L123">
+        <v>-6.46</v>
+      </c>
+      <c r="M123">
+        <v>-5.44</v>
+      </c>
+      <c r="N123">
+        <v>-3.34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>20240070180</v>
+      </c>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124">
+        <v>35</v>
+      </c>
+      <c r="D124" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>-3.34</v>
+      </c>
+      <c r="H124">
+        <v>-4.09</v>
+      </c>
+      <c r="I124">
+        <v>-6.12</v>
+      </c>
+      <c r="J124">
+        <v>-6.26</v>
+      </c>
+      <c r="K124">
+        <v>-5.35</v>
+      </c>
+      <c r="L124">
+        <v>-5.46</v>
+      </c>
+      <c r="M124">
+        <v>-3.21</v>
+      </c>
+      <c r="N124">
+        <v>-1.88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>20240118730</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>-6.6</v>
+      </c>
+      <c r="H125">
+        <v>-6.29</v>
+      </c>
+      <c r="I125">
+        <v>-4</v>
+      </c>
+      <c r="J125">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="K125">
+        <v>-5.19</v>
+      </c>
+      <c r="L125">
+        <v>-5.79</v>
+      </c>
+      <c r="M125">
+        <v>-6.1</v>
+      </c>
+      <c r="N125">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>20240101716</v>
+      </c>
+      <c r="B126" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126">
+        <v>54</v>
+      </c>
+      <c r="D126" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>-7</v>
+      </c>
+      <c r="H126">
+        <v>-6.7</v>
+      </c>
+      <c r="I126">
+        <v>-7.59</v>
+      </c>
+      <c r="J126">
+        <v>-6.2</v>
+      </c>
+      <c r="K126">
+        <v>-6.9</v>
+      </c>
+      <c r="L126">
+        <v>-2.7</v>
+      </c>
+      <c r="M126">
+        <v>-4.7</v>
+      </c>
+      <c r="N126">
+        <v>-7.09</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>20240043267</v>
+      </c>
+      <c r="B127" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127">
+        <v>32</v>
+      </c>
+      <c r="D127" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>20200042694</v>
+      </c>
+      <c r="B128" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128">
+        <v>-4.32</v>
+      </c>
+      <c r="H128">
+        <v>-4.55</v>
+      </c>
+      <c r="I128">
+        <v>-4.8</v>
+      </c>
+      <c r="J128">
+        <v>-5.18</v>
+      </c>
+      <c r="K128">
+        <v>-4.66</v>
+      </c>
+      <c r="L128">
+        <v>-4.84</v>
+      </c>
+      <c r="M128">
+        <v>-3.56</v>
+      </c>
+      <c r="N128">
+        <v>-4.76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>20220028369</v>
+      </c>
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>-7.05</v>
+      </c>
+      <c r="H129">
+        <v>-4.12</v>
+      </c>
+      <c r="I129">
+        <v>-3.21</v>
+      </c>
+      <c r="J129">
+        <v>-5.32</v>
+      </c>
+      <c r="K129">
+        <v>-4.22</v>
+      </c>
+      <c r="L129">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="M129">
+        <v>-4.75</v>
+      </c>
+      <c r="N129">
+        <v>-6.08</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>20240125407</v>
+      </c>
+      <c r="B130" t="s">
+        <v>210</v>
+      </c>
+      <c r="C130">
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130">
+        <v>-5.97</v>
+      </c>
+      <c r="H130">
+        <v>-4.74</v>
+      </c>
+      <c r="I130">
+        <v>-3.87</v>
+      </c>
+      <c r="J130">
+        <v>-4.25</v>
+      </c>
+      <c r="K130">
+        <v>-3.41</v>
+      </c>
+      <c r="L130">
+        <v>-5.21</v>
+      </c>
+      <c r="M130">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="N130">
+        <v>-4.03</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>20230046627</v>
+      </c>
+      <c r="B131" t="s">
+        <v>211</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>20220046569</v>
+      </c>
+      <c r="B132" t="s">
+        <v>212</v>
+      </c>
+      <c r="C132">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>48</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A122:A125">
+  <conditionalFormatting sqref="A121:A124">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A117">
+  <conditionalFormatting sqref="A2:A132">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{346C1558-EB35-4882-B83F-2AE9A37A97A6}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3150DB9-3DFA-4A51-B8BF-050FF07AD234}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -719,17 +719,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1082,14 +1072,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T127" sqref="T127"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="R139" sqref="R139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6554,11 +6544,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A132">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A132">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3150DB9-3DFA-4A51-B8BF-050FF07AD234}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{1FDA1D76-8963-4BFF-A41D-722313CF67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C191634A-0886-4DB6-902D-402027D46B42}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="303">
   <si>
     <t>UHID</t>
   </si>
@@ -678,6 +678,273 @@
   </si>
   <si>
     <t>Enterococcus faecium</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>110/76</t>
+  </si>
+  <si>
+    <t>112/76</t>
+  </si>
+  <si>
+    <t>100/60</t>
+  </si>
+  <si>
+    <t>105/80</t>
+  </si>
+  <si>
+    <t>115/100</t>
+  </si>
+  <si>
+    <t>140/100</t>
+  </si>
+  <si>
+    <t>132/82</t>
+  </si>
+  <si>
+    <t>112/68</t>
+  </si>
+  <si>
+    <t>110/62</t>
+  </si>
+  <si>
+    <t>145/78</t>
+  </si>
+  <si>
+    <t>130/89</t>
+  </si>
+  <si>
+    <t>114/69</t>
+  </si>
+  <si>
+    <t>159/97</t>
+  </si>
+  <si>
+    <t>120/76</t>
+  </si>
+  <si>
+    <t>120/80</t>
+  </si>
+  <si>
+    <t>128/70</t>
+  </si>
+  <si>
+    <t>134/86</t>
+  </si>
+  <si>
+    <t>99/67</t>
+  </si>
+  <si>
+    <t>110/70</t>
+  </si>
+  <si>
+    <t>114/62</t>
+  </si>
+  <si>
+    <t>129/79</t>
+  </si>
+  <si>
+    <t>136/90</t>
+  </si>
+  <si>
+    <t>118/64</t>
+  </si>
+  <si>
+    <t>116/76</t>
+  </si>
+  <si>
+    <t>112/65</t>
+  </si>
+  <si>
+    <t>118/78</t>
+  </si>
+  <si>
+    <t>118/70</t>
+  </si>
+  <si>
+    <t>116/72</t>
+  </si>
+  <si>
+    <t>116/69</t>
+  </si>
+  <si>
+    <t>116/70</t>
+  </si>
+  <si>
+    <t>120/83</t>
+  </si>
+  <si>
+    <t>168/100</t>
+  </si>
+  <si>
+    <t>125/73</t>
+  </si>
+  <si>
+    <t>123/88</t>
+  </si>
+  <si>
+    <t>130/82</t>
+  </si>
+  <si>
+    <t>128/95</t>
+  </si>
+  <si>
+    <t>115/78</t>
+  </si>
+  <si>
+    <t>116/77</t>
+  </si>
+  <si>
+    <t>101/64</t>
+  </si>
+  <si>
+    <t>102/66</t>
+  </si>
+  <si>
+    <t>126/90</t>
+  </si>
+  <si>
+    <t>130/80</t>
+  </si>
+  <si>
+    <t>104/62</t>
+  </si>
+  <si>
+    <t>120/64</t>
+  </si>
+  <si>
+    <t>107/52</t>
+  </si>
+  <si>
+    <t>110/80</t>
+  </si>
+  <si>
+    <t>116/68</t>
+  </si>
+  <si>
+    <t>112/86</t>
+  </si>
+  <si>
+    <t>111/68</t>
+  </si>
+  <si>
+    <t>109/65</t>
+  </si>
+  <si>
+    <t>110/64</t>
+  </si>
+  <si>
+    <t>126/78</t>
+  </si>
+  <si>
+    <t>117/76</t>
+  </si>
+  <si>
+    <t>126/72</t>
+  </si>
+  <si>
+    <t>116/60</t>
+  </si>
+  <si>
+    <t>117/84</t>
+  </si>
+  <si>
+    <t>97/54</t>
+  </si>
+  <si>
+    <t>110/74</t>
+  </si>
+  <si>
+    <t>115/36</t>
+  </si>
+  <si>
+    <t>126/65</t>
+  </si>
+  <si>
+    <t>106/64</t>
+  </si>
+  <si>
+    <t>133/60</t>
+  </si>
+  <si>
+    <t>147/74</t>
+  </si>
+  <si>
+    <t>141/87</t>
+  </si>
+  <si>
+    <t>135/90</t>
+  </si>
+  <si>
+    <t>168/118</t>
+  </si>
+  <si>
+    <t>131/74</t>
+  </si>
+  <si>
+    <t>153/96</t>
+  </si>
+  <si>
+    <t>139/55</t>
+  </si>
+  <si>
+    <t>113/94</t>
+  </si>
+  <si>
+    <t>131/63</t>
+  </si>
+  <si>
+    <t>115/55</t>
+  </si>
+  <si>
+    <t>96/52</t>
+  </si>
+  <si>
+    <t>131/72</t>
+  </si>
+  <si>
+    <t>118/76</t>
+  </si>
+  <si>
+    <t>105/69</t>
+  </si>
+  <si>
+    <t>128/78</t>
+  </si>
+  <si>
+    <t>110/66</t>
+  </si>
+  <si>
+    <t>132/75</t>
+  </si>
+  <si>
+    <t>130/70</t>
+  </si>
+  <si>
+    <t>150/60</t>
+  </si>
+  <si>
+    <t>115/50</t>
+  </si>
+  <si>
+    <t>131/76</t>
+  </si>
+  <si>
+    <t>100/70</t>
+  </si>
+  <si>
+    <t>118/81</t>
+  </si>
+  <si>
+    <t>120/84</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -719,7 +986,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1070,20 +1367,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="R139" sqref="R139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1423,17 @@
       <c r="N1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20220065432</v>
       </c>
@@ -1161,8 +1467,17 @@
       <c r="M2">
         <v>-8.10731</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>98.2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20240016182</v>
       </c>
@@ -1196,8 +1511,17 @@
       <c r="M3">
         <v>-13.6409</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>98.3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20230125389</v>
       </c>
@@ -1237,8 +1561,17 @@
       <c r="M4">
         <v>-5.4212100000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>98.5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20180022685</v>
       </c>
@@ -1278,8 +1611,17 @@
       <c r="M5">
         <v>-9.3165700000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>98.6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20201415102</v>
       </c>
@@ -1313,8 +1655,17 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>99</v>
+      </c>
+      <c r="P6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20240012395</v>
       </c>
@@ -1354,8 +1705,17 @@
       <c r="M7">
         <v>-10.7879</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>98.8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20220166372</v>
       </c>
@@ -1395,8 +1755,17 @@
       <c r="M8">
         <v>-13.599600000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>98.2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20240018475</v>
       </c>
@@ -1430,8 +1799,17 @@
       <c r="M9">
         <v>-4.6000899999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>99.6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20230149608</v>
       </c>
@@ -1471,8 +1849,17 @@
       <c r="M10">
         <v>-12.506399999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>102</v>
+      </c>
+      <c r="P10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20240016829</v>
       </c>
@@ -1512,8 +1899,17 @@
       <c r="M11">
         <v>-12.39</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20230179067</v>
       </c>
@@ -1553,8 +1949,17 @@
       <c r="M12">
         <v>-4.71</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>97.8</v>
+      </c>
+      <c r="P12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20180188108</v>
       </c>
@@ -1594,8 +1999,17 @@
       <c r="M13">
         <v>-4.53</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>98.3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20230141608</v>
       </c>
@@ -1635,8 +2049,17 @@
       <c r="M14">
         <v>-2.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>98.6</v>
+      </c>
+      <c r="P14" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20240020494</v>
       </c>
@@ -1676,8 +2099,17 @@
       <c r="M15">
         <v>-6.52</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>99.5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20240020519</v>
       </c>
@@ -1717,8 +2149,17 @@
       <c r="M16">
         <v>-1.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>98.6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20240015483</v>
       </c>
@@ -1758,8 +2199,17 @@
       <c r="M17">
         <v>-3.87</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>98.7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20240001249</v>
       </c>
@@ -1799,8 +2249,17 @@
       <c r="M18">
         <v>-13.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>98.6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210094336</v>
       </c>
@@ -1840,8 +2299,17 @@
       <c r="M19">
         <v>-5.23</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>98.7</v>
+      </c>
+      <c r="P19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20240006140</v>
       </c>
@@ -1881,8 +2349,17 @@
       <c r="M20">
         <v>-6.28</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>98.6</v>
+      </c>
+      <c r="P20" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20240020436</v>
       </c>
@@ -1922,8 +2399,17 @@
       <c r="M21">
         <v>-5.88</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20240022478</v>
       </c>
@@ -1960,8 +2446,17 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20240022523</v>
       </c>
@@ -2001,8 +2496,17 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>98.7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20220102808</v>
       </c>
@@ -2042,8 +2546,17 @@
       <c r="M24">
         <v>-5.66</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20240022502</v>
       </c>
@@ -2083,8 +2596,17 @@
       <c r="M25">
         <v>-8.4700000000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20240017188</v>
       </c>
@@ -2121,8 +2643,17 @@
       <c r="M26">
         <v>-8.94</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20220064259</v>
       </c>
@@ -2162,8 +2693,17 @@
       <c r="M27">
         <v>-8.26</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>98.3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20240019044</v>
       </c>
@@ -2203,8 +2743,17 @@
       <c r="M28">
         <v>-5.57</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>99.8</v>
+      </c>
+      <c r="P28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q28">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20240024003</v>
       </c>
@@ -2244,8 +2793,17 @@
       <c r="M29">
         <v>-6.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>98.2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20240012256</v>
       </c>
@@ -2285,8 +2843,17 @@
       <c r="M30">
         <v>-4.4029999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>98.4</v>
+      </c>
+      <c r="P30" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210046443</v>
       </c>
@@ -2326,8 +2893,17 @@
       <c r="M31">
         <v>-4.84</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>98.2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20240024207</v>
       </c>
@@ -2364,8 +2940,17 @@
       <c r="M32">
         <v>-4.16</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>98.2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20220153472</v>
       </c>
@@ -2405,8 +2990,17 @@
       <c r="M33">
         <v>-2.5099999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>98.6</v>
+      </c>
+      <c r="P33" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20240024158</v>
       </c>
@@ -2446,8 +3040,17 @@
       <c r="M34">
         <v>-5.7089999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>98</v>
+      </c>
+      <c r="P34" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20220088296</v>
       </c>
@@ -2487,8 +3090,17 @@
       <c r="M35">
         <v>-8.0020000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>97.4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20220064546</v>
       </c>
@@ -2528,8 +3140,17 @@
       <c r="M36">
         <v>-5.85</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>98.1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q36">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20240024631</v>
       </c>
@@ -2566,8 +3187,17 @@
       <c r="M37">
         <v>-4.0599999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>98.5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q37">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20240022566</v>
       </c>
@@ -2604,8 +3234,17 @@
       <c r="M38">
         <v>-10.039999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>98.7</v>
+      </c>
+      <c r="P38" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210126376</v>
       </c>
@@ -2645,8 +3284,17 @@
       <c r="M39">
         <v>-6.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>98.3</v>
+      </c>
+      <c r="P39" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q39">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20240012094</v>
       </c>
@@ -2686,8 +3334,17 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>98.5</v>
+      </c>
+      <c r="P40" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20240027303</v>
       </c>
@@ -2727,8 +3384,17 @@
       <c r="M41">
         <v>-4.7300000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>98.7</v>
+      </c>
+      <c r="P41" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q41">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20240002618</v>
       </c>
@@ -2768,8 +3434,17 @@
       <c r="M42">
         <v>-7.14</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>98</v>
+      </c>
+      <c r="P42" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q42">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20240023202</v>
       </c>
@@ -2809,8 +3484,17 @@
       <c r="M43">
         <v>-5.78</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>99</v>
+      </c>
+      <c r="P43" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q43">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20240027383</v>
       </c>
@@ -2850,8 +3534,17 @@
       <c r="M44">
         <v>-6.53</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>98.6</v>
+      </c>
+      <c r="P44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20210126581</v>
       </c>
@@ -2888,8 +3581,17 @@
       <c r="M45">
         <v>-9.07</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>97.5</v>
+      </c>
+      <c r="P45" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20240026634</v>
       </c>
@@ -2926,8 +3628,17 @@
       <c r="M46">
         <v>-5.86</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>98</v>
+      </c>
+      <c r="P46" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q46">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20240015339</v>
       </c>
@@ -2967,8 +3678,17 @@
       <c r="M47">
         <v>-9.1999999999999993</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>98</v>
+      </c>
+      <c r="P47" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20240028955</v>
       </c>
@@ -3005,8 +3725,17 @@
       <c r="M48">
         <v>-9.61</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>98.6</v>
+      </c>
+      <c r="P48" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20240028466</v>
       </c>
@@ -3043,8 +3772,17 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>98.7</v>
+      </c>
+      <c r="P49" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q49">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20240029036</v>
       </c>
@@ -3084,8 +3822,17 @@
       <c r="M50">
         <v>-4.67</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>98</v>
+      </c>
+      <c r="P50" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q50">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20240028839</v>
       </c>
@@ -3125,8 +3872,17 @@
       <c r="M51">
         <v>-8.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>97.5</v>
+      </c>
+      <c r="P51" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20240025209</v>
       </c>
@@ -3169,8 +3925,14 @@
       <c r="N52">
         <v>-5.55</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>98.6</v>
+      </c>
+      <c r="Q52">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20240028100</v>
       </c>
@@ -3213,8 +3975,17 @@
       <c r="N53">
         <v>-7.76</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>98.6</v>
+      </c>
+      <c r="P53" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q53">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20220083756</v>
       </c>
@@ -3257,8 +4028,17 @@
       <c r="N54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>98</v>
+      </c>
+      <c r="P54" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20240030665</v>
       </c>
@@ -3298,8 +4078,17 @@
       <c r="N55">
         <v>-11.36</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>97</v>
+      </c>
+      <c r="P55" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20240030957</v>
       </c>
@@ -3342,8 +4131,17 @@
       <c r="N56">
         <v>-8.58</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>98</v>
+      </c>
+      <c r="P56" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q56">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20230158280</v>
       </c>
@@ -3386,8 +4184,17 @@
       <c r="N57">
         <v>-6.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>98</v>
+      </c>
+      <c r="P57" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q57">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20240012274</v>
       </c>
@@ -3430,8 +4237,17 @@
       <c r="N58">
         <v>-4.5199999999999996</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>98.5</v>
+      </c>
+      <c r="P58" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20240029225</v>
       </c>
@@ -3474,8 +4290,17 @@
       <c r="N59">
         <v>-4.37</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>98.6</v>
+      </c>
+      <c r="P59" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q59">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20240032359</v>
       </c>
@@ -3518,8 +4343,17 @@
       <c r="N60">
         <v>-8.41</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>98.6</v>
+      </c>
+      <c r="P60" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q60">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20240002772</v>
       </c>
@@ -3553,8 +4387,17 @@
       <c r="N61">
         <v>-3.66</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>98.6</v>
+      </c>
+      <c r="P61" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q61">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20240030597</v>
       </c>
@@ -3597,8 +4440,17 @@
       <c r="N62">
         <v>-7.31</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>98</v>
+      </c>
+      <c r="P62" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q62">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20240030258</v>
       </c>
@@ -3641,8 +4493,17 @@
       <c r="N63">
         <v>-8.5399999999999991</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>98</v>
+      </c>
+      <c r="P63" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20230083087</v>
       </c>
@@ -3682,8 +4543,17 @@
       <c r="N64">
         <v>-7.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>98.6</v>
+      </c>
+      <c r="P64" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q64">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20240039022</v>
       </c>
@@ -3726,8 +4596,17 @@
       <c r="N65">
         <v>-1.1100000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>98</v>
+      </c>
+      <c r="P65" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q65">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20240037502</v>
       </c>
@@ -3770,8 +4649,17 @@
       <c r="N66">
         <v>-6.89</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>98</v>
+      </c>
+      <c r="P66" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q66">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20240032128</v>
       </c>
@@ -3814,8 +4702,17 @@
       <c r="N67">
         <v>-9.4600000000000009</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>98</v>
+      </c>
+      <c r="P67" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q67">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20240035983</v>
       </c>
@@ -3852,8 +4749,17 @@
       <c r="N68">
         <v>-9.81</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>98</v>
+      </c>
+      <c r="P68" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q68">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20190007174</v>
       </c>
@@ -3893,8 +4799,14 @@
       <c r="N69">
         <v>-4.4000000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>98</v>
+      </c>
+      <c r="Q69">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20240051938</v>
       </c>
@@ -3937,8 +4849,17 @@
       <c r="N70">
         <v>-3.47</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>97.2</v>
+      </c>
+      <c r="P70" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q70">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20240057825</v>
       </c>
@@ -3978,8 +4899,17 @@
       <c r="N71">
         <v>-5.64</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>98</v>
+      </c>
+      <c r="P71" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q71">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20240034567</v>
       </c>
@@ -4022,8 +4952,17 @@
       <c r="N72">
         <v>-4.0199999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>98</v>
+      </c>
+      <c r="P72" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20240060316</v>
       </c>
@@ -4066,8 +5005,17 @@
       <c r="N73">
         <v>-6.06</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>98.2</v>
+      </c>
+      <c r="P73" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20240048714</v>
       </c>
@@ -4098,8 +5046,17 @@
       <c r="L74">
         <v>-10.24</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>97.6</v>
+      </c>
+      <c r="P74" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q74">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20230023891</v>
       </c>
@@ -4142,8 +5099,17 @@
       <c r="N75">
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>98</v>
+      </c>
+      <c r="P75" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20180142185</v>
       </c>
@@ -4186,8 +5152,17 @@
       <c r="N76">
         <v>-7.86</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>98</v>
+      </c>
+      <c r="P76" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20240058395</v>
       </c>
@@ -4230,8 +5205,17 @@
       <c r="N77">
         <v>-8.1199999999999992</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>97</v>
+      </c>
+      <c r="P77" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q77">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20200075595</v>
       </c>
@@ -4274,8 +5258,17 @@
       <c r="N78">
         <v>-7.16</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>98.5</v>
+      </c>
+      <c r="P78" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q78">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20230040481</v>
       </c>
@@ -4318,8 +5311,17 @@
       <c r="N79">
         <v>-2.71</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>97.7</v>
+      </c>
+      <c r="P79" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q79">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20240062455</v>
       </c>
@@ -4362,8 +5364,17 @@
       <c r="N80">
         <v>-4</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>98</v>
+      </c>
+      <c r="P80" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q80">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20240062254</v>
       </c>
@@ -4406,8 +5417,17 @@
       <c r="N81">
         <v>-2.88</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>97.5</v>
+      </c>
+      <c r="P81" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q81">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20240048215</v>
       </c>
@@ -4450,8 +5470,17 @@
       <c r="N82">
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>98</v>
+      </c>
+      <c r="P82" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q82">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20240060273</v>
       </c>
@@ -4494,8 +5523,17 @@
       <c r="N83">
         <v>-7.55</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>97</v>
+      </c>
+      <c r="P83" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20240054804</v>
       </c>
@@ -4538,8 +5576,17 @@
       <c r="N84">
         <v>-4.7300000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>99.5</v>
+      </c>
+      <c r="P84" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q84">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20240051976</v>
       </c>
@@ -4582,8 +5629,17 @@
       <c r="N85">
         <v>-4.16</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>99.4</v>
+      </c>
+      <c r="P85" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q85">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20240068214</v>
       </c>
@@ -4626,8 +5682,17 @@
       <c r="N86">
         <v>-5.73</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>97.6</v>
+      </c>
+      <c r="P86" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q86">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20240068215</v>
       </c>
@@ -4670,8 +5735,17 @@
       <c r="N87">
         <v>-2.39</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>98.2</v>
+      </c>
+      <c r="P87" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q87">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20240066137</v>
       </c>
@@ -4714,8 +5788,17 @@
       <c r="N88">
         <v>-3.57</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>97</v>
+      </c>
+      <c r="P88" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q88">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20240069492</v>
       </c>
@@ -4758,8 +5841,17 @@
       <c r="N89">
         <v>-2.95</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>97.5</v>
+      </c>
+      <c r="P89" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q89">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20240067159</v>
       </c>
@@ -4802,8 +5894,17 @@
       <c r="N90">
         <v>-4.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>97</v>
+      </c>
+      <c r="P90" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q90">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20230028720</v>
       </c>
@@ -4846,8 +5947,17 @@
       <c r="N91">
         <v>-5.62</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>97</v>
+      </c>
+      <c r="P91" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q91">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20240046542</v>
       </c>
@@ -4890,8 +6000,17 @@
       <c r="N92">
         <v>-3.52</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>97</v>
+      </c>
+      <c r="P92" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q92">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20230137322</v>
       </c>
@@ -4934,8 +6053,17 @@
       <c r="N93">
         <v>-8.7899999999999991</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>97.5</v>
+      </c>
+      <c r="P93" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20240015478</v>
       </c>
@@ -4978,8 +6106,17 @@
       <c r="N94">
         <v>-5.43</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>97</v>
+      </c>
+      <c r="P94" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20240068424</v>
       </c>
@@ -5022,8 +6159,17 @@
       <c r="N95">
         <v>-1.48</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>101</v>
+      </c>
+      <c r="P95" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q95">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20240071058</v>
       </c>
@@ -5066,8 +6212,17 @@
       <c r="N96">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>98.1</v>
+      </c>
+      <c r="P96" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q96">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20240074728</v>
       </c>
@@ -5110,8 +6265,17 @@
       <c r="N97">
         <v>-3.43</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>97.5</v>
+      </c>
+      <c r="P97" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q97">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20240074281</v>
       </c>
@@ -5154,8 +6318,17 @@
       <c r="N98">
         <v>-7.48</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>98</v>
+      </c>
+      <c r="P98" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q98">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20240076716</v>
       </c>
@@ -5198,8 +6371,17 @@
       <c r="N99">
         <v>-7.15</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>98.5</v>
+      </c>
+      <c r="P99" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q99">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20240078762</v>
       </c>
@@ -5242,8 +6424,17 @@
       <c r="N100">
         <v>-5.65</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>98</v>
+      </c>
+      <c r="P100" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20240078772</v>
       </c>
@@ -5286,8 +6477,17 @@
       <c r="N101">
         <v>-6</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>98</v>
+      </c>
+      <c r="P101" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20240062956</v>
       </c>
@@ -5330,8 +6530,17 @@
       <c r="N102">
         <v>-12.54</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>97.5</v>
+      </c>
+      <c r="P102" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q102">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20240088127</v>
       </c>
@@ -5371,8 +6580,17 @@
       <c r="M103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>98</v>
+      </c>
+      <c r="P103" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q103">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20240076818</v>
       </c>
@@ -5415,8 +6633,17 @@
       <c r="N104">
         <v>-3.57</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>98</v>
+      </c>
+      <c r="P104" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q104">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20240070348</v>
       </c>
@@ -5459,8 +6686,17 @@
       <c r="N105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>97.8</v>
+      </c>
+      <c r="P105" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q105">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20240028527</v>
       </c>
@@ -5504,7 +6740,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20230003855</v>
       </c>
@@ -5542,7 +6778,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20240092861</v>
       </c>
@@ -5574,7 +6810,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20240087671</v>
       </c>
@@ -5618,7 +6854,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20230121277</v>
       </c>
@@ -5662,7 +6898,7 @@
         <v>-6.39</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20240094465</v>
       </c>
@@ -5705,8 +6941,17 @@
       <c r="N111">
         <v>-10.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>98.2</v>
+      </c>
+      <c r="P111" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q111">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20230156801</v>
       </c>
@@ -6545,10 +7790,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A132">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{1FDA1D76-8963-4BFF-A41D-722313CF67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C191634A-0886-4DB6-902D-402027D46B42}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E18E9F-DB8A-436A-A825-0C7EC437B8ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="343">
   <si>
     <t>UHID</t>
   </si>
@@ -680,9 +680,6 @@
     <t>Enterococcus faecium</t>
   </si>
   <si>
-    <t>Fever</t>
-  </si>
-  <si>
     <t>BP</t>
   </si>
   <si>
@@ -944,7 +941,130 @@
     <t>120/84</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>UTI</t>
+  </si>
+  <si>
+    <t>Vaginal Hysterectomy</t>
+  </si>
+  <si>
+    <t>Adnexal mass</t>
+  </si>
+  <si>
+    <t>Persistent fetal tachycardia</t>
+  </si>
+  <si>
+    <t>Hypo thyroidism</t>
+  </si>
+  <si>
+    <t>Primigravida under AMS Evaluation</t>
+  </si>
+  <si>
+    <t>Right leg cellulitis with AKI</t>
+  </si>
+  <si>
+    <t>Gall Bladder extended with Hepatic resection POD3</t>
+  </si>
+  <si>
+    <t>Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>AKI with Lung pneumonectomy</t>
+  </si>
+  <si>
+    <t>Renal Transplant with PCP pneumonia with AKI</t>
+  </si>
+  <si>
+    <t>LR + Septic Shock, AKI</t>
+  </si>
+  <si>
+    <t>Abnormal Uterine Bleeding</t>
+  </si>
+  <si>
+    <t>UV Prolapse with Cystocele</t>
+  </si>
+  <si>
+    <t>B/L adenexal mass</t>
+  </si>
+  <si>
+    <t>P3L3A1 with High grade carcinoma ovary</t>
+  </si>
+  <si>
+    <t>Uterine sarcoma with HTN2 hypothyroid</t>
+  </si>
+  <si>
+    <t>Abdominal pain</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Urinating often</t>
+  </si>
+  <si>
+    <t>Vaginal irritation</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>Expectoration</t>
+  </si>
+  <si>
+    <t>ICU Stay</t>
+  </si>
+  <si>
+    <t>Prognosis</t>
+  </si>
+  <si>
+    <t>Dialysis</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Ventillator</t>
+  </si>
+  <si>
+    <t>WeightLoss</t>
+  </si>
+  <si>
+    <t>BurningMicturition</t>
+  </si>
+  <si>
+    <t>Malaise</t>
+  </si>
+  <si>
+    <t>HospitalStay</t>
   </si>
 </sst>
 </file>
@@ -986,37 +1106,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1367,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="U107" sqref="U107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1470,7 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,16 +1514,55 @@
         <v>46</v>
       </c>
       <c r="O1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" t="s">
+        <v>339</v>
+      </c>
+      <c r="W1" t="s">
+        <v>328</v>
+      </c>
+      <c r="X1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD1" t="s">
         <v>214</v>
       </c>
-      <c r="P1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20220065432</v>
       </c>
@@ -1467,17 +1596,56 @@
       <c r="M2">
         <v>-8.10731</v>
       </c>
-      <c r="O2">
-        <v>98.2</v>
+      <c r="O2" t="s">
+        <v>302</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R2" t="s">
+        <v>320</v>
+      </c>
+      <c r="S2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U2" t="s">
+        <v>320</v>
+      </c>
+      <c r="V2" t="s">
+        <v>321</v>
+      </c>
+      <c r="W2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20240016182</v>
       </c>
@@ -1511,17 +1679,56 @@
       <c r="M3">
         <v>-13.6409</v>
       </c>
-      <c r="O3">
-        <v>98.3</v>
+      <c r="O3" t="s">
+        <v>303</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>321</v>
+      </c>
+      <c r="R3" t="s">
+        <v>322</v>
+      </c>
+      <c r="S3" t="s">
+        <v>322</v>
+      </c>
+      <c r="T3" t="s">
+        <v>322</v>
+      </c>
+      <c r="U3" t="s">
+        <v>322</v>
+      </c>
+      <c r="V3" t="s">
+        <v>322</v>
+      </c>
+      <c r="W3" t="s">
+        <v>322</v>
+      </c>
+      <c r="X3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20230125389</v>
       </c>
@@ -1561,17 +1768,56 @@
       <c r="M4">
         <v>-5.4212100000000003</v>
       </c>
-      <c r="O4">
-        <v>98.5</v>
+      <c r="O4" t="s">
+        <v>302</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>320</v>
+      </c>
+      <c r="R4" t="s">
+        <v>321</v>
+      </c>
+      <c r="S4" t="s">
+        <v>321</v>
+      </c>
+      <c r="T4" t="s">
+        <v>321</v>
+      </c>
+      <c r="U4" t="s">
+        <v>321</v>
+      </c>
+      <c r="V4" t="s">
+        <v>321</v>
+      </c>
+      <c r="W4" t="s">
+        <v>321</v>
+      </c>
+      <c r="X4" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20180022685</v>
       </c>
@@ -1611,17 +1857,56 @@
       <c r="M5">
         <v>-9.3165700000000005</v>
       </c>
-      <c r="O5">
-        <v>98.6</v>
+      <c r="O5" t="s">
+        <v>302</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>320</v>
+      </c>
+      <c r="R5" t="s">
+        <v>321</v>
+      </c>
+      <c r="S5" t="s">
+        <v>320</v>
+      </c>
+      <c r="T5" t="s">
+        <v>321</v>
+      </c>
+      <c r="U5" t="s">
+        <v>321</v>
+      </c>
+      <c r="V5" t="s">
+        <v>321</v>
+      </c>
+      <c r="W5" t="s">
+        <v>321</v>
+      </c>
+      <c r="X5" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20201415102</v>
       </c>
@@ -1655,17 +1940,56 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>99</v>
+      <c r="O6" t="s">
+        <v>302</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>321</v>
+      </c>
+      <c r="R6" t="s">
+        <v>321</v>
+      </c>
+      <c r="S6" t="s">
+        <v>321</v>
+      </c>
+      <c r="T6" t="s">
+        <v>321</v>
+      </c>
+      <c r="U6" t="s">
+        <v>321</v>
+      </c>
+      <c r="V6" t="s">
+        <v>321</v>
+      </c>
+      <c r="W6" t="s">
+        <v>321</v>
+      </c>
+      <c r="X6" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20240012395</v>
       </c>
@@ -1705,17 +2029,56 @@
       <c r="M7">
         <v>-10.7879</v>
       </c>
-      <c r="O7">
-        <v>98.8</v>
+      <c r="O7" t="s">
+        <v>302</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q7">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>321</v>
+      </c>
+      <c r="R7" t="s">
+        <v>321</v>
+      </c>
+      <c r="S7" t="s">
+        <v>320</v>
+      </c>
+      <c r="T7" t="s">
+        <v>321</v>
+      </c>
+      <c r="U7" t="s">
+        <v>321</v>
+      </c>
+      <c r="V7" t="s">
+        <v>321</v>
+      </c>
+      <c r="W7" t="s">
+        <v>321</v>
+      </c>
+      <c r="X7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20220166372</v>
       </c>
@@ -1755,17 +2118,56 @@
       <c r="M8">
         <v>-13.599600000000001</v>
       </c>
-      <c r="O8">
-        <v>98.2</v>
+      <c r="O8" t="s">
+        <v>302</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>320</v>
+      </c>
+      <c r="R8" t="s">
+        <v>320</v>
+      </c>
+      <c r="S8" t="s">
+        <v>321</v>
+      </c>
+      <c r="T8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U8" t="s">
+        <v>321</v>
+      </c>
+      <c r="V8" t="s">
+        <v>321</v>
+      </c>
+      <c r="W8" t="s">
+        <v>321</v>
+      </c>
+      <c r="X8" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20240018475</v>
       </c>
@@ -1799,17 +2201,56 @@
       <c r="M9">
         <v>-4.6000899999999998</v>
       </c>
-      <c r="O9">
-        <v>99.6</v>
+      <c r="O9" t="s">
+        <v>304</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>320</v>
+      </c>
+      <c r="R9" t="s">
+        <v>321</v>
+      </c>
+      <c r="S9" t="s">
+        <v>321</v>
+      </c>
+      <c r="T9" t="s">
+        <v>321</v>
+      </c>
+      <c r="U9" t="s">
+        <v>321</v>
+      </c>
+      <c r="V9" t="s">
+        <v>321</v>
+      </c>
+      <c r="W9" t="s">
+        <v>321</v>
+      </c>
+      <c r="X9" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20230149608</v>
       </c>
@@ -1849,17 +2290,56 @@
       <c r="M10">
         <v>-12.506399999999999</v>
       </c>
-      <c r="O10">
-        <v>102</v>
+      <c r="O10" t="s">
+        <v>305</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>321</v>
+      </c>
+      <c r="R10" t="s">
+        <v>321</v>
+      </c>
+      <c r="S10" t="s">
+        <v>321</v>
+      </c>
+      <c r="T10" t="s">
+        <v>321</v>
+      </c>
+      <c r="U10" t="s">
+        <v>321</v>
+      </c>
+      <c r="V10" t="s">
+        <v>321</v>
+      </c>
+      <c r="W10" t="s">
+        <v>321</v>
+      </c>
+      <c r="X10" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20240016829</v>
       </c>
@@ -1899,17 +2379,56 @@
       <c r="M11">
         <v>-12.39</v>
       </c>
-      <c r="O11">
-        <v>99</v>
+      <c r="O11" t="s">
+        <v>306</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q11">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>321</v>
+      </c>
+      <c r="R11" t="s">
+        <v>321</v>
+      </c>
+      <c r="S11" t="s">
+        <v>321</v>
+      </c>
+      <c r="T11" t="s">
+        <v>321</v>
+      </c>
+      <c r="U11" t="s">
+        <v>321</v>
+      </c>
+      <c r="V11" t="s">
+        <v>321</v>
+      </c>
+      <c r="W11" t="s">
+        <v>321</v>
+      </c>
+      <c r="X11" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20230179067</v>
       </c>
@@ -1949,17 +2468,56 @@
       <c r="M12">
         <v>-4.71</v>
       </c>
-      <c r="O12">
-        <v>97.8</v>
+      <c r="O12" t="s">
+        <v>302</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q12">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>321</v>
+      </c>
+      <c r="R12" t="s">
+        <v>321</v>
+      </c>
+      <c r="S12" t="s">
+        <v>321</v>
+      </c>
+      <c r="T12" t="s">
+        <v>321</v>
+      </c>
+      <c r="U12" t="s">
+        <v>321</v>
+      </c>
+      <c r="V12" t="s">
+        <v>321</v>
+      </c>
+      <c r="W12" t="s">
+        <v>321</v>
+      </c>
+      <c r="X12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20180188108</v>
       </c>
@@ -1999,17 +2557,56 @@
       <c r="M13">
         <v>-4.53</v>
       </c>
-      <c r="O13">
-        <v>98.3</v>
+      <c r="O13" t="s">
+        <v>302</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q13">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>320</v>
+      </c>
+      <c r="R13" t="s">
+        <v>321</v>
+      </c>
+      <c r="S13" t="s">
+        <v>321</v>
+      </c>
+      <c r="T13" t="s">
+        <v>321</v>
+      </c>
+      <c r="U13" t="s">
+        <v>321</v>
+      </c>
+      <c r="V13" t="s">
+        <v>321</v>
+      </c>
+      <c r="W13" t="s">
+        <v>321</v>
+      </c>
+      <c r="X13" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20230141608</v>
       </c>
@@ -2049,17 +2646,56 @@
       <c r="M14">
         <v>-2.13</v>
       </c>
-      <c r="O14">
-        <v>98.6</v>
+      <c r="O14" t="s">
+        <v>302</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>321</v>
+      </c>
+      <c r="R14" t="s">
+        <v>321</v>
+      </c>
+      <c r="S14" t="s">
+        <v>321</v>
+      </c>
+      <c r="T14" t="s">
+        <v>321</v>
+      </c>
+      <c r="U14" t="s">
+        <v>321</v>
+      </c>
+      <c r="V14" t="s">
+        <v>321</v>
+      </c>
+      <c r="W14" t="s">
+        <v>321</v>
+      </c>
+      <c r="X14" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20240020494</v>
       </c>
@@ -2099,17 +2735,56 @@
       <c r="M15">
         <v>-6.52</v>
       </c>
-      <c r="O15">
-        <v>99.5</v>
+      <c r="O15" t="s">
+        <v>302</v>
       </c>
       <c r="P15" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q15">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>321</v>
+      </c>
+      <c r="R15" t="s">
+        <v>321</v>
+      </c>
+      <c r="S15" t="s">
+        <v>321</v>
+      </c>
+      <c r="T15" t="s">
+        <v>321</v>
+      </c>
+      <c r="U15" t="s">
+        <v>321</v>
+      </c>
+      <c r="V15" t="s">
+        <v>321</v>
+      </c>
+      <c r="W15" t="s">
+        <v>321</v>
+      </c>
+      <c r="X15" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20240020519</v>
       </c>
@@ -2149,17 +2824,56 @@
       <c r="M16">
         <v>-1.37</v>
       </c>
-      <c r="O16">
-        <v>98.6</v>
+      <c r="O16" t="s">
+        <v>302</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>320</v>
+      </c>
+      <c r="R16" t="s">
+        <v>321</v>
+      </c>
+      <c r="S16" t="s">
+        <v>321</v>
+      </c>
+      <c r="T16" t="s">
+        <v>321</v>
+      </c>
+      <c r="U16" t="s">
+        <v>321</v>
+      </c>
+      <c r="V16" t="s">
+        <v>321</v>
+      </c>
+      <c r="W16" t="s">
+        <v>321</v>
+      </c>
+      <c r="X16" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20240015483</v>
       </c>
@@ -2199,17 +2913,56 @@
       <c r="M17">
         <v>-3.87</v>
       </c>
-      <c r="O17">
-        <v>98.7</v>
+      <c r="O17" t="s">
+        <v>302</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q17">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>320</v>
+      </c>
+      <c r="R17" t="s">
+        <v>321</v>
+      </c>
+      <c r="S17" t="s">
+        <v>321</v>
+      </c>
+      <c r="T17" t="s">
+        <v>321</v>
+      </c>
+      <c r="U17" t="s">
+        <v>321</v>
+      </c>
+      <c r="V17" t="s">
+        <v>321</v>
+      </c>
+      <c r="W17" t="s">
+        <v>321</v>
+      </c>
+      <c r="X17" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20240001249</v>
       </c>
@@ -2249,17 +3002,56 @@
       <c r="M18">
         <v>-13.48</v>
       </c>
-      <c r="O18">
-        <v>98.6</v>
+      <c r="O18" t="s">
+        <v>302</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q18">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>320</v>
+      </c>
+      <c r="R18" t="s">
+        <v>321</v>
+      </c>
+      <c r="S18" t="s">
+        <v>321</v>
+      </c>
+      <c r="T18" t="s">
+        <v>321</v>
+      </c>
+      <c r="U18" t="s">
+        <v>321</v>
+      </c>
+      <c r="V18" t="s">
+        <v>321</v>
+      </c>
+      <c r="W18" t="s">
+        <v>321</v>
+      </c>
+      <c r="X18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210094336</v>
       </c>
@@ -2299,17 +3091,56 @@
       <c r="M19">
         <v>-5.23</v>
       </c>
-      <c r="O19">
-        <v>98.7</v>
+      <c r="O19" t="s">
+        <v>302</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q19">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>321</v>
+      </c>
+      <c r="R19" t="s">
+        <v>321</v>
+      </c>
+      <c r="S19" t="s">
+        <v>321</v>
+      </c>
+      <c r="T19" t="s">
+        <v>321</v>
+      </c>
+      <c r="U19" t="s">
+        <v>321</v>
+      </c>
+      <c r="V19" t="s">
+        <v>321</v>
+      </c>
+      <c r="W19" t="s">
+        <v>321</v>
+      </c>
+      <c r="X19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20240006140</v>
       </c>
@@ -2349,17 +3180,56 @@
       <c r="M20">
         <v>-6.28</v>
       </c>
-      <c r="O20">
-        <v>98.6</v>
+      <c r="O20" t="s">
+        <v>302</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>321</v>
+      </c>
+      <c r="R20" t="s">
+        <v>321</v>
+      </c>
+      <c r="S20" t="s">
+        <v>321</v>
+      </c>
+      <c r="T20" t="s">
+        <v>321</v>
+      </c>
+      <c r="U20" t="s">
+        <v>321</v>
+      </c>
+      <c r="V20" t="s">
+        <v>321</v>
+      </c>
+      <c r="W20" t="s">
+        <v>321</v>
+      </c>
+      <c r="X20" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20240020436</v>
       </c>
@@ -2399,17 +3269,56 @@
       <c r="M21">
         <v>-5.88</v>
       </c>
-      <c r="O21">
-        <v>98</v>
+      <c r="O21" t="s">
+        <v>302</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>320</v>
+      </c>
+      <c r="R21" t="s">
+        <v>321</v>
+      </c>
+      <c r="S21" t="s">
+        <v>321</v>
+      </c>
+      <c r="T21" t="s">
+        <v>321</v>
+      </c>
+      <c r="U21" t="s">
+        <v>321</v>
+      </c>
+      <c r="V21" t="s">
+        <v>321</v>
+      </c>
+      <c r="W21" t="s">
+        <v>321</v>
+      </c>
+      <c r="X21" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20240022478</v>
       </c>
@@ -2446,17 +3355,56 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>98</v>
+      <c r="O22" t="s">
+        <v>302</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>321</v>
+      </c>
+      <c r="R22" t="s">
+        <v>321</v>
+      </c>
+      <c r="S22" t="s">
+        <v>321</v>
+      </c>
+      <c r="T22" t="s">
+        <v>321</v>
+      </c>
+      <c r="U22" t="s">
+        <v>321</v>
+      </c>
+      <c r="V22" t="s">
+        <v>321</v>
+      </c>
+      <c r="W22" t="s">
+        <v>321</v>
+      </c>
+      <c r="X22" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20240022523</v>
       </c>
@@ -2496,17 +3444,56 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>98.7</v>
+      <c r="O23" t="s">
+        <v>302</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q23">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>320</v>
+      </c>
+      <c r="R23" t="s">
+        <v>321</v>
+      </c>
+      <c r="S23" t="s">
+        <v>321</v>
+      </c>
+      <c r="T23" t="s">
+        <v>321</v>
+      </c>
+      <c r="U23" t="s">
+        <v>321</v>
+      </c>
+      <c r="V23" t="s">
+        <v>321</v>
+      </c>
+      <c r="W23" t="s">
+        <v>321</v>
+      </c>
+      <c r="X23" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20220102808</v>
       </c>
@@ -2546,17 +3533,56 @@
       <c r="M24">
         <v>-5.66</v>
       </c>
-      <c r="O24">
-        <v>98</v>
+      <c r="O24" t="s">
+        <v>302</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q24">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>321</v>
+      </c>
+      <c r="R24" t="s">
+        <v>321</v>
+      </c>
+      <c r="S24" t="s">
+        <v>321</v>
+      </c>
+      <c r="T24" t="s">
+        <v>321</v>
+      </c>
+      <c r="U24" t="s">
+        <v>321</v>
+      </c>
+      <c r="V24" t="s">
+        <v>321</v>
+      </c>
+      <c r="W24" t="s">
+        <v>321</v>
+      </c>
+      <c r="X24" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20240022502</v>
       </c>
@@ -2596,17 +3622,56 @@
       <c r="M25">
         <v>-8.4700000000000006</v>
       </c>
-      <c r="O25">
-        <v>98</v>
+      <c r="O25" t="s">
+        <v>302</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q25">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>320</v>
+      </c>
+      <c r="R25" t="s">
+        <v>321</v>
+      </c>
+      <c r="S25" t="s">
+        <v>321</v>
+      </c>
+      <c r="T25" t="s">
+        <v>321</v>
+      </c>
+      <c r="U25" t="s">
+        <v>321</v>
+      </c>
+      <c r="V25" t="s">
+        <v>321</v>
+      </c>
+      <c r="W25" t="s">
+        <v>321</v>
+      </c>
+      <c r="X25" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20240017188</v>
       </c>
@@ -2643,17 +3708,56 @@
       <c r="M26">
         <v>-8.94</v>
       </c>
-      <c r="O26">
-        <v>98</v>
+      <c r="O26" t="s">
+        <v>302</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q26">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>320</v>
+      </c>
+      <c r="R26" t="s">
+        <v>321</v>
+      </c>
+      <c r="S26" t="s">
+        <v>321</v>
+      </c>
+      <c r="T26" t="s">
+        <v>321</v>
+      </c>
+      <c r="U26" t="s">
+        <v>321</v>
+      </c>
+      <c r="V26" t="s">
+        <v>321</v>
+      </c>
+      <c r="W26" t="s">
+        <v>321</v>
+      </c>
+      <c r="X26" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20220064259</v>
       </c>
@@ -2693,17 +3797,56 @@
       <c r="M27">
         <v>-8.26</v>
       </c>
-      <c r="O27">
-        <v>98.3</v>
+      <c r="O27" t="s">
+        <v>302</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>324</v>
+      </c>
+      <c r="R27" t="s">
+        <v>321</v>
+      </c>
+      <c r="S27" t="s">
+        <v>321</v>
+      </c>
+      <c r="T27" t="s">
+        <v>321</v>
+      </c>
+      <c r="U27" t="s">
+        <v>321</v>
+      </c>
+      <c r="V27" t="s">
+        <v>321</v>
+      </c>
+      <c r="W27" t="s">
+        <v>321</v>
+      </c>
+      <c r="X27" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20240019044</v>
       </c>
@@ -2743,17 +3886,56 @@
       <c r="M28">
         <v>-5.57</v>
       </c>
-      <c r="O28">
-        <v>99.8</v>
+      <c r="O28" t="s">
+        <v>302</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q28">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>321</v>
+      </c>
+      <c r="R28" t="s">
+        <v>321</v>
+      </c>
+      <c r="S28" t="s">
+        <v>321</v>
+      </c>
+      <c r="T28" t="s">
+        <v>321</v>
+      </c>
+      <c r="U28" t="s">
+        <v>321</v>
+      </c>
+      <c r="V28" t="s">
+        <v>321</v>
+      </c>
+      <c r="W28" t="s">
+        <v>321</v>
+      </c>
+      <c r="X28" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20240024003</v>
       </c>
@@ -2793,17 +3975,56 @@
       <c r="M29">
         <v>-6.45</v>
       </c>
-      <c r="O29">
-        <v>98.2</v>
+      <c r="O29" t="s">
+        <v>302</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q29">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>321</v>
+      </c>
+      <c r="R29" t="s">
+        <v>321</v>
+      </c>
+      <c r="S29" t="s">
+        <v>321</v>
+      </c>
+      <c r="T29" t="s">
+        <v>321</v>
+      </c>
+      <c r="U29" t="s">
+        <v>321</v>
+      </c>
+      <c r="V29" t="s">
+        <v>321</v>
+      </c>
+      <c r="W29" t="s">
+        <v>321</v>
+      </c>
+      <c r="X29" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20240012256</v>
       </c>
@@ -2843,17 +4064,56 @@
       <c r="M30">
         <v>-4.4029999999999996</v>
       </c>
-      <c r="O30">
-        <v>98.4</v>
+      <c r="O30" t="s">
+        <v>302</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q30">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>320</v>
+      </c>
+      <c r="R30" t="s">
+        <v>321</v>
+      </c>
+      <c r="S30" t="s">
+        <v>321</v>
+      </c>
+      <c r="T30" t="s">
+        <v>321</v>
+      </c>
+      <c r="U30" t="s">
+        <v>321</v>
+      </c>
+      <c r="V30" t="s">
+        <v>321</v>
+      </c>
+      <c r="W30" t="s">
+        <v>321</v>
+      </c>
+      <c r="X30" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210046443</v>
       </c>
@@ -2893,17 +4153,56 @@
       <c r="M31">
         <v>-4.84</v>
       </c>
-      <c r="O31">
-        <v>98.2</v>
+      <c r="O31" t="s">
+        <v>302</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q31">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>320</v>
+      </c>
+      <c r="R31" t="s">
+        <v>321</v>
+      </c>
+      <c r="S31" t="s">
+        <v>321</v>
+      </c>
+      <c r="T31" t="s">
+        <v>321</v>
+      </c>
+      <c r="U31" t="s">
+        <v>321</v>
+      </c>
+      <c r="V31" t="s">
+        <v>321</v>
+      </c>
+      <c r="W31" t="s">
+        <v>321</v>
+      </c>
+      <c r="X31" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20240024207</v>
       </c>
@@ -2940,17 +4239,56 @@
       <c r="M32">
         <v>-4.16</v>
       </c>
-      <c r="O32">
-        <v>98.2</v>
+      <c r="O32" t="s">
+        <v>302</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q32">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>321</v>
+      </c>
+      <c r="R32" t="s">
+        <v>321</v>
+      </c>
+      <c r="S32" t="s">
+        <v>321</v>
+      </c>
+      <c r="T32" t="s">
+        <v>321</v>
+      </c>
+      <c r="U32" t="s">
+        <v>321</v>
+      </c>
+      <c r="V32" t="s">
+        <v>321</v>
+      </c>
+      <c r="W32" t="s">
+        <v>321</v>
+      </c>
+      <c r="X32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20220153472</v>
       </c>
@@ -2990,17 +4328,56 @@
       <c r="M33">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="O33">
-        <v>98.6</v>
+      <c r="O33" t="s">
+        <v>302</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q33">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>321</v>
+      </c>
+      <c r="R33" t="s">
+        <v>321</v>
+      </c>
+      <c r="S33" t="s">
+        <v>321</v>
+      </c>
+      <c r="T33" t="s">
+        <v>321</v>
+      </c>
+      <c r="U33" t="s">
+        <v>321</v>
+      </c>
+      <c r="V33" t="s">
+        <v>321</v>
+      </c>
+      <c r="W33" t="s">
+        <v>321</v>
+      </c>
+      <c r="X33" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20240024158</v>
       </c>
@@ -3040,17 +4417,56 @@
       <c r="M34">
         <v>-5.7089999999999996</v>
       </c>
-      <c r="O34">
-        <v>98</v>
+      <c r="O34" t="s">
+        <v>302</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q34">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>320</v>
+      </c>
+      <c r="R34" t="s">
+        <v>321</v>
+      </c>
+      <c r="S34" t="s">
+        <v>321</v>
+      </c>
+      <c r="T34" t="s">
+        <v>321</v>
+      </c>
+      <c r="U34" t="s">
+        <v>321</v>
+      </c>
+      <c r="V34" t="s">
+        <v>321</v>
+      </c>
+      <c r="W34" t="s">
+        <v>321</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20220088296</v>
       </c>
@@ -3090,17 +4506,56 @@
       <c r="M35">
         <v>-8.0020000000000007</v>
       </c>
-      <c r="O35">
-        <v>97.4</v>
+      <c r="O35" t="s">
+        <v>302</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>321</v>
+      </c>
+      <c r="R35" t="s">
+        <v>320</v>
+      </c>
+      <c r="S35" t="s">
+        <v>335</v>
+      </c>
+      <c r="T35" t="s">
+        <v>320</v>
+      </c>
+      <c r="U35" t="s">
+        <v>321</v>
+      </c>
+      <c r="V35" t="s">
+        <v>321</v>
+      </c>
+      <c r="W35" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20220064546</v>
       </c>
@@ -3140,17 +4595,56 @@
       <c r="M36">
         <v>-5.85</v>
       </c>
-      <c r="O36">
-        <v>98.1</v>
+      <c r="O36" t="s">
+        <v>302</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q36">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>321</v>
+      </c>
+      <c r="R36" t="s">
+        <v>321</v>
+      </c>
+      <c r="S36" t="s">
+        <v>321</v>
+      </c>
+      <c r="T36" t="s">
+        <v>321</v>
+      </c>
+      <c r="U36" t="s">
+        <v>321</v>
+      </c>
+      <c r="V36" t="s">
+        <v>321</v>
+      </c>
+      <c r="W36" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20240024631</v>
       </c>
@@ -3187,17 +4681,56 @@
       <c r="M37">
         <v>-4.0599999999999996</v>
       </c>
-      <c r="O37">
-        <v>98.5</v>
+      <c r="O37" t="s">
+        <v>302</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q37">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>320</v>
+      </c>
+      <c r="R37" t="s">
+        <v>321</v>
+      </c>
+      <c r="S37" t="s">
+        <v>321</v>
+      </c>
+      <c r="T37" t="s">
+        <v>321</v>
+      </c>
+      <c r="U37" t="s">
+        <v>321</v>
+      </c>
+      <c r="V37" t="s">
+        <v>321</v>
+      </c>
+      <c r="W37" t="s">
+        <v>321</v>
+      </c>
+      <c r="X37" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20240022566</v>
       </c>
@@ -3234,17 +4767,56 @@
       <c r="M38">
         <v>-10.039999999999999</v>
       </c>
-      <c r="O38">
-        <v>98.7</v>
+      <c r="O38" t="s">
+        <v>307</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q38">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>320</v>
+      </c>
+      <c r="R38" t="s">
+        <v>321</v>
+      </c>
+      <c r="S38" t="s">
+        <v>321</v>
+      </c>
+      <c r="T38" t="s">
+        <v>321</v>
+      </c>
+      <c r="U38" t="s">
+        <v>321</v>
+      </c>
+      <c r="V38" t="s">
+        <v>321</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210126376</v>
       </c>
@@ -3284,17 +4856,56 @@
       <c r="M39">
         <v>-6.4</v>
       </c>
-      <c r="O39">
-        <v>98.3</v>
+      <c r="O39" t="s">
+        <v>302</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q39">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>320</v>
+      </c>
+      <c r="R39" t="s">
+        <v>320</v>
+      </c>
+      <c r="S39" t="s">
+        <v>321</v>
+      </c>
+      <c r="T39" t="s">
+        <v>321</v>
+      </c>
+      <c r="U39" t="s">
+        <v>321</v>
+      </c>
+      <c r="V39" t="s">
+        <v>321</v>
+      </c>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20240012094</v>
       </c>
@@ -3334,17 +4945,56 @@
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="O40">
-        <v>98.5</v>
+      <c r="O40" t="s">
+        <v>302</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>321</v>
+      </c>
+      <c r="R40" t="s">
+        <v>321</v>
+      </c>
+      <c r="S40" t="s">
+        <v>321</v>
+      </c>
+      <c r="T40" t="s">
+        <v>321</v>
+      </c>
+      <c r="U40" t="s">
+        <v>321</v>
+      </c>
+      <c r="V40" t="s">
+        <v>321</v>
+      </c>
+      <c r="W40" t="s">
+        <v>321</v>
+      </c>
+      <c r="X40" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20240027303</v>
       </c>
@@ -3384,17 +5034,56 @@
       <c r="M41">
         <v>-4.7300000000000004</v>
       </c>
-      <c r="O41">
-        <v>98.7</v>
+      <c r="O41" t="s">
+        <v>302</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q41">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>321</v>
+      </c>
+      <c r="R41" t="s">
+        <v>321</v>
+      </c>
+      <c r="S41" t="s">
+        <v>321</v>
+      </c>
+      <c r="T41" t="s">
+        <v>321</v>
+      </c>
+      <c r="U41" t="s">
+        <v>321</v>
+      </c>
+      <c r="V41" t="s">
+        <v>321</v>
+      </c>
+      <c r="W41" t="s">
+        <v>321</v>
+      </c>
+      <c r="X41" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20240002618</v>
       </c>
@@ -3434,17 +5123,56 @@
       <c r="M42">
         <v>-7.14</v>
       </c>
-      <c r="O42">
-        <v>98</v>
+      <c r="O42" t="s">
+        <v>302</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q42">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>321</v>
+      </c>
+      <c r="R42" t="s">
+        <v>321</v>
+      </c>
+      <c r="S42" t="s">
+        <v>321</v>
+      </c>
+      <c r="T42" t="s">
+        <v>321</v>
+      </c>
+      <c r="U42" t="s">
+        <v>321</v>
+      </c>
+      <c r="V42" t="s">
+        <v>321</v>
+      </c>
+      <c r="W42" t="s">
+        <v>321</v>
+      </c>
+      <c r="X42" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20240023202</v>
       </c>
@@ -3484,17 +5212,56 @@
       <c r="M43">
         <v>-5.78</v>
       </c>
-      <c r="O43">
-        <v>99</v>
+      <c r="O43" t="s">
+        <v>302</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q43">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>320</v>
+      </c>
+      <c r="R43" t="s">
+        <v>321</v>
+      </c>
+      <c r="S43" t="s">
+        <v>321</v>
+      </c>
+      <c r="T43" t="s">
+        <v>321</v>
+      </c>
+      <c r="U43" t="s">
+        <v>321</v>
+      </c>
+      <c r="V43" t="s">
+        <v>321</v>
+      </c>
+      <c r="W43" t="s">
+        <v>321</v>
+      </c>
+      <c r="X43" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20240027383</v>
       </c>
@@ -3534,17 +5301,56 @@
       <c r="M44">
         <v>-6.53</v>
       </c>
-      <c r="O44">
-        <v>98.6</v>
+      <c r="O44" t="s">
+        <v>302</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q44">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>321</v>
+      </c>
+      <c r="R44" t="s">
+        <v>321</v>
+      </c>
+      <c r="S44" t="s">
+        <v>321</v>
+      </c>
+      <c r="T44" t="s">
+        <v>321</v>
+      </c>
+      <c r="U44" t="s">
+        <v>321</v>
+      </c>
+      <c r="V44" t="s">
+        <v>321</v>
+      </c>
+      <c r="W44" t="s">
+        <v>321</v>
+      </c>
+      <c r="X44" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20210126581</v>
       </c>
@@ -3581,17 +5387,56 @@
       <c r="M45">
         <v>-9.07</v>
       </c>
-      <c r="O45">
-        <v>97.5</v>
+      <c r="O45" t="s">
+        <v>302</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q45">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>320</v>
+      </c>
+      <c r="R45" t="s">
+        <v>321</v>
+      </c>
+      <c r="S45" t="s">
+        <v>321</v>
+      </c>
+      <c r="T45" t="s">
+        <v>321</v>
+      </c>
+      <c r="U45" t="s">
+        <v>321</v>
+      </c>
+      <c r="V45" t="s">
+        <v>321</v>
+      </c>
+      <c r="W45" t="s">
+        <v>321</v>
+      </c>
+      <c r="X45" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20240026634</v>
       </c>
@@ -3628,17 +5473,56 @@
       <c r="M46">
         <v>-5.86</v>
       </c>
-      <c r="O46">
-        <v>98</v>
+      <c r="O46" t="s">
+        <v>302</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q46">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>321</v>
+      </c>
+      <c r="R46" t="s">
+        <v>321</v>
+      </c>
+      <c r="S46" t="s">
+        <v>321</v>
+      </c>
+      <c r="T46" t="s">
+        <v>321</v>
+      </c>
+      <c r="U46" t="s">
+        <v>321</v>
+      </c>
+      <c r="V46" t="s">
+        <v>321</v>
+      </c>
+      <c r="W46" t="s">
+        <v>321</v>
+      </c>
+      <c r="X46" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20240015339</v>
       </c>
@@ -3678,17 +5562,56 @@
       <c r="M47">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="O47">
-        <v>98</v>
+      <c r="O47" t="s">
+        <v>302</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q47">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>321</v>
+      </c>
+      <c r="R47" t="s">
+        <v>321</v>
+      </c>
+      <c r="S47" t="s">
+        <v>321</v>
+      </c>
+      <c r="T47" t="s">
+        <v>321</v>
+      </c>
+      <c r="U47" t="s">
+        <v>321</v>
+      </c>
+      <c r="V47" t="s">
+        <v>321</v>
+      </c>
+      <c r="W47" t="s">
+        <v>321</v>
+      </c>
+      <c r="X47" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20240028955</v>
       </c>
@@ -3725,17 +5648,56 @@
       <c r="M48">
         <v>-9.61</v>
       </c>
-      <c r="O48">
-        <v>98.6</v>
+      <c r="O48" t="s">
+        <v>302</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q48">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>320</v>
+      </c>
+      <c r="R48" t="s">
+        <v>321</v>
+      </c>
+      <c r="S48" t="s">
+        <v>321</v>
+      </c>
+      <c r="T48" t="s">
+        <v>321</v>
+      </c>
+      <c r="U48" t="s">
+        <v>321</v>
+      </c>
+      <c r="V48" t="s">
+        <v>321</v>
+      </c>
+      <c r="W48" t="s">
+        <v>321</v>
+      </c>
+      <c r="X48" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20240028466</v>
       </c>
@@ -3772,17 +5734,56 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="O49">
-        <v>98.7</v>
+      <c r="O49" t="s">
+        <v>302</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q49">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>321</v>
+      </c>
+      <c r="R49" t="s">
+        <v>321</v>
+      </c>
+      <c r="S49" t="s">
+        <v>321</v>
+      </c>
+      <c r="T49" t="s">
+        <v>321</v>
+      </c>
+      <c r="U49" t="s">
+        <v>321</v>
+      </c>
+      <c r="V49" t="s">
+        <v>321</v>
+      </c>
+      <c r="W49" t="s">
+        <v>321</v>
+      </c>
+      <c r="X49" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20240029036</v>
       </c>
@@ -3822,17 +5823,56 @@
       <c r="M50">
         <v>-4.67</v>
       </c>
-      <c r="O50">
-        <v>98</v>
+      <c r="O50" t="s">
+        <v>302</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q50">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>321</v>
+      </c>
+      <c r="R50" t="s">
+        <v>321</v>
+      </c>
+      <c r="S50" t="s">
+        <v>321</v>
+      </c>
+      <c r="T50" t="s">
+        <v>321</v>
+      </c>
+      <c r="U50" t="s">
+        <v>321</v>
+      </c>
+      <c r="V50" t="s">
+        <v>321</v>
+      </c>
+      <c r="W50" t="s">
+        <v>321</v>
+      </c>
+      <c r="X50" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20240028839</v>
       </c>
@@ -3872,17 +5912,56 @@
       <c r="M51">
         <v>-8.1</v>
       </c>
-      <c r="O51">
-        <v>97.5</v>
+      <c r="O51" t="s">
+        <v>302</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q51">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>320</v>
+      </c>
+      <c r="R51" t="s">
+        <v>321</v>
+      </c>
+      <c r="S51" t="s">
+        <v>321</v>
+      </c>
+      <c r="T51" t="s">
+        <v>321</v>
+      </c>
+      <c r="U51" t="s">
+        <v>321</v>
+      </c>
+      <c r="V51" t="s">
+        <v>321</v>
+      </c>
+      <c r="W51" t="s">
+        <v>321</v>
+      </c>
+      <c r="X51" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20240025209</v>
       </c>
@@ -3925,14 +6004,53 @@
       <c r="N52">
         <v>-5.55</v>
       </c>
-      <c r="O52">
-        <v>98.6</v>
-      </c>
-      <c r="Q52">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>302</v>
+      </c>
+      <c r="P52" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>321</v>
+      </c>
+      <c r="R52" t="s">
+        <v>321</v>
+      </c>
+      <c r="S52" t="s">
+        <v>321</v>
+      </c>
+      <c r="T52" t="s">
+        <v>321</v>
+      </c>
+      <c r="U52" t="s">
+        <v>321</v>
+      </c>
+      <c r="V52" t="s">
+        <v>336</v>
+      </c>
+      <c r="W52" t="s">
+        <v>321</v>
+      </c>
+      <c r="X52" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20240028100</v>
       </c>
@@ -3975,17 +6093,56 @@
       <c r="N53">
         <v>-7.76</v>
       </c>
-      <c r="O53">
-        <v>98.6</v>
+      <c r="O53" t="s">
+        <v>302</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q53">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>321</v>
+      </c>
+      <c r="R53" t="s">
+        <v>321</v>
+      </c>
+      <c r="S53" t="s">
+        <v>321</v>
+      </c>
+      <c r="T53" t="s">
+        <v>321</v>
+      </c>
+      <c r="U53" t="s">
+        <v>321</v>
+      </c>
+      <c r="V53" t="s">
+        <v>321</v>
+      </c>
+      <c r="W53" t="s">
+        <v>321</v>
+      </c>
+      <c r="X53" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20220083756</v>
       </c>
@@ -4028,17 +6185,56 @@
       <c r="N54">
         <v>0</v>
       </c>
-      <c r="O54">
-        <v>98</v>
+      <c r="O54" t="s">
+        <v>302</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q54">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>320</v>
+      </c>
+      <c r="R54" t="s">
+        <v>321</v>
+      </c>
+      <c r="S54" t="s">
+        <v>321</v>
+      </c>
+      <c r="T54" t="s">
+        <v>321</v>
+      </c>
+      <c r="U54" t="s">
+        <v>321</v>
+      </c>
+      <c r="V54" t="s">
+        <v>321</v>
+      </c>
+      <c r="W54" t="s">
+        <v>321</v>
+      </c>
+      <c r="X54" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20240030665</v>
       </c>
@@ -4078,17 +6274,56 @@
       <c r="N55">
         <v>-11.36</v>
       </c>
-      <c r="O55">
-        <v>97</v>
+      <c r="O55" t="s">
+        <v>302</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q55">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>320</v>
+      </c>
+      <c r="R55" t="s">
+        <v>321</v>
+      </c>
+      <c r="S55" t="s">
+        <v>321</v>
+      </c>
+      <c r="T55" t="s">
+        <v>321</v>
+      </c>
+      <c r="U55" t="s">
+        <v>321</v>
+      </c>
+      <c r="V55" t="s">
+        <v>321</v>
+      </c>
+      <c r="W55" t="s">
+        <v>321</v>
+      </c>
+      <c r="X55" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20240030957</v>
       </c>
@@ -4131,17 +6366,56 @@
       <c r="N56">
         <v>-8.58</v>
       </c>
-      <c r="O56">
-        <v>98</v>
+      <c r="O56" t="s">
+        <v>302</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q56">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>321</v>
+      </c>
+      <c r="R56" t="s">
+        <v>321</v>
+      </c>
+      <c r="S56" t="s">
+        <v>321</v>
+      </c>
+      <c r="T56" t="s">
+        <v>321</v>
+      </c>
+      <c r="U56" t="s">
+        <v>321</v>
+      </c>
+      <c r="V56" t="s">
+        <v>321</v>
+      </c>
+      <c r="W56" t="s">
+        <v>321</v>
+      </c>
+      <c r="X56" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20230158280</v>
       </c>
@@ -4184,17 +6458,56 @@
       <c r="N57">
         <v>-6.6</v>
       </c>
-      <c r="O57">
-        <v>98</v>
+      <c r="O57" t="s">
+        <v>302</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q57">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>320</v>
+      </c>
+      <c r="R57" t="s">
+        <v>321</v>
+      </c>
+      <c r="S57" t="s">
+        <v>321</v>
+      </c>
+      <c r="T57" t="s">
+        <v>321</v>
+      </c>
+      <c r="U57" t="s">
+        <v>321</v>
+      </c>
+      <c r="V57" t="s">
+        <v>321</v>
+      </c>
+      <c r="W57" t="s">
+        <v>321</v>
+      </c>
+      <c r="X57" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20240012274</v>
       </c>
@@ -4237,17 +6550,56 @@
       <c r="N58">
         <v>-4.5199999999999996</v>
       </c>
-      <c r="O58">
-        <v>98.5</v>
+      <c r="O58" t="s">
+        <v>302</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q58">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>321</v>
+      </c>
+      <c r="R58" t="s">
+        <v>321</v>
+      </c>
+      <c r="S58" t="s">
+        <v>321</v>
+      </c>
+      <c r="T58" t="s">
+        <v>321</v>
+      </c>
+      <c r="U58" t="s">
+        <v>321</v>
+      </c>
+      <c r="V58" t="s">
+        <v>321</v>
+      </c>
+      <c r="W58" t="s">
+        <v>321</v>
+      </c>
+      <c r="X58" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20240029225</v>
       </c>
@@ -4290,17 +6642,56 @@
       <c r="N59">
         <v>-4.37</v>
       </c>
-      <c r="O59">
-        <v>98.6</v>
+      <c r="O59" t="s">
+        <v>302</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q59">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>321</v>
+      </c>
+      <c r="R59" t="s">
+        <v>321</v>
+      </c>
+      <c r="S59" t="s">
+        <v>321</v>
+      </c>
+      <c r="T59" t="s">
+        <v>321</v>
+      </c>
+      <c r="U59" t="s">
+        <v>321</v>
+      </c>
+      <c r="V59" t="s">
+        <v>321</v>
+      </c>
+      <c r="W59" t="s">
+        <v>321</v>
+      </c>
+      <c r="X59" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20240032359</v>
       </c>
@@ -4343,17 +6734,56 @@
       <c r="N60">
         <v>-8.41</v>
       </c>
-      <c r="O60">
-        <v>98.6</v>
+      <c r="O60" t="s">
+        <v>302</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q60">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>321</v>
+      </c>
+      <c r="R60" t="s">
+        <v>321</v>
+      </c>
+      <c r="S60" t="s">
+        <v>320</v>
+      </c>
+      <c r="T60" t="s">
+        <v>321</v>
+      </c>
+      <c r="U60" t="s">
+        <v>321</v>
+      </c>
+      <c r="V60" t="s">
+        <v>321</v>
+      </c>
+      <c r="W60" t="s">
+        <v>321</v>
+      </c>
+      <c r="X60" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20240002772</v>
       </c>
@@ -4387,17 +6817,56 @@
       <c r="N61">
         <v>-3.66</v>
       </c>
-      <c r="O61">
-        <v>98.6</v>
+      <c r="O61" t="s">
+        <v>302</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q61">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>321</v>
+      </c>
+      <c r="R61" t="s">
+        <v>320</v>
+      </c>
+      <c r="S61" t="s">
+        <v>320</v>
+      </c>
+      <c r="T61" t="s">
+        <v>320</v>
+      </c>
+      <c r="U61" t="s">
+        <v>320</v>
+      </c>
+      <c r="V61" t="s">
+        <v>336</v>
+      </c>
+      <c r="W61" t="s">
+        <v>321</v>
+      </c>
+      <c r="X61" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20240030597</v>
       </c>
@@ -4440,17 +6909,56 @@
       <c r="N62">
         <v>-7.31</v>
       </c>
-      <c r="O62">
-        <v>98</v>
+      <c r="O62" t="s">
+        <v>302</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q62">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>321</v>
+      </c>
+      <c r="R62" t="s">
+        <v>321</v>
+      </c>
+      <c r="S62" t="s">
+        <v>321</v>
+      </c>
+      <c r="T62" t="s">
+        <v>321</v>
+      </c>
+      <c r="U62" t="s">
+        <v>321</v>
+      </c>
+      <c r="V62" t="s">
+        <v>321</v>
+      </c>
+      <c r="W62" t="s">
+        <v>321</v>
+      </c>
+      <c r="X62" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20240030258</v>
       </c>
@@ -4493,17 +7001,56 @@
       <c r="N63">
         <v>-8.5399999999999991</v>
       </c>
-      <c r="O63">
-        <v>98</v>
+      <c r="O63" t="s">
+        <v>302</v>
       </c>
       <c r="P63" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q63">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>320</v>
+      </c>
+      <c r="R63" t="s">
+        <v>321</v>
+      </c>
+      <c r="S63" t="s">
+        <v>320</v>
+      </c>
+      <c r="T63" t="s">
+        <v>321</v>
+      </c>
+      <c r="U63" t="s">
+        <v>321</v>
+      </c>
+      <c r="V63" t="s">
+        <v>321</v>
+      </c>
+      <c r="W63" t="s">
+        <v>321</v>
+      </c>
+      <c r="X63" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20230083087</v>
       </c>
@@ -4543,17 +7090,56 @@
       <c r="N64">
         <v>-7.4</v>
       </c>
-      <c r="O64">
-        <v>98.6</v>
+      <c r="O64" t="s">
+        <v>302</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q64">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>321</v>
+      </c>
+      <c r="R64" t="s">
+        <v>321</v>
+      </c>
+      <c r="S64" t="s">
+        <v>321</v>
+      </c>
+      <c r="T64" t="s">
+        <v>321</v>
+      </c>
+      <c r="U64" t="s">
+        <v>321</v>
+      </c>
+      <c r="V64" t="s">
+        <v>321</v>
+      </c>
+      <c r="W64" t="s">
+        <v>321</v>
+      </c>
+      <c r="X64" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20240039022</v>
       </c>
@@ -4596,17 +7182,56 @@
       <c r="N65">
         <v>-1.1100000000000001</v>
       </c>
-      <c r="O65">
-        <v>98</v>
+      <c r="O65" t="s">
+        <v>302</v>
       </c>
       <c r="P65" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q65">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>320</v>
+      </c>
+      <c r="R65" t="s">
+        <v>321</v>
+      </c>
+      <c r="S65" t="s">
+        <v>321</v>
+      </c>
+      <c r="T65" t="s">
+        <v>321</v>
+      </c>
+      <c r="U65" t="s">
+        <v>321</v>
+      </c>
+      <c r="V65" t="s">
+        <v>321</v>
+      </c>
+      <c r="W65" t="s">
+        <v>321</v>
+      </c>
+      <c r="X65" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20240037502</v>
       </c>
@@ -4649,17 +7274,56 @@
       <c r="N66">
         <v>-6.89</v>
       </c>
-      <c r="O66">
-        <v>98</v>
+      <c r="O66" t="s">
+        <v>302</v>
       </c>
       <c r="P66" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q66">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>321</v>
+      </c>
+      <c r="R66" t="s">
+        <v>321</v>
+      </c>
+      <c r="S66" t="s">
+        <v>321</v>
+      </c>
+      <c r="T66" t="s">
+        <v>321</v>
+      </c>
+      <c r="U66" t="s">
+        <v>321</v>
+      </c>
+      <c r="V66" t="s">
+        <v>321</v>
+      </c>
+      <c r="W66" t="s">
+        <v>321</v>
+      </c>
+      <c r="X66" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20240032128</v>
       </c>
@@ -4702,17 +7366,56 @@
       <c r="N67">
         <v>-9.4600000000000009</v>
       </c>
-      <c r="O67">
-        <v>98</v>
+      <c r="O67" t="s">
+        <v>302</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q67">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>321</v>
+      </c>
+      <c r="R67" t="s">
+        <v>321</v>
+      </c>
+      <c r="S67" t="s">
+        <v>321</v>
+      </c>
+      <c r="T67" t="s">
+        <v>321</v>
+      </c>
+      <c r="U67" t="s">
+        <v>321</v>
+      </c>
+      <c r="V67" t="s">
+        <v>336</v>
+      </c>
+      <c r="W67" t="s">
+        <v>321</v>
+      </c>
+      <c r="X67" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20240035983</v>
       </c>
@@ -4749,17 +7452,56 @@
       <c r="N68">
         <v>-9.81</v>
       </c>
-      <c r="O68">
-        <v>98</v>
+      <c r="O68" t="s">
+        <v>308</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q68">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>321</v>
+      </c>
+      <c r="R68" t="s">
+        <v>321</v>
+      </c>
+      <c r="S68" t="s">
+        <v>321</v>
+      </c>
+      <c r="T68" t="s">
+        <v>321</v>
+      </c>
+      <c r="U68" t="s">
+        <v>321</v>
+      </c>
+      <c r="V68" t="s">
+        <v>321</v>
+      </c>
+      <c r="W68" t="s">
+        <v>321</v>
+      </c>
+      <c r="X68" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20190007174</v>
       </c>
@@ -4799,14 +7541,53 @@
       <c r="N69">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="O69">
-        <v>98</v>
-      </c>
-      <c r="Q69">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>302</v>
+      </c>
+      <c r="P69" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>321</v>
+      </c>
+      <c r="R69" t="s">
+        <v>321</v>
+      </c>
+      <c r="S69" t="s">
+        <v>321</v>
+      </c>
+      <c r="T69" t="s">
+        <v>321</v>
+      </c>
+      <c r="U69" t="s">
+        <v>321</v>
+      </c>
+      <c r="V69" t="s">
+        <v>321</v>
+      </c>
+      <c r="W69" t="s">
+        <v>321</v>
+      </c>
+      <c r="X69" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20240051938</v>
       </c>
@@ -4849,17 +7630,56 @@
       <c r="N70">
         <v>-3.47</v>
       </c>
-      <c r="O70">
-        <v>97.2</v>
+      <c r="O70" t="s">
+        <v>302</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q70">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>320</v>
+      </c>
+      <c r="R70" t="s">
+        <v>321</v>
+      </c>
+      <c r="S70" t="s">
+        <v>321</v>
+      </c>
+      <c r="T70" t="s">
+        <v>321</v>
+      </c>
+      <c r="U70" t="s">
+        <v>321</v>
+      </c>
+      <c r="V70" t="s">
+        <v>321</v>
+      </c>
+      <c r="W70" t="s">
+        <v>321</v>
+      </c>
+      <c r="X70" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20240057825</v>
       </c>
@@ -4899,17 +7719,56 @@
       <c r="N71">
         <v>-5.64</v>
       </c>
-      <c r="O71">
-        <v>98</v>
+      <c r="O71" t="s">
+        <v>302</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q71">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>320</v>
+      </c>
+      <c r="R71" t="s">
+        <v>321</v>
+      </c>
+      <c r="S71" t="s">
+        <v>321</v>
+      </c>
+      <c r="T71" t="s">
+        <v>321</v>
+      </c>
+      <c r="U71" t="s">
+        <v>321</v>
+      </c>
+      <c r="V71" t="s">
+        <v>321</v>
+      </c>
+      <c r="W71" t="s">
+        <v>321</v>
+      </c>
+      <c r="X71" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20240034567</v>
       </c>
@@ -4952,17 +7811,56 @@
       <c r="N72">
         <v>-4.0199999999999996</v>
       </c>
-      <c r="O72">
-        <v>98</v>
+      <c r="O72" t="s">
+        <v>302</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q72">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>320</v>
+      </c>
+      <c r="R72" t="s">
+        <v>321</v>
+      </c>
+      <c r="S72" t="s">
+        <v>321</v>
+      </c>
+      <c r="T72" t="s">
+        <v>321</v>
+      </c>
+      <c r="U72" t="s">
+        <v>321</v>
+      </c>
+      <c r="V72" t="s">
+        <v>321</v>
+      </c>
+      <c r="W72" t="s">
+        <v>321</v>
+      </c>
+      <c r="X72" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20240060316</v>
       </c>
@@ -5005,17 +7903,56 @@
       <c r="N73">
         <v>-6.06</v>
       </c>
-      <c r="O73">
-        <v>98.2</v>
+      <c r="O73" t="s">
+        <v>302</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q73">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>321</v>
+      </c>
+      <c r="R73" t="s">
+        <v>321</v>
+      </c>
+      <c r="S73" t="s">
+        <v>320</v>
+      </c>
+      <c r="T73" t="s">
+        <v>321</v>
+      </c>
+      <c r="U73" t="s">
+        <v>321</v>
+      </c>
+      <c r="V73" t="s">
+        <v>321</v>
+      </c>
+      <c r="W73" t="s">
+        <v>321</v>
+      </c>
+      <c r="X73" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20240048714</v>
       </c>
@@ -5046,17 +7983,56 @@
       <c r="L74">
         <v>-10.24</v>
       </c>
-      <c r="O74">
-        <v>97.6</v>
+      <c r="O74" t="s">
+        <v>302</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q74">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>320</v>
+      </c>
+      <c r="R74" t="s">
+        <v>321</v>
+      </c>
+      <c r="S74" t="s">
+        <v>321</v>
+      </c>
+      <c r="T74" t="s">
+        <v>321</v>
+      </c>
+      <c r="U74" t="s">
+        <v>321</v>
+      </c>
+      <c r="V74" t="s">
+        <v>321</v>
+      </c>
+      <c r="W74" t="s">
+        <v>321</v>
+      </c>
+      <c r="X74" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20230023891</v>
       </c>
@@ -5099,17 +8075,56 @@
       <c r="N75">
         <v>-1.4</v>
       </c>
-      <c r="O75">
-        <v>98</v>
+      <c r="O75" t="s">
+        <v>302</v>
       </c>
       <c r="P75" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>321</v>
+      </c>
+      <c r="R75" t="s">
+        <v>321</v>
+      </c>
+      <c r="S75" t="s">
+        <v>320</v>
+      </c>
+      <c r="T75" t="s">
+        <v>321</v>
+      </c>
+      <c r="U75" t="s">
+        <v>321</v>
+      </c>
+      <c r="V75" t="s">
+        <v>321</v>
+      </c>
+      <c r="W75" t="s">
+        <v>321</v>
+      </c>
+      <c r="X75" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20180142185</v>
       </c>
@@ -5152,17 +8167,56 @@
       <c r="N76">
         <v>-7.86</v>
       </c>
-      <c r="O76">
-        <v>98</v>
+      <c r="O76" t="s">
+        <v>302</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q76">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>320</v>
+      </c>
+      <c r="R76" t="s">
+        <v>321</v>
+      </c>
+      <c r="S76" t="s">
+        <v>321</v>
+      </c>
+      <c r="T76" t="s">
+        <v>321</v>
+      </c>
+      <c r="U76" t="s">
+        <v>321</v>
+      </c>
+      <c r="V76" t="s">
+        <v>321</v>
+      </c>
+      <c r="W76" t="s">
+        <v>321</v>
+      </c>
+      <c r="X76" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20240058395</v>
       </c>
@@ -5205,17 +8259,56 @@
       <c r="N77">
         <v>-8.1199999999999992</v>
       </c>
-      <c r="O77">
-        <v>97</v>
+      <c r="O77" t="s">
+        <v>302</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q77">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>320</v>
+      </c>
+      <c r="R77" t="s">
+        <v>321</v>
+      </c>
+      <c r="S77" t="s">
+        <v>320</v>
+      </c>
+      <c r="T77" t="s">
+        <v>321</v>
+      </c>
+      <c r="U77" t="s">
+        <v>321</v>
+      </c>
+      <c r="V77" t="s">
+        <v>321</v>
+      </c>
+      <c r="W77" t="s">
+        <v>321</v>
+      </c>
+      <c r="X77" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20200075595</v>
       </c>
@@ -5258,17 +8351,56 @@
       <c r="N78">
         <v>-7.16</v>
       </c>
-      <c r="O78">
-        <v>98.5</v>
+      <c r="O78" t="s">
+        <v>302</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q78">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>320</v>
+      </c>
+      <c r="R78" t="s">
+        <v>320</v>
+      </c>
+      <c r="S78" t="s">
+        <v>321</v>
+      </c>
+      <c r="T78" t="s">
+        <v>321</v>
+      </c>
+      <c r="U78" t="s">
+        <v>321</v>
+      </c>
+      <c r="V78" t="s">
+        <v>321</v>
+      </c>
+      <c r="W78" t="s">
+        <v>321</v>
+      </c>
+      <c r="X78" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20230040481</v>
       </c>
@@ -5311,17 +8443,56 @@
       <c r="N79">
         <v>-2.71</v>
       </c>
-      <c r="O79">
-        <v>97.7</v>
+      <c r="O79" t="s">
+        <v>302</v>
       </c>
       <c r="P79" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q79">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>320</v>
+      </c>
+      <c r="R79" t="s">
+        <v>321</v>
+      </c>
+      <c r="S79" t="s">
+        <v>321</v>
+      </c>
+      <c r="T79" t="s">
+        <v>321</v>
+      </c>
+      <c r="U79" t="s">
+        <v>321</v>
+      </c>
+      <c r="V79" t="s">
+        <v>321</v>
+      </c>
+      <c r="W79" t="s">
+        <v>321</v>
+      </c>
+      <c r="X79" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20240062455</v>
       </c>
@@ -5364,17 +8535,56 @@
       <c r="N80">
         <v>-4</v>
       </c>
-      <c r="O80">
-        <v>98</v>
+      <c r="O80" t="s">
+        <v>302</v>
       </c>
       <c r="P80" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q80">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>320</v>
+      </c>
+      <c r="R80" t="s">
+        <v>321</v>
+      </c>
+      <c r="S80" t="s">
+        <v>321</v>
+      </c>
+      <c r="T80" t="s">
+        <v>321</v>
+      </c>
+      <c r="U80" t="s">
+        <v>321</v>
+      </c>
+      <c r="V80" t="s">
+        <v>321</v>
+      </c>
+      <c r="W80" t="s">
+        <v>321</v>
+      </c>
+      <c r="X80" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20240062254</v>
       </c>
@@ -5417,17 +8627,56 @@
       <c r="N81">
         <v>-2.88</v>
       </c>
-      <c r="O81">
-        <v>97.5</v>
+      <c r="O81" t="s">
+        <v>302</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q81">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>320</v>
+      </c>
+      <c r="R81" t="s">
+        <v>321</v>
+      </c>
+      <c r="S81" t="s">
+        <v>321</v>
+      </c>
+      <c r="T81" t="s">
+        <v>321</v>
+      </c>
+      <c r="U81" t="s">
+        <v>321</v>
+      </c>
+      <c r="V81" t="s">
+        <v>321</v>
+      </c>
+      <c r="W81" t="s">
+        <v>321</v>
+      </c>
+      <c r="X81" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20240048215</v>
       </c>
@@ -5470,17 +8719,56 @@
       <c r="N82">
         <v>-2.9</v>
       </c>
-      <c r="O82">
-        <v>98</v>
+      <c r="O82" t="s">
+        <v>302</v>
       </c>
       <c r="P82" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q82">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>320</v>
+      </c>
+      <c r="R82" t="s">
+        <v>320</v>
+      </c>
+      <c r="S82" t="s">
+        <v>321</v>
+      </c>
+      <c r="T82" t="s">
+        <v>321</v>
+      </c>
+      <c r="U82" t="s">
+        <v>321</v>
+      </c>
+      <c r="V82" t="s">
+        <v>321</v>
+      </c>
+      <c r="W82" t="s">
+        <v>321</v>
+      </c>
+      <c r="X82" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20240060273</v>
       </c>
@@ -5523,17 +8811,56 @@
       <c r="N83">
         <v>-7.55</v>
       </c>
-      <c r="O83">
-        <v>97</v>
+      <c r="O83" t="s">
+        <v>302</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q83">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>320</v>
+      </c>
+      <c r="R83" t="s">
+        <v>321</v>
+      </c>
+      <c r="S83" t="s">
+        <v>321</v>
+      </c>
+      <c r="T83" t="s">
+        <v>321</v>
+      </c>
+      <c r="U83" t="s">
+        <v>321</v>
+      </c>
+      <c r="V83" t="s">
+        <v>321</v>
+      </c>
+      <c r="W83" t="s">
+        <v>321</v>
+      </c>
+      <c r="X83" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20240054804</v>
       </c>
@@ -5576,17 +8903,56 @@
       <c r="N84">
         <v>-4.7300000000000004</v>
       </c>
-      <c r="O84">
-        <v>99.5</v>
+      <c r="O84" t="s">
+        <v>309</v>
       </c>
       <c r="P84" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q84">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>321</v>
+      </c>
+      <c r="R84" t="s">
+        <v>321</v>
+      </c>
+      <c r="S84" t="s">
+        <v>321</v>
+      </c>
+      <c r="T84" t="s">
+        <v>320</v>
+      </c>
+      <c r="U84" t="s">
+        <v>320</v>
+      </c>
+      <c r="V84" t="s">
+        <v>336</v>
+      </c>
+      <c r="W84" t="s">
+        <v>321</v>
+      </c>
+      <c r="X84" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20240051976</v>
       </c>
@@ -5629,17 +8995,56 @@
       <c r="N85">
         <v>-4.16</v>
       </c>
-      <c r="O85">
-        <v>99.4</v>
+      <c r="O85" t="s">
+        <v>310</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q85">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>321</v>
+      </c>
+      <c r="R85" t="s">
+        <v>321</v>
+      </c>
+      <c r="S85" t="s">
+        <v>321</v>
+      </c>
+      <c r="T85" t="s">
+        <v>320</v>
+      </c>
+      <c r="U85" t="s">
+        <v>320</v>
+      </c>
+      <c r="V85" t="s">
+        <v>336</v>
+      </c>
+      <c r="W85" t="s">
+        <v>321</v>
+      </c>
+      <c r="X85" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20240068214</v>
       </c>
@@ -5682,17 +9087,56 @@
       <c r="N86">
         <v>-5.73</v>
       </c>
-      <c r="O86">
-        <v>97.6</v>
+      <c r="O86" t="s">
+        <v>311</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q86">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>321</v>
+      </c>
+      <c r="R86" t="s">
+        <v>321</v>
+      </c>
+      <c r="S86" t="s">
+        <v>321</v>
+      </c>
+      <c r="T86" t="s">
+        <v>320</v>
+      </c>
+      <c r="U86" t="s">
+        <v>320</v>
+      </c>
+      <c r="V86" t="s">
+        <v>336</v>
+      </c>
+      <c r="W86" t="s">
+        <v>320</v>
+      </c>
+      <c r="X86" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20240068215</v>
       </c>
@@ -5735,17 +9179,56 @@
       <c r="N87">
         <v>-2.39</v>
       </c>
-      <c r="O87">
-        <v>98.2</v>
+      <c r="O87" t="s">
+        <v>312</v>
       </c>
       <c r="P87" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q87">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>321</v>
+      </c>
+      <c r="R87" t="s">
+        <v>321</v>
+      </c>
+      <c r="S87" t="s">
+        <v>321</v>
+      </c>
+      <c r="T87" t="s">
+        <v>321</v>
+      </c>
+      <c r="U87" t="s">
+        <v>320</v>
+      </c>
+      <c r="V87" t="s">
+        <v>336</v>
+      </c>
+      <c r="W87" t="s">
+        <v>321</v>
+      </c>
+      <c r="X87" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20240066137</v>
       </c>
@@ -5788,17 +9271,56 @@
       <c r="N88">
         <v>-3.57</v>
       </c>
-      <c r="O88">
-        <v>97</v>
+      <c r="O88" t="s">
+        <v>313</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q88">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>321</v>
+      </c>
+      <c r="R88" t="s">
+        <v>321</v>
+      </c>
+      <c r="S88" t="s">
+        <v>321</v>
+      </c>
+      <c r="T88" t="s">
+        <v>321</v>
+      </c>
+      <c r="U88" t="s">
+        <v>320</v>
+      </c>
+      <c r="V88" t="s">
+        <v>336</v>
+      </c>
+      <c r="W88" t="s">
+        <v>321</v>
+      </c>
+      <c r="X88" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20240069492</v>
       </c>
@@ -5841,17 +9363,56 @@
       <c r="N89">
         <v>-2.95</v>
       </c>
-      <c r="O89">
-        <v>97.5</v>
+      <c r="O89" t="s">
+        <v>307</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q89">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>321</v>
+      </c>
+      <c r="R89" t="s">
+        <v>321</v>
+      </c>
+      <c r="S89" t="s">
+        <v>321</v>
+      </c>
+      <c r="T89" t="s">
+        <v>321</v>
+      </c>
+      <c r="U89" t="s">
+        <v>320</v>
+      </c>
+      <c r="V89" t="s">
+        <v>336</v>
+      </c>
+      <c r="W89" t="s">
+        <v>321</v>
+      </c>
+      <c r="X89" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20240067159</v>
       </c>
@@ -5894,17 +9455,56 @@
       <c r="N90">
         <v>-4.7</v>
       </c>
-      <c r="O90">
-        <v>97</v>
+      <c r="O90" t="s">
+        <v>302</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q90">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>321</v>
+      </c>
+      <c r="R90" t="s">
+        <v>321</v>
+      </c>
+      <c r="S90" t="s">
+        <v>321</v>
+      </c>
+      <c r="T90" t="s">
+        <v>321</v>
+      </c>
+      <c r="U90" t="s">
+        <v>321</v>
+      </c>
+      <c r="V90" t="s">
+        <v>321</v>
+      </c>
+      <c r="W90" t="s">
+        <v>321</v>
+      </c>
+      <c r="X90" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20230028720</v>
       </c>
@@ -5947,17 +9547,56 @@
       <c r="N91">
         <v>-5.62</v>
       </c>
-      <c r="O91">
-        <v>97</v>
+      <c r="O91" t="s">
+        <v>314</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q91">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>321</v>
+      </c>
+      <c r="R91" t="s">
+        <v>321</v>
+      </c>
+      <c r="S91" t="s">
+        <v>320</v>
+      </c>
+      <c r="T91" t="s">
+        <v>320</v>
+      </c>
+      <c r="U91" t="s">
+        <v>320</v>
+      </c>
+      <c r="V91" t="s">
+        <v>321</v>
+      </c>
+      <c r="W91" t="s">
+        <v>321</v>
+      </c>
+      <c r="X91" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20240046542</v>
       </c>
@@ -6000,17 +9639,56 @@
       <c r="N92">
         <v>-3.52</v>
       </c>
-      <c r="O92">
-        <v>97</v>
+      <c r="O92" t="s">
+        <v>315</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q92">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>320</v>
+      </c>
+      <c r="R92" t="s">
+        <v>320</v>
+      </c>
+      <c r="S92" t="s">
+        <v>335</v>
+      </c>
+      <c r="T92" t="s">
+        <v>321</v>
+      </c>
+      <c r="U92" t="s">
+        <v>321</v>
+      </c>
+      <c r="V92" t="s">
+        <v>321</v>
+      </c>
+      <c r="W92" t="s">
+        <v>321</v>
+      </c>
+      <c r="X92" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20230137322</v>
       </c>
@@ -6053,17 +9731,56 @@
       <c r="N93">
         <v>-8.7899999999999991</v>
       </c>
-      <c r="O93">
-        <v>97.5</v>
+      <c r="O93" t="s">
+        <v>302</v>
       </c>
       <c r="P93" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q93">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>320</v>
+      </c>
+      <c r="R93" t="s">
+        <v>321</v>
+      </c>
+      <c r="S93" t="s">
+        <v>321</v>
+      </c>
+      <c r="T93" t="s">
+        <v>321</v>
+      </c>
+      <c r="U93" t="s">
+        <v>321</v>
+      </c>
+      <c r="V93" t="s">
+        <v>321</v>
+      </c>
+      <c r="W93" t="s">
+        <v>321</v>
+      </c>
+      <c r="X93" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20240015478</v>
       </c>
@@ -6106,17 +9823,56 @@
       <c r="N94">
         <v>-5.43</v>
       </c>
-      <c r="O94">
-        <v>97</v>
+      <c r="O94" t="s">
+        <v>316</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q94">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>321</v>
+      </c>
+      <c r="R94" t="s">
+        <v>321</v>
+      </c>
+      <c r="S94" t="s">
+        <v>321</v>
+      </c>
+      <c r="T94" t="s">
+        <v>321</v>
+      </c>
+      <c r="U94" t="s">
+        <v>321</v>
+      </c>
+      <c r="V94" t="s">
+        <v>321</v>
+      </c>
+      <c r="W94" t="s">
+        <v>321</v>
+      </c>
+      <c r="X94" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20240068424</v>
       </c>
@@ -6159,17 +9915,56 @@
       <c r="N95">
         <v>-1.48</v>
       </c>
-      <c r="O95">
-        <v>101</v>
+      <c r="O95" t="s">
+        <v>317</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q95">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>320</v>
+      </c>
+      <c r="R95" t="s">
+        <v>320</v>
+      </c>
+      <c r="S95" t="s">
+        <v>321</v>
+      </c>
+      <c r="T95" t="s">
+        <v>320</v>
+      </c>
+      <c r="U95" t="s">
+        <v>320</v>
+      </c>
+      <c r="V95" t="s">
+        <v>336</v>
+      </c>
+      <c r="W95" t="s">
+        <v>321</v>
+      </c>
+      <c r="X95" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20240071058</v>
       </c>
@@ -6212,17 +10007,56 @@
       <c r="N96">
         <v>-0.16</v>
       </c>
-      <c r="O96">
-        <v>98.1</v>
+      <c r="O96" t="s">
+        <v>318</v>
       </c>
       <c r="P96" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q96">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>320</v>
+      </c>
+      <c r="R96" t="s">
+        <v>321</v>
+      </c>
+      <c r="S96" t="s">
+        <v>321</v>
+      </c>
+      <c r="T96" t="s">
+        <v>320</v>
+      </c>
+      <c r="U96" t="s">
+        <v>320</v>
+      </c>
+      <c r="V96" t="s">
+        <v>336</v>
+      </c>
+      <c r="W96" t="s">
+        <v>321</v>
+      </c>
+      <c r="X96" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20240074728</v>
       </c>
@@ -6265,17 +10099,56 @@
       <c r="N97">
         <v>-3.43</v>
       </c>
-      <c r="O97">
-        <v>97.5</v>
+      <c r="O97" t="s">
+        <v>302</v>
       </c>
       <c r="P97" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q97">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>321</v>
+      </c>
+      <c r="R97" t="s">
+        <v>321</v>
+      </c>
+      <c r="S97" t="s">
+        <v>320</v>
+      </c>
+      <c r="T97" t="s">
+        <v>321</v>
+      </c>
+      <c r="U97" t="s">
+        <v>321</v>
+      </c>
+      <c r="V97" t="s">
+        <v>321</v>
+      </c>
+      <c r="W97" t="s">
+        <v>321</v>
+      </c>
+      <c r="X97" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20240074281</v>
       </c>
@@ -6318,17 +10191,56 @@
       <c r="N98">
         <v>-7.48</v>
       </c>
-      <c r="O98">
-        <v>98</v>
+      <c r="O98" t="s">
+        <v>302</v>
       </c>
       <c r="P98" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q98">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>320</v>
+      </c>
+      <c r="R98" t="s">
+        <v>321</v>
+      </c>
+      <c r="S98" t="s">
+        <v>320</v>
+      </c>
+      <c r="T98" t="s">
+        <v>321</v>
+      </c>
+      <c r="U98" t="s">
+        <v>321</v>
+      </c>
+      <c r="V98" t="s">
+        <v>321</v>
+      </c>
+      <c r="W98" t="s">
+        <v>321</v>
+      </c>
+      <c r="X98" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20240076716</v>
       </c>
@@ -6371,17 +10283,56 @@
       <c r="N99">
         <v>-7.15</v>
       </c>
-      <c r="O99">
-        <v>98.5</v>
+      <c r="O99" t="s">
+        <v>302</v>
       </c>
       <c r="P99" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q99">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>320</v>
+      </c>
+      <c r="R99" t="s">
+        <v>321</v>
+      </c>
+      <c r="S99" t="s">
+        <v>320</v>
+      </c>
+      <c r="T99" t="s">
+        <v>321</v>
+      </c>
+      <c r="U99" t="s">
+        <v>321</v>
+      </c>
+      <c r="V99" t="s">
+        <v>321</v>
+      </c>
+      <c r="W99" t="s">
+        <v>321</v>
+      </c>
+      <c r="X99" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20240078762</v>
       </c>
@@ -6424,17 +10375,56 @@
       <c r="N100">
         <v>-5.65</v>
       </c>
-      <c r="O100">
-        <v>98</v>
+      <c r="O100" t="s">
+        <v>302</v>
       </c>
       <c r="P100" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>320</v>
+      </c>
+      <c r="R100" t="s">
+        <v>321</v>
+      </c>
+      <c r="S100" t="s">
+        <v>320</v>
+      </c>
+      <c r="T100" t="s">
+        <v>321</v>
+      </c>
+      <c r="U100" t="s">
+        <v>321</v>
+      </c>
+      <c r="V100" t="s">
+        <v>321</v>
+      </c>
+      <c r="W100" t="s">
+        <v>321</v>
+      </c>
+      <c r="X100" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20240078772</v>
       </c>
@@ -6477,17 +10467,56 @@
       <c r="N101">
         <v>-6</v>
       </c>
-      <c r="O101">
-        <v>98</v>
+      <c r="O101" t="s">
+        <v>302</v>
       </c>
       <c r="P101" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>320</v>
+      </c>
+      <c r="R101" t="s">
+        <v>321</v>
+      </c>
+      <c r="S101" t="s">
+        <v>320</v>
+      </c>
+      <c r="T101" t="s">
+        <v>321</v>
+      </c>
+      <c r="U101" t="s">
+        <v>321</v>
+      </c>
+      <c r="V101" t="s">
+        <v>321</v>
+      </c>
+      <c r="W101" t="s">
+        <v>321</v>
+      </c>
+      <c r="X101" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20240062956</v>
       </c>
@@ -6530,17 +10559,56 @@
       <c r="N102">
         <v>-12.54</v>
       </c>
-      <c r="O102">
-        <v>97.5</v>
+      <c r="O102" t="s">
+        <v>302</v>
       </c>
       <c r="P102" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q102">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>321</v>
+      </c>
+      <c r="R102" t="s">
+        <v>321</v>
+      </c>
+      <c r="S102" t="s">
+        <v>320</v>
+      </c>
+      <c r="T102" t="s">
+        <v>321</v>
+      </c>
+      <c r="U102" t="s">
+        <v>321</v>
+      </c>
+      <c r="V102" t="s">
+        <v>321</v>
+      </c>
+      <c r="W102" t="s">
+        <v>321</v>
+      </c>
+      <c r="X102" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20240088127</v>
       </c>
@@ -6580,17 +10648,56 @@
       <c r="M103">
         <v>0</v>
       </c>
-      <c r="O103">
-        <v>98</v>
+      <c r="O103" t="s">
+        <v>302</v>
       </c>
       <c r="P103" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q103">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>321</v>
+      </c>
+      <c r="R103" t="s">
+        <v>321</v>
+      </c>
+      <c r="S103" t="s">
+        <v>320</v>
+      </c>
+      <c r="T103" t="s">
+        <v>321</v>
+      </c>
+      <c r="U103" t="s">
+        <v>322</v>
+      </c>
+      <c r="V103" t="s">
+        <v>322</v>
+      </c>
+      <c r="W103" t="s">
+        <v>321</v>
+      </c>
+      <c r="X103" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20240076818</v>
       </c>
@@ -6633,17 +10740,56 @@
       <c r="N104">
         <v>-3.57</v>
       </c>
-      <c r="O104">
-        <v>98</v>
+      <c r="O104" t="s">
+        <v>302</v>
       </c>
       <c r="P104" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q104">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>320</v>
+      </c>
+      <c r="R104" t="s">
+        <v>321</v>
+      </c>
+      <c r="S104" t="s">
+        <v>321</v>
+      </c>
+      <c r="T104" t="s">
+        <v>321</v>
+      </c>
+      <c r="U104" t="s">
+        <v>322</v>
+      </c>
+      <c r="V104" t="s">
+        <v>321</v>
+      </c>
+      <c r="W104" t="s">
+        <v>321</v>
+      </c>
+      <c r="X104" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20240070348</v>
       </c>
@@ -6686,17 +10832,17 @@
       <c r="N105">
         <v>7</v>
       </c>
-      <c r="O105">
-        <v>97.8</v>
+      <c r="O105" t="s">
+        <v>302</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q105">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20240028527</v>
       </c>
@@ -6740,7 +10886,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20230003855</v>
       </c>
@@ -6778,7 +10924,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20240092861</v>
       </c>
@@ -6810,7 +10956,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20240087671</v>
       </c>
@@ -6854,7 +11000,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20230121277</v>
       </c>
@@ -6898,7 +11044,7 @@
         <v>-6.39</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20240094465</v>
       </c>
@@ -6941,17 +11087,17 @@
       <c r="N111">
         <v>-10.7</v>
       </c>
-      <c r="O111">
-        <v>98.2</v>
+      <c r="O111" t="s">
+        <v>302</v>
       </c>
       <c r="P111" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q111">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20230156801</v>
       </c>
@@ -7789,12 +11935,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A121:A124">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A132">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121:A124">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E18E9F-DB8A-436A-A825-0C7EC437B8ED}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E489532-3FDD-4430-9727-ED66E2BCE9D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="336">
   <si>
     <t>UHID</t>
   </si>
@@ -653,31 +653,10 @@
     <t>Roshan Jaha</t>
   </si>
   <si>
-    <t>Parmila</t>
-  </si>
-  <si>
-    <t>Laxmi devi</t>
-  </si>
-  <si>
-    <t>Priyanka Uniyal</t>
-  </si>
-  <si>
     <t>Farahana</t>
   </si>
   <si>
-    <t>Durga negi</t>
-  </si>
-  <si>
     <t>Ritu Thakur</t>
-  </si>
-  <si>
-    <t>Jagpreet Kaur</t>
-  </si>
-  <si>
-    <t>Meenakshi</t>
-  </si>
-  <si>
-    <t>Enterococcus faecium</t>
   </si>
   <si>
     <t>BP</t>
@@ -1457,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
-  <dimension ref="A1:AD132"/>
+  <dimension ref="A1:AD126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="U107" sqref="U107"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="R126" sqref="R126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,52 +1493,52 @@
         <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>333</v>
+      </c>
+      <c r="R1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" t="s">
         <v>319</v>
       </c>
-      <c r="Q1" t="s">
-        <v>340</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>320</v>
+      </c>
+      <c r="U1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>321</v>
+      </c>
+      <c r="X1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC1" t="s">
         <v>325</v>
       </c>
-      <c r="S1" t="s">
-        <v>326</v>
-      </c>
-      <c r="T1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U1" t="s">
-        <v>341</v>
-      </c>
-      <c r="V1" t="s">
-        <v>339</v>
-      </c>
-      <c r="W1" t="s">
-        <v>328</v>
-      </c>
-      <c r="X1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>332</v>
-      </c>
       <c r="AD1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1597,52 +1576,52 @@
         <v>-8.10731</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1680,34 +1659,34 @@
         <v>-13.6409</v>
       </c>
       <c r="O3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="S3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="T3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="U3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="V3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="W3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="X3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1716,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -1769,34 +1748,34 @@
         <v>-5.4212100000000003</v>
       </c>
       <c r="O4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1805,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1858,34 +1837,34 @@
         <v>-9.3165700000000005</v>
       </c>
       <c r="O5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1894,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1941,34 +1920,34 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1977,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2030,34 +2009,34 @@
         <v>-10.7879</v>
       </c>
       <c r="O7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2066,16 +2045,16 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2119,52 +2098,52 @@
         <v>-13.599600000000001</v>
       </c>
       <c r="O8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2202,34 +2181,34 @@
         <v>-4.6000899999999998</v>
       </c>
       <c r="O9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2238,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2291,52 +2270,52 @@
         <v>-12.506399999999999</v>
       </c>
       <c r="O10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y10" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2380,52 +2359,52 @@
         <v>-12.39</v>
       </c>
       <c r="O11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA11" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2469,34 +2448,34 @@
         <v>-4.71</v>
       </c>
       <c r="O12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2505,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2558,34 +2537,34 @@
         <v>-4.53</v>
       </c>
       <c r="O13" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q13" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2594,16 +2573,16 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2647,34 +2626,34 @@
         <v>-2.13</v>
       </c>
       <c r="O14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2683,16 +2662,16 @@
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -2736,34 +2715,34 @@
         <v>-6.52</v>
       </c>
       <c r="O15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2772,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2825,34 +2804,34 @@
         <v>-1.37</v>
       </c>
       <c r="O16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2861,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -2914,34 +2893,34 @@
         <v>-3.87</v>
       </c>
       <c r="O17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2950,16 +2929,16 @@
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -3003,34 +2982,34 @@
         <v>-13.48</v>
       </c>
       <c r="O18" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q18" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -3039,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3092,34 +3071,34 @@
         <v>-5.23</v>
       </c>
       <c r="O19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3128,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3181,34 +3160,34 @@
         <v>-6.28</v>
       </c>
       <c r="O20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3217,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3270,34 +3249,34 @@
         <v>-5.88</v>
       </c>
       <c r="O21" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q21" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3306,16 +3285,16 @@
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD21" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3356,34 +3335,34 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3392,16 +3371,16 @@
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -3445,34 +3424,34 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q23" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3481,16 +3460,16 @@
         <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD23" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -3534,34 +3513,34 @@
         <v>-5.66</v>
       </c>
       <c r="O24" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3570,16 +3549,16 @@
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -3623,34 +3602,34 @@
         <v>-8.4700000000000006</v>
       </c>
       <c r="O25" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q25" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -3659,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -3709,34 +3688,34 @@
         <v>-8.94</v>
       </c>
       <c r="O26" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q26" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3745,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC26" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -3798,34 +3777,34 @@
         <v>-8.26</v>
       </c>
       <c r="O27" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q27" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="R27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3834,16 +3813,16 @@
         <v>0</v>
       </c>
       <c r="AA27" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -3887,52 +3866,52 @@
         <v>-5.57</v>
       </c>
       <c r="O28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y28" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z28" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA28" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AB28" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD28" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -3976,34 +3955,34 @@
         <v>-6.45</v>
       </c>
       <c r="O29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -4012,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD29" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -4065,34 +4044,34 @@
         <v>-4.4029999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q30" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -4101,16 +4080,16 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD30" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -4154,34 +4133,34 @@
         <v>-4.84</v>
       </c>
       <c r="O31" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q31" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -4190,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -4240,34 +4219,34 @@
         <v>-4.16</v>
       </c>
       <c r="O32" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -4276,16 +4255,16 @@
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC32" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
@@ -4329,34 +4308,34 @@
         <v>-2.5099999999999998</v>
       </c>
       <c r="O33" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -4365,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC33" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD33" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -4418,34 +4397,34 @@
         <v>-5.7089999999999996</v>
       </c>
       <c r="O34" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q34" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4454,16 +4433,16 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD34" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
@@ -4507,34 +4486,34 @@
         <v>-8.0020000000000007</v>
       </c>
       <c r="O35" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R35" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S35" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="T35" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4543,16 +4522,16 @@
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD35" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
@@ -4596,34 +4575,34 @@
         <v>-5.85</v>
       </c>
       <c r="O36" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4632,16 +4611,16 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD36" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
@@ -4682,34 +4661,34 @@
         <v>-4.0599999999999996</v>
       </c>
       <c r="O37" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q37" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4718,16 +4697,16 @@
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC37" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD37" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
@@ -4768,34 +4747,34 @@
         <v>-10.039999999999999</v>
       </c>
       <c r="O38" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -4804,16 +4783,16 @@
         <v>0</v>
       </c>
       <c r="AA38" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD38" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
@@ -4857,34 +4836,34 @@
         <v>-6.4</v>
       </c>
       <c r="O39" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P39" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q39" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R39" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4893,16 +4872,16 @@
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -4946,34 +4925,34 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -4982,16 +4961,16 @@
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD40" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
@@ -5035,34 +5014,34 @@
         <v>-4.7300000000000004</v>
       </c>
       <c r="O41" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -5071,16 +5050,16 @@
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD41" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
@@ -5124,34 +5103,34 @@
         <v>-7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -5160,16 +5139,16 @@
         <v>0</v>
       </c>
       <c r="AA42" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC42" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD42" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
@@ -5213,34 +5192,34 @@
         <v>-5.78</v>
       </c>
       <c r="O43" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q43" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -5249,16 +5228,16 @@
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD43" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
@@ -5302,34 +5281,34 @@
         <v>-6.53</v>
       </c>
       <c r="O44" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -5338,16 +5317,16 @@
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD44" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
@@ -5388,34 +5367,34 @@
         <v>-9.07</v>
       </c>
       <c r="O45" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q45" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -5424,16 +5403,16 @@
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD45" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
@@ -5474,34 +5453,34 @@
         <v>-5.86</v>
       </c>
       <c r="O46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -5510,16 +5489,16 @@
         <v>0</v>
       </c>
       <c r="AA46" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD46" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
@@ -5563,34 +5542,34 @@
         <v>-9.1999999999999993</v>
       </c>
       <c r="O47" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -5599,16 +5578,16 @@
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD47" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
@@ -5649,34 +5628,34 @@
         <v>-9.61</v>
       </c>
       <c r="O48" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q48" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -5685,16 +5664,16 @@
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD48" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -5735,34 +5714,34 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -5771,16 +5750,16 @@
         <v>0</v>
       </c>
       <c r="AA49" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD49" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
@@ -5824,34 +5803,34 @@
         <v>-4.67</v>
       </c>
       <c r="O50" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -5860,16 +5839,16 @@
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC50" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD50" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
@@ -5913,34 +5892,34 @@
         <v>-8.1</v>
       </c>
       <c r="O51" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q51" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -5949,16 +5928,16 @@
         <v>0</v>
       </c>
       <c r="AA51" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD51" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
@@ -6005,49 +5984,49 @@
         <v>-5.55</v>
       </c>
       <c r="O52" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V52" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y52" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z52" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA52" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AB52" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC52" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
@@ -6094,52 +6073,52 @@
         <v>-7.76</v>
       </c>
       <c r="O53" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y53" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z53" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA53" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB53" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD53" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
@@ -6186,34 +6165,34 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q54" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -6222,16 +6201,16 @@
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD54" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -6275,34 +6254,34 @@
         <v>-11.36</v>
       </c>
       <c r="O55" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q55" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -6311,16 +6290,16 @@
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC55" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD55" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
@@ -6367,34 +6346,34 @@
         <v>-8.58</v>
       </c>
       <c r="O56" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -6403,16 +6382,16 @@
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC56" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD56" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
@@ -6459,34 +6438,34 @@
         <v>-6.6</v>
       </c>
       <c r="O57" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q57" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -6495,16 +6474,16 @@
         <v>0</v>
       </c>
       <c r="AA57" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD57" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
@@ -6551,34 +6530,34 @@
         <v>-4.5199999999999996</v>
       </c>
       <c r="O58" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -6587,16 +6566,16 @@
         <v>0</v>
       </c>
       <c r="AA58" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC58" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD58" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
@@ -6643,34 +6622,34 @@
         <v>-4.37</v>
       </c>
       <c r="O59" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -6679,16 +6658,16 @@
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC59" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD59" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
@@ -6735,34 +6714,34 @@
         <v>-8.41</v>
       </c>
       <c r="O60" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S60" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -6771,16 +6750,16 @@
         <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD60" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
@@ -6818,52 +6797,52 @@
         <v>-3.66</v>
       </c>
       <c r="O61" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P61" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q61" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R61" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S61" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T61" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U61" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V61" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W61" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X61" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y61" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB61" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC61" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD61" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
@@ -6910,52 +6889,52 @@
         <v>-7.31</v>
       </c>
       <c r="O62" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y62" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z62">
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD62" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
@@ -7002,34 +6981,34 @@
         <v>-8.5399999999999991</v>
       </c>
       <c r="O63" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q63" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S63" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -7038,16 +7017,16 @@
         <v>0</v>
       </c>
       <c r="AA63" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC63" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD63" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
@@ -7091,52 +7070,52 @@
         <v>-7.4</v>
       </c>
       <c r="O64" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P64" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y64" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z64" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA64" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC64" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD64" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
@@ -7183,34 +7162,34 @@
         <v>-1.1100000000000001</v>
       </c>
       <c r="O65" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q65" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -7219,16 +7198,16 @@
         <v>0</v>
       </c>
       <c r="AA65" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC65" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD65" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
@@ -7275,34 +7254,34 @@
         <v>-6.89</v>
       </c>
       <c r="O66" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -7311,16 +7290,16 @@
         <v>0</v>
       </c>
       <c r="AA66" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD66" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
@@ -7367,52 +7346,52 @@
         <v>-9.4600000000000009</v>
       </c>
       <c r="O67" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V67" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y67" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z67" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA67" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC67" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD67" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
@@ -7453,52 +7432,52 @@
         <v>-9.81</v>
       </c>
       <c r="O68" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z68" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA68" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AB68" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC68" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AD68" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
@@ -7542,34 +7521,34 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="O69" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -7578,13 +7557,13 @@
         <v>0</v>
       </c>
       <c r="AA69" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC69" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
@@ -7631,34 +7610,34 @@
         <v>-3.47</v>
       </c>
       <c r="O70" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q70" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -7667,16 +7646,16 @@
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC70" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD70" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
@@ -7720,34 +7699,34 @@
         <v>-5.64</v>
       </c>
       <c r="O71" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q71" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -7756,16 +7735,16 @@
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC71" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD71" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
@@ -7812,34 +7791,34 @@
         <v>-4.0199999999999996</v>
       </c>
       <c r="O72" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q72" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -7848,16 +7827,16 @@
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC72" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD72" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
@@ -7904,34 +7883,34 @@
         <v>-6.06</v>
       </c>
       <c r="O73" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S73" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -7940,16 +7919,16 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC73" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD73" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
@@ -7984,34 +7963,34 @@
         <v>-10.24</v>
       </c>
       <c r="O74" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q74" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -8020,16 +7999,16 @@
         <v>0</v>
       </c>
       <c r="AA74" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC74" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD74" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
@@ -8076,34 +8055,34 @@
         <v>-1.4</v>
       </c>
       <c r="O75" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S75" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -8112,16 +8091,16 @@
         <v>0</v>
       </c>
       <c r="AA75" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC75" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD75" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
@@ -8168,34 +8147,34 @@
         <v>-7.86</v>
       </c>
       <c r="O76" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q76" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -8204,16 +8183,16 @@
         <v>0</v>
       </c>
       <c r="AA76" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC76" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD76" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
@@ -8260,34 +8239,34 @@
         <v>-8.1199999999999992</v>
       </c>
       <c r="O77" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q77" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S77" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -8296,16 +8275,16 @@
         <v>0</v>
       </c>
       <c r="AA77" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD77" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
@@ -8352,34 +8331,34 @@
         <v>-7.16</v>
       </c>
       <c r="O78" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q78" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R78" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -8388,16 +8367,16 @@
         <v>0</v>
       </c>
       <c r="AA78" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC78" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD78" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
@@ -8444,34 +8423,34 @@
         <v>-2.71</v>
       </c>
       <c r="O79" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q79" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -8480,16 +8459,16 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC79" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD79" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
@@ -8536,34 +8515,34 @@
         <v>-4</v>
       </c>
       <c r="O80" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q80" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -8572,16 +8551,16 @@
         <v>0</v>
       </c>
       <c r="AA80" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC80" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD80" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
@@ -8628,34 +8607,34 @@
         <v>-2.88</v>
       </c>
       <c r="O81" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P81" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q81" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -8664,16 +8643,16 @@
         <v>0</v>
       </c>
       <c r="AA81" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC81" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD81" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
@@ -8720,34 +8699,34 @@
         <v>-2.9</v>
       </c>
       <c r="O82" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q82" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R82" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -8756,16 +8735,16 @@
         <v>0</v>
       </c>
       <c r="AA82" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC82" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD82" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
@@ -8812,34 +8791,34 @@
         <v>-7.55</v>
       </c>
       <c r="O83" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P83" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q83" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -8848,16 +8827,16 @@
         <v>0</v>
       </c>
       <c r="AA83" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC83" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD83" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
@@ -8904,52 +8883,52 @@
         <v>-4.7300000000000004</v>
       </c>
       <c r="O84" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P84" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q84" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R84" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S84" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T84" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V84" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W84" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X84" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y84" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z84" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA84" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AB84" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC84" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD84" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
@@ -8996,52 +8975,52 @@
         <v>-4.16</v>
       </c>
       <c r="O85" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T85" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U85" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V85" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y85" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z85" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA85" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AB85" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD85" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
@@ -9088,52 +9067,52 @@
         <v>-5.73</v>
       </c>
       <c r="O86" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P86" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q86" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R86" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S86" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V86" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="X86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Y86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA86" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AB86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC86" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD86" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
@@ -9180,52 +9159,52 @@
         <v>-2.39</v>
       </c>
       <c r="O87" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P87" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q87" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R87" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S87" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T87" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U87" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V87" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W87" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X87" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y87" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z87" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA87" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AB87" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC87" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AD87" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
@@ -9272,52 +9251,52 @@
         <v>-3.57</v>
       </c>
       <c r="O88" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U88" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X88" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y88" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z88" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA88" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AB88" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC88" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AD88" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
@@ -9364,52 +9343,52 @@
         <v>-2.95</v>
       </c>
       <c r="O89" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U89" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V89" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y89" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z89" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA89" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AB89" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC89" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD89" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
@@ -9456,34 +9435,34 @@
         <v>-4.7</v>
       </c>
       <c r="O90" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -9492,16 +9471,16 @@
         <v>0</v>
       </c>
       <c r="AA90" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC90" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD90" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
@@ -9548,34 +9527,34 @@
         <v>-5.62</v>
       </c>
       <c r="O91" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S91" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T91" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U91" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y91">
         <v>0</v>
@@ -9584,16 +9563,16 @@
         <v>0</v>
       </c>
       <c r="AA91" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC91" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD91" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
@@ -9640,52 +9619,52 @@
         <v>-3.52</v>
       </c>
       <c r="O92" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P92" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q92" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R92" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S92" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="T92" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U92" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V92" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W92" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X92" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y92" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z92">
         <v>0</v>
       </c>
       <c r="AA92" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB92" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC92" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD92" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
@@ -9732,34 +9711,34 @@
         <v>-8.7899999999999991</v>
       </c>
       <c r="O93" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q93" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -9768,16 +9747,16 @@
         <v>0</v>
       </c>
       <c r="AA93" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD93" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
@@ -9824,52 +9803,52 @@
         <v>-5.43</v>
       </c>
       <c r="O94" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y94" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z94">
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD94" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
@@ -9916,52 +9895,52 @@
         <v>-1.48</v>
       </c>
       <c r="O95" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="S95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V95" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z95">
         <v>0</v>
       </c>
       <c r="AA95" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD95" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
@@ -10008,52 +9987,52 @@
         <v>-0.16</v>
       </c>
       <c r="O96" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P96" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q96" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R96" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S96" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T96" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="U96" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="V96" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W96" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X96" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y96" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z96" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AA96" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AB96" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AC96" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD96" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
@@ -10100,34 +10079,34 @@
         <v>-3.43</v>
       </c>
       <c r="O97" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P97" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S97" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y97">
         <v>0</v>
@@ -10136,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="AA97" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD97" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
@@ -10192,34 +10171,34 @@
         <v>-7.48</v>
       </c>
       <c r="O98" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q98" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S98" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -10228,16 +10207,16 @@
         <v>0</v>
       </c>
       <c r="AA98" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD98" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
@@ -10284,34 +10263,34 @@
         <v>-7.15</v>
       </c>
       <c r="O99" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P99" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q99" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S99" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -10320,16 +10299,16 @@
         <v>0</v>
       </c>
       <c r="AA99" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD99" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
@@ -10376,34 +10355,34 @@
         <v>-5.65</v>
       </c>
       <c r="O100" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q100" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S100" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y100">
         <v>0</v>
@@ -10412,16 +10391,16 @@
         <v>0</v>
       </c>
       <c r="AA100" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC100" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD100" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
@@ -10468,34 +10447,34 @@
         <v>-6</v>
       </c>
       <c r="O101" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P101" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q101" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S101" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y101">
         <v>0</v>
@@ -10504,16 +10483,16 @@
         <v>0</v>
       </c>
       <c r="AA101" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC101" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD101" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
@@ -10560,34 +10539,34 @@
         <v>-12.54</v>
       </c>
       <c r="O102" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S102" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="V102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y102">
         <v>0</v>
@@ -10596,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="AA102" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC102" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD102" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
@@ -10649,34 +10628,34 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S103" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U103" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="V103" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="W103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -10685,16 +10664,16 @@
         <v>0</v>
       </c>
       <c r="AA103" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC103" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD103" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
@@ -10741,34 +10720,34 @@
         <v>-3.57</v>
       </c>
       <c r="O104" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P104" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q104" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="T104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U104" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="V104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="X104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Y104">
         <v>0</v>
@@ -10777,16 +10756,16 @@
         <v>0</v>
       </c>
       <c r="AA104" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AB104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC104" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AD104" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
@@ -10833,13 +10812,13 @@
         <v>7</v>
       </c>
       <c r="O105" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P105" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AD105" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
@@ -11088,13 +11067,13 @@
         <v>-10.7</v>
       </c>
       <c r="O111" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P111" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AD111" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
@@ -11668,13 +11647,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>20240118730</v>
+        <v>20200042694</v>
       </c>
       <c r="B125" t="s">
         <v>205</v>
       </c>
       <c r="C125">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D125" t="s">
         <v>48</v>
@@ -11683,42 +11662,42 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G125">
-        <v>-6.6</v>
+        <v>-4.32</v>
       </c>
       <c r="H125">
-        <v>-6.29</v>
+        <v>-4.55</v>
       </c>
       <c r="I125">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="J125">
-        <v>-5.0999999999999996</v>
+        <v>-5.18</v>
       </c>
       <c r="K125">
-        <v>-5.19</v>
+        <v>-4.66</v>
       </c>
       <c r="L125">
-        <v>-5.79</v>
+        <v>-4.84</v>
       </c>
       <c r="M125">
-        <v>-6.1</v>
+        <v>-3.56</v>
       </c>
       <c r="N125">
-        <v>-7.2</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>20240101716</v>
+        <v>20240125407</v>
       </c>
       <c r="B126" t="s">
         <v>206</v>
       </c>
       <c r="C126">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
         <v>48</v>
@@ -11727,219 +11706,39 @@
         <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G126">
-        <v>-7</v>
+        <v>-5.97</v>
       </c>
       <c r="H126">
-        <v>-6.7</v>
+        <v>-4.74</v>
       </c>
       <c r="I126">
-        <v>-7.59</v>
+        <v>-3.87</v>
       </c>
       <c r="J126">
-        <v>-6.2</v>
+        <v>-4.25</v>
       </c>
       <c r="K126">
-        <v>-6.9</v>
+        <v>-3.41</v>
       </c>
       <c r="L126">
-        <v>-2.7</v>
+        <v>-5.21</v>
       </c>
       <c r="M126">
-        <v>-4.7</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="N126">
-        <v>-7.09</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>20240043267</v>
-      </c>
-      <c r="B127" t="s">
-        <v>207</v>
-      </c>
-      <c r="C127">
-        <v>32</v>
-      </c>
-      <c r="D127" t="s">
-        <v>48</v>
-      </c>
-      <c r="F127" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>20200042694</v>
-      </c>
-      <c r="B128" t="s">
-        <v>208</v>
-      </c>
-      <c r="C128">
-        <v>28</v>
-      </c>
-      <c r="D128" t="s">
-        <v>48</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128">
-        <v>-4.32</v>
-      </c>
-      <c r="H128">
-        <v>-4.55</v>
-      </c>
-      <c r="I128">
-        <v>-4.8</v>
-      </c>
-      <c r="J128">
-        <v>-5.18</v>
-      </c>
-      <c r="K128">
-        <v>-4.66</v>
-      </c>
-      <c r="L128">
-        <v>-4.84</v>
-      </c>
-      <c r="M128">
-        <v>-3.56</v>
-      </c>
-      <c r="N128">
-        <v>-4.76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>20220028369</v>
-      </c>
-      <c r="B129" t="s">
-        <v>209</v>
-      </c>
-      <c r="C129">
-        <v>31</v>
-      </c>
-      <c r="D129" t="s">
-        <v>48</v>
-      </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" t="s">
-        <v>3</v>
-      </c>
-      <c r="G129">
-        <v>-7.05</v>
-      </c>
-      <c r="H129">
-        <v>-4.12</v>
-      </c>
-      <c r="I129">
-        <v>-3.21</v>
-      </c>
-      <c r="J129">
-        <v>-5.32</v>
-      </c>
-      <c r="K129">
-        <v>-4.22</v>
-      </c>
-      <c r="L129">
-        <v>-4.1900000000000004</v>
-      </c>
-      <c r="M129">
-        <v>-4.75</v>
-      </c>
-      <c r="N129">
-        <v>-6.08</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>20240125407</v>
-      </c>
-      <c r="B130" t="s">
-        <v>210</v>
-      </c>
-      <c r="C130">
-        <v>29</v>
-      </c>
-      <c r="D130" t="s">
-        <v>48</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130">
-        <v>-5.97</v>
-      </c>
-      <c r="H130">
-        <v>-4.74</v>
-      </c>
-      <c r="I130">
-        <v>-3.87</v>
-      </c>
-      <c r="J130">
-        <v>-4.25</v>
-      </c>
-      <c r="K130">
-        <v>-3.41</v>
-      </c>
-      <c r="L130">
-        <v>-5.21</v>
-      </c>
-      <c r="M130">
-        <v>-4.1100000000000003</v>
-      </c>
-      <c r="N130">
         <v>-4.03</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>20230046627</v>
-      </c>
-      <c r="B131" t="s">
-        <v>211</v>
-      </c>
-      <c r="C131">
-        <v>22</v>
-      </c>
-      <c r="D131" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>20220046569</v>
-      </c>
-      <c r="B132" t="s">
-        <v>212</v>
-      </c>
-      <c r="C132">
-        <v>33</v>
-      </c>
-      <c r="D132" t="s">
-        <v>48</v>
-      </c>
-      <c r="F132" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A131:A132 A129 A2:A127">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A132">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E489532-3FDD-4430-9727-ED66E2BCE9D3}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B920EDAD-4DB6-4D90-A895-0882E30C349C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="343">
   <si>
     <t>UHID</t>
   </si>
@@ -1044,6 +1044,27 @@
   </si>
   <si>
     <t>HospitalStay</t>
+  </si>
+  <si>
+    <t>Parmila</t>
+  </si>
+  <si>
+    <t>Laxmi devi</t>
+  </si>
+  <si>
+    <t>Priyanka Uniyal</t>
+  </si>
+  <si>
+    <t>Enterococcus faecium</t>
+  </si>
+  <si>
+    <t>Durga negi</t>
+  </si>
+  <si>
+    <t>Jagpreet Kaur</t>
+  </si>
+  <si>
+    <t>Meenakshi</t>
   </si>
 </sst>
 </file>
@@ -1436,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
-  <dimension ref="A1:AD126"/>
+  <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="R126" sqref="R126"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="Q128" sqref="Q128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11120,7 +11141,7 @@
         <v>-7.47</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20240053790</v>
       </c>
@@ -11164,7 +11185,7 @@
         <v>-1.47</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20240039512</v>
       </c>
@@ -11208,7 +11229,7 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20240107218</v>
       </c>
@@ -11252,7 +11273,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20240099770</v>
       </c>
@@ -11296,7 +11317,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20240112650</v>
       </c>
@@ -11339,8 +11360,11 @@
       <c r="N117">
         <v>-4.2699999999999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20170059075</v>
       </c>
@@ -11383,8 +11407,11 @@
       <c r="N118">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20210062776</v>
       </c>
@@ -11427,8 +11454,11 @@
       <c r="N119">
         <v>-9.6999999999999993</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20240043449</v>
       </c>
@@ -11468,8 +11498,11 @@
       <c r="N120">
         <v>-9.1999999999999993</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20240076642</v>
       </c>
@@ -11512,8 +11545,11 @@
       <c r="N121">
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20240094375</v>
       </c>
@@ -11556,8 +11592,11 @@
       <c r="N122">
         <v>-1.88</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20240092862</v>
       </c>
@@ -11600,8 +11639,11 @@
       <c r="N123">
         <v>-3.34</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20240070180</v>
       </c>
@@ -11644,16 +11686,19 @@
       <c r="N124">
         <v>-1.88</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>20200042694</v>
+        <v>20240118730</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>336</v>
       </c>
       <c r="C125">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D125" t="s">
         <v>48</v>
@@ -11662,42 +11707,45 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G125">
-        <v>-4.32</v>
+        <v>-6.6</v>
       </c>
       <c r="H125">
-        <v>-4.55</v>
+        <v>-6.29</v>
       </c>
       <c r="I125">
-        <v>-4.8</v>
+        <v>-4</v>
       </c>
       <c r="J125">
-        <v>-5.18</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="K125">
-        <v>-4.66</v>
+        <v>-5.19</v>
       </c>
       <c r="L125">
-        <v>-4.84</v>
+        <v>-5.79</v>
       </c>
       <c r="M125">
-        <v>-3.56</v>
+        <v>-6.1</v>
       </c>
       <c r="N125">
-        <v>-4.76</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-7.2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>20240125407</v>
+        <v>20240101716</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>337</v>
       </c>
       <c r="C126">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D126" t="s">
         <v>48</v>
@@ -11706,39 +11754,240 @@
         <v>8</v>
       </c>
       <c r="F126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>-7</v>
+      </c>
+      <c r="H126">
+        <v>-6.7</v>
+      </c>
+      <c r="I126">
+        <v>-7.59</v>
+      </c>
+      <c r="J126">
+        <v>-6.2</v>
+      </c>
+      <c r="K126">
+        <v>-6.9</v>
+      </c>
+      <c r="L126">
+        <v>-2.7</v>
+      </c>
+      <c r="M126">
+        <v>-4.7</v>
+      </c>
+      <c r="N126">
+        <v>-7.09</v>
+      </c>
+      <c r="O126" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>20240043267</v>
+      </c>
+      <c r="B127" t="s">
+        <v>338</v>
+      </c>
+      <c r="C127">
+        <v>32</v>
+      </c>
+      <c r="D127" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" t="s">
+        <v>339</v>
+      </c>
+      <c r="O127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>20200042694</v>
+      </c>
+      <c r="B128" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" t="s">
         <v>8</v>
       </c>
-      <c r="G126">
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128">
+        <v>-4.32</v>
+      </c>
+      <c r="H128">
+        <v>-4.55</v>
+      </c>
+      <c r="I128">
+        <v>-4.8</v>
+      </c>
+      <c r="J128">
+        <v>-5.18</v>
+      </c>
+      <c r="K128">
+        <v>-4.66</v>
+      </c>
+      <c r="L128">
+        <v>-4.84</v>
+      </c>
+      <c r="M128">
+        <v>-3.56</v>
+      </c>
+      <c r="N128">
+        <v>-4.76</v>
+      </c>
+      <c r="O128" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>20220028369</v>
+      </c>
+      <c r="B129" t="s">
+        <v>340</v>
+      </c>
+      <c r="C129">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>-7.05</v>
+      </c>
+      <c r="H129">
+        <v>-4.12</v>
+      </c>
+      <c r="I129">
+        <v>-3.21</v>
+      </c>
+      <c r="J129">
+        <v>-5.32</v>
+      </c>
+      <c r="K129">
+        <v>-4.22</v>
+      </c>
+      <c r="L129">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="M129">
+        <v>-4.75</v>
+      </c>
+      <c r="N129">
+        <v>-6.08</v>
+      </c>
+      <c r="O129" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>20240125407</v>
+      </c>
+      <c r="B130" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130">
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130">
         <v>-5.97</v>
       </c>
-      <c r="H126">
+      <c r="H130">
         <v>-4.74</v>
       </c>
-      <c r="I126">
+      <c r="I130">
         <v>-3.87</v>
       </c>
-      <c r="J126">
+      <c r="J130">
         <v>-4.25</v>
       </c>
-      <c r="K126">
+      <c r="K130">
         <v>-3.41</v>
       </c>
-      <c r="L126">
+      <c r="L130">
         <v>-5.21</v>
       </c>
-      <c r="M126">
+      <c r="M130">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="N126">
+      <c r="N130">
         <v>-4.03</v>
       </c>
+      <c r="O130" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>20230046627</v>
+      </c>
+      <c r="B131" t="s">
+        <v>341</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>48</v>
+      </c>
+      <c r="O131" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>20220046569</v>
+      </c>
+      <c r="B132" t="s">
+        <v>342</v>
+      </c>
+      <c r="C132">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>48</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>316</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A121:A124">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A131:A132 A129 A2:A127">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121:A124">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B920EDAD-4DB6-4D90-A895-0882E30C349C}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E805ECCC-D25D-4E52-9083-A4BFA9BE90DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Patient" sheetId="1" r:id="rId1"/>
+    <sheet name="Control" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="343">
   <si>
     <t>UHID</t>
   </si>
@@ -653,12 +654,33 @@
     <t>Roshan Jaha</t>
   </si>
   <si>
+    <t>Parmila</t>
+  </si>
+  <si>
+    <t>Laxmi devi</t>
+  </si>
+  <si>
+    <t>Priyanka Uniyal</t>
+  </si>
+  <si>
     <t>Farahana</t>
   </si>
   <si>
+    <t>Durga negi</t>
+  </si>
+  <si>
     <t>Ritu Thakur</t>
   </si>
   <si>
+    <t>Jagpreet Kaur</t>
+  </si>
+  <si>
+    <t>Meenakshi</t>
+  </si>
+  <si>
+    <t>Enterococcus faecium</t>
+  </si>
+  <si>
     <t>BP</t>
   </si>
   <si>
@@ -1044,34 +1066,13 @@
   </si>
   <si>
     <t>HospitalStay</t>
-  </si>
-  <si>
-    <t>Parmila</t>
-  </si>
-  <si>
-    <t>Laxmi devi</t>
-  </si>
-  <si>
-    <t>Priyanka Uniyal</t>
-  </si>
-  <si>
-    <t>Enterococcus faecium</t>
-  </si>
-  <si>
-    <t>Durga negi</t>
-  </si>
-  <si>
-    <t>Jagpreet Kaur</t>
-  </si>
-  <si>
-    <t>Meenakshi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,7 +1107,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1138,6 +1159,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,18 +1484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="Q128" sqref="Q128"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1514,55 +1539,55 @@
         <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="P1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="R1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="S1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="T1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="U1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="V1" t="s">
+        <v>339</v>
+      </c>
+      <c r="W1" t="s">
+        <v>328</v>
+      </c>
+      <c r="X1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
         <v>332</v>
       </c>
-      <c r="W1" t="s">
-        <v>321</v>
-      </c>
-      <c r="X1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>325</v>
-      </c>
       <c r="AD1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>20220065432</v>
       </c>
@@ -1597,55 +1622,55 @@
         <v>-8.10731</v>
       </c>
       <c r="O2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>20240016182</v>
       </c>
@@ -1680,34 +1705,34 @@
         <v>-13.6409</v>
       </c>
       <c r="O3" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="S3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="T3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="U3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="V3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="W3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="X3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1716,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>20230125389</v>
       </c>
@@ -1769,34 +1794,34 @@
         <v>-5.4212100000000003</v>
       </c>
       <c r="O4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1805,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>20180022685</v>
       </c>
@@ -1858,34 +1883,34 @@
         <v>-9.3165700000000005</v>
       </c>
       <c r="O5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1894,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>20201415102</v>
       </c>
@@ -1941,34 +1966,34 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1977,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>20240012395</v>
       </c>
@@ -2030,34 +2055,34 @@
         <v>-10.7879</v>
       </c>
       <c r="O7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2066,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>20220166372</v>
       </c>
@@ -2119,55 +2144,55 @@
         <v>-13.599600000000001</v>
       </c>
       <c r="O8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>20240018475</v>
       </c>
@@ -2202,34 +2227,34 @@
         <v>-4.6000899999999998</v>
       </c>
       <c r="O9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="P9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q9" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2238,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>20230149608</v>
       </c>
@@ -2291,55 +2316,55 @@
         <v>-12.506399999999999</v>
       </c>
       <c r="O10" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y10" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>20240016829</v>
       </c>
@@ -2380,55 +2405,55 @@
         <v>-12.39</v>
       </c>
       <c r="O11" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="P11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y11" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z11" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA11" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB11" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>20230179067</v>
       </c>
@@ -2469,34 +2494,34 @@
         <v>-4.71</v>
       </c>
       <c r="O12" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2505,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>20180188108</v>
       </c>
@@ -2558,34 +2583,34 @@
         <v>-4.53</v>
       </c>
       <c r="O13" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q13" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2594,19 +2619,19 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>20230141608</v>
       </c>
@@ -2647,34 +2672,34 @@
         <v>-2.13</v>
       </c>
       <c r="O14" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P14" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2683,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC14" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>20240020494</v>
       </c>
@@ -2736,34 +2761,34 @@
         <v>-6.52</v>
       </c>
       <c r="O15" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P15" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2772,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC15" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>20240020519</v>
       </c>
@@ -2825,34 +2850,34 @@
         <v>-1.37</v>
       </c>
       <c r="O16" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q16" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2861,19 +2886,19 @@
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>20240015483</v>
       </c>
@@ -2914,34 +2939,34 @@
         <v>-3.87</v>
       </c>
       <c r="O17" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P17" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q17" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2950,19 +2975,19 @@
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>20240001249</v>
       </c>
@@ -3003,34 +3028,34 @@
         <v>-13.48</v>
       </c>
       <c r="O18" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q18" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -3039,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>20210094336</v>
       </c>
@@ -3092,34 +3117,34 @@
         <v>-5.23</v>
       </c>
       <c r="O19" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3128,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>20240006140</v>
       </c>
@@ -3181,34 +3206,34 @@
         <v>-6.28</v>
       </c>
       <c r="O20" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3217,19 +3242,19 @@
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>20240020436</v>
       </c>
@@ -3270,34 +3295,34 @@
         <v>-5.88</v>
       </c>
       <c r="O21" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q21" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3306,19 +3331,19 @@
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC21" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>20240022478</v>
       </c>
@@ -3356,34 +3381,34 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3392,19 +3417,19 @@
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>20240022523</v>
       </c>
@@ -3445,34 +3470,34 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q23" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3481,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>20220102808</v>
       </c>
@@ -3534,34 +3559,34 @@
         <v>-5.66</v>
       </c>
       <c r="O24" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3570,19 +3595,19 @@
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC24" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>20240022502</v>
       </c>
@@ -3623,34 +3648,34 @@
         <v>-8.4700000000000006</v>
       </c>
       <c r="O25" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q25" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -3659,19 +3684,19 @@
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>20240017188</v>
       </c>
@@ -3709,34 +3734,34 @@
         <v>-8.94</v>
       </c>
       <c r="O26" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q26" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3745,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC26" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>20220064259</v>
       </c>
@@ -3798,34 +3823,34 @@
         <v>-8.26</v>
       </c>
       <c r="O27" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q27" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="R27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3834,19 +3859,19 @@
         <v>0</v>
       </c>
       <c r="AA27" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC27" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>20240019044</v>
       </c>
@@ -3887,55 +3912,55 @@
         <v>-5.57</v>
       </c>
       <c r="O28" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y28" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z28" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA28" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AB28" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC28" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>20240024003</v>
       </c>
@@ -3976,34 +4001,34 @@
         <v>-6.45</v>
       </c>
       <c r="O29" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -4012,19 +4037,19 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC29" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>20240012256</v>
       </c>
@@ -4065,34 +4090,34 @@
         <v>-4.4029999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q30" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -4101,19 +4126,19 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>20210046443</v>
       </c>
@@ -4154,34 +4179,34 @@
         <v>-4.84</v>
       </c>
       <c r="O31" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q31" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -4190,19 +4215,19 @@
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC31" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>20240024207</v>
       </c>
@@ -4240,34 +4265,34 @@
         <v>-4.16</v>
       </c>
       <c r="O32" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -4276,19 +4301,19 @@
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC32" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>20220153472</v>
       </c>
@@ -4329,34 +4354,34 @@
         <v>-2.5099999999999998</v>
       </c>
       <c r="O33" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -4365,19 +4390,19 @@
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>20240024158</v>
       </c>
@@ -4418,34 +4443,34 @@
         <v>-5.7089999999999996</v>
       </c>
       <c r="O34" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q34" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4454,19 +4479,19 @@
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>20220088296</v>
       </c>
@@ -4507,34 +4532,34 @@
         <v>-8.0020000000000007</v>
       </c>
       <c r="O35" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R35" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S35" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="T35" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4543,19 +4568,19 @@
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>20220064546</v>
       </c>
@@ -4596,34 +4621,34 @@
         <v>-5.85</v>
       </c>
       <c r="O36" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4632,19 +4657,19 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC36" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37">
         <v>20240024631</v>
       </c>
@@ -4682,34 +4707,34 @@
         <v>-4.0599999999999996</v>
       </c>
       <c r="O37" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q37" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4718,19 +4743,19 @@
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC37" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38">
         <v>20240022566</v>
       </c>
@@ -4768,34 +4793,34 @@
         <v>-10.039999999999999</v>
       </c>
       <c r="O38" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q38" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -4804,19 +4829,19 @@
         <v>0</v>
       </c>
       <c r="AA38" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39">
         <v>20210126376</v>
       </c>
@@ -4857,34 +4882,34 @@
         <v>-6.4</v>
       </c>
       <c r="O39" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P39" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q39" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R39" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4893,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40">
         <v>20240012094</v>
       </c>
@@ -4946,34 +4971,34 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -4982,19 +5007,19 @@
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC40" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41">
         <v>20240027303</v>
       </c>
@@ -5035,34 +5060,34 @@
         <v>-4.7300000000000004</v>
       </c>
       <c r="O41" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -5071,19 +5096,19 @@
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC41" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD41" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42">
         <v>20240002618</v>
       </c>
@@ -5124,34 +5149,34 @@
         <v>-7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -5160,19 +5185,19 @@
         <v>0</v>
       </c>
       <c r="AA42" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43">
         <v>20240023202</v>
       </c>
@@ -5213,34 +5238,34 @@
         <v>-5.78</v>
       </c>
       <c r="O43" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q43" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -5249,19 +5274,19 @@
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD43" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44">
         <v>20240027383</v>
       </c>
@@ -5302,34 +5327,34 @@
         <v>-6.53</v>
       </c>
       <c r="O44" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -5338,19 +5363,19 @@
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45">
         <v>20210126581</v>
       </c>
@@ -5388,34 +5413,34 @@
         <v>-9.07</v>
       </c>
       <c r="O45" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q45" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -5424,19 +5449,19 @@
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC45" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46">
         <v>20240026634</v>
       </c>
@@ -5474,34 +5499,34 @@
         <v>-5.86</v>
       </c>
       <c r="O46" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -5510,19 +5535,19 @@
         <v>0</v>
       </c>
       <c r="AA46" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD46" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47">
         <v>20240015339</v>
       </c>
@@ -5563,34 +5588,34 @@
         <v>-9.1999999999999993</v>
       </c>
       <c r="O47" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -5599,19 +5624,19 @@
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD47" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48">
         <v>20240028955</v>
       </c>
@@ -5649,34 +5674,34 @@
         <v>-9.61</v>
       </c>
       <c r="O48" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q48" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -5685,19 +5710,19 @@
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC48" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD48" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>20240028466</v>
       </c>
@@ -5735,34 +5760,34 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -5771,19 +5796,19 @@
         <v>0</v>
       </c>
       <c r="AA49" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC49" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD49" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>20240029036</v>
       </c>
@@ -5824,34 +5849,34 @@
         <v>-4.67</v>
       </c>
       <c r="O50" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -5860,19 +5885,19 @@
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC50" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>20240028839</v>
       </c>
@@ -5913,34 +5938,34 @@
         <v>-8.1</v>
       </c>
       <c r="O51" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q51" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -5949,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA51" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC51" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>20240025209</v>
       </c>
@@ -6005,52 +6030,52 @@
         <v>-5.55</v>
       </c>
       <c r="O52" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V52" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X52" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y52" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z52" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA52" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AB52" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>20240028100</v>
       </c>
@@ -6094,55 +6119,55 @@
         <v>-7.76</v>
       </c>
       <c r="O53" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y53" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z53" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA53" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB53" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC53" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD53" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>20220083756</v>
       </c>
@@ -6186,34 +6211,34 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q54" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -6222,19 +6247,19 @@
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>20240030665</v>
       </c>
@@ -6275,34 +6300,34 @@
         <v>-11.36</v>
       </c>
       <c r="O55" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q55" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -6311,19 +6336,19 @@
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD55" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>20240030957</v>
       </c>
@@ -6367,34 +6392,34 @@
         <v>-8.58</v>
       </c>
       <c r="O56" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -6403,19 +6428,19 @@
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC56" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD56" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>20230158280</v>
       </c>
@@ -6459,34 +6484,34 @@
         <v>-6.6</v>
       </c>
       <c r="O57" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q57" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -6495,19 +6520,19 @@
         <v>0</v>
       </c>
       <c r="AA57" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>20240012274</v>
       </c>
@@ -6551,34 +6576,34 @@
         <v>-4.5199999999999996</v>
       </c>
       <c r="O58" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -6587,19 +6612,19 @@
         <v>0</v>
       </c>
       <c r="AA58" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC58" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>20240029225</v>
       </c>
@@ -6643,34 +6668,34 @@
         <v>-4.37</v>
       </c>
       <c r="O59" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -6679,19 +6704,19 @@
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC59" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>20240032359</v>
       </c>
@@ -6735,34 +6760,34 @@
         <v>-8.41</v>
       </c>
       <c r="O60" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S60" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -6771,19 +6796,19 @@
         <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC60" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD60" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>20240002772</v>
       </c>
@@ -6818,55 +6843,55 @@
         <v>-3.66</v>
       </c>
       <c r="O61" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P61" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q61" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R61" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S61" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T61" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U61" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V61" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W61" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X61" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y61" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB61" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC61" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD61" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>20240030597</v>
       </c>
@@ -6910,55 +6935,55 @@
         <v>-7.31</v>
       </c>
       <c r="O62" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y62" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z62">
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC62" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD62" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>20240030258</v>
       </c>
@@ -7002,34 +7027,34 @@
         <v>-8.5399999999999991</v>
       </c>
       <c r="O63" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q63" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S63" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -7038,19 +7063,19 @@
         <v>0</v>
       </c>
       <c r="AA63" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC63" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD63" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>20230083087</v>
       </c>
@@ -7091,55 +7116,55 @@
         <v>-7.4</v>
       </c>
       <c r="O64" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P64" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y64" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z64" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA64" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC64" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65">
         <v>20240039022</v>
       </c>
@@ -7183,34 +7208,34 @@
         <v>-1.1100000000000001</v>
       </c>
       <c r="O65" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q65" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -7219,19 +7244,19 @@
         <v>0</v>
       </c>
       <c r="AA65" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC65" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66">
         <v>20240037502</v>
       </c>
@@ -7275,34 +7300,34 @@
         <v>-6.89</v>
       </c>
       <c r="O66" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -7311,19 +7336,19 @@
         <v>0</v>
       </c>
       <c r="AA66" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD66" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67">
         <v>20240032128</v>
       </c>
@@ -7367,55 +7392,55 @@
         <v>-9.4600000000000009</v>
       </c>
       <c r="O67" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V67" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y67" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z67" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA67" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC67" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD67" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68">
         <v>20240035983</v>
       </c>
@@ -7453,55 +7478,55 @@
         <v>-9.81</v>
       </c>
       <c r="O68" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y68" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z68" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA68" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AB68" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC68" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AD68" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>20190007174</v>
       </c>
@@ -7542,34 +7567,34 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="O69" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -7578,16 +7603,16 @@
         <v>0</v>
       </c>
       <c r="AA69" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB69" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC69" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70">
         <v>20240051938</v>
       </c>
@@ -7631,34 +7656,34 @@
         <v>-3.47</v>
       </c>
       <c r="O70" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q70" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -7667,19 +7692,19 @@
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD70" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71">
         <v>20240057825</v>
       </c>
@@ -7720,34 +7745,34 @@
         <v>-5.64</v>
       </c>
       <c r="O71" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q71" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -7756,19 +7781,19 @@
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72">
         <v>20240034567</v>
       </c>
@@ -7812,34 +7837,34 @@
         <v>-4.0199999999999996</v>
       </c>
       <c r="O72" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q72" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -7848,19 +7873,19 @@
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC72" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73">
         <v>20240060316</v>
       </c>
@@ -7904,34 +7929,34 @@
         <v>-6.06</v>
       </c>
       <c r="O73" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S73" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -7940,19 +7965,19 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC73" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD73" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74">
         <v>20240048714</v>
       </c>
@@ -7984,34 +8009,34 @@
         <v>-10.24</v>
       </c>
       <c r="O74" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q74" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -8020,19 +8045,19 @@
         <v>0</v>
       </c>
       <c r="AA74" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD74" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75">
         <v>20230023891</v>
       </c>
@@ -8076,34 +8101,34 @@
         <v>-1.4</v>
       </c>
       <c r="O75" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S75" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -8112,19 +8137,19 @@
         <v>0</v>
       </c>
       <c r="AA75" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC75" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD75" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>20180142185</v>
       </c>
@@ -8168,34 +8193,34 @@
         <v>-7.86</v>
       </c>
       <c r="O76" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q76" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -8204,19 +8229,19 @@
         <v>0</v>
       </c>
       <c r="AA76" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77">
         <v>20240058395</v>
       </c>
@@ -8260,34 +8285,34 @@
         <v>-8.1199999999999992</v>
       </c>
       <c r="O77" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q77" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S77" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -8296,19 +8321,19 @@
         <v>0</v>
       </c>
       <c r="AA77" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC77" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD77" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78">
         <v>20200075595</v>
       </c>
@@ -8352,34 +8377,34 @@
         <v>-7.16</v>
       </c>
       <c r="O78" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q78" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R78" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -8388,19 +8413,19 @@
         <v>0</v>
       </c>
       <c r="AA78" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC78" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD78" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79">
         <v>20230040481</v>
       </c>
@@ -8444,34 +8469,34 @@
         <v>-2.71</v>
       </c>
       <c r="O79" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q79" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -8480,19 +8505,19 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD79" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80">
         <v>20240062455</v>
       </c>
@@ -8536,34 +8561,34 @@
         <v>-4</v>
       </c>
       <c r="O80" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q80" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -8572,19 +8597,19 @@
         <v>0</v>
       </c>
       <c r="AA80" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC80" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD80" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81">
         <v>20240062254</v>
       </c>
@@ -8628,34 +8653,34 @@
         <v>-2.88</v>
       </c>
       <c r="O81" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P81" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q81" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -8664,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="AA81" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC81" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD81" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82">
         <v>20240048215</v>
       </c>
@@ -8720,34 +8745,34 @@
         <v>-2.9</v>
       </c>
       <c r="O82" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q82" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R82" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -8756,19 +8781,19 @@
         <v>0</v>
       </c>
       <c r="AA82" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD82" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83">
         <v>20240060273</v>
       </c>
@@ -8812,34 +8837,34 @@
         <v>-7.55</v>
       </c>
       <c r="O83" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P83" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q83" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -8848,19 +8873,19 @@
         <v>0</v>
       </c>
       <c r="AA83" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD83" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84">
         <v>20240054804</v>
       </c>
@@ -8904,55 +8929,55 @@
         <v>-4.7300000000000004</v>
       </c>
       <c r="O84" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T84" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U84" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V84" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y84" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z84" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA84" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AB84" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD84" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85">
         <v>20240051976</v>
       </c>
@@ -8996,55 +9021,55 @@
         <v>-4.16</v>
       </c>
       <c r="O85" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T85" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U85" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V85" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y85" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z85" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA85" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AB85" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD85" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86">
         <v>20240068214</v>
       </c>
@@ -9088,55 +9113,55 @@
         <v>-5.73</v>
       </c>
       <c r="O86" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P86" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q86" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R86" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S86" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T86" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U86" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V86" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W86" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="X86" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Y86" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z86" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA86" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AB86" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC86" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD86" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87">
         <v>20240068215</v>
       </c>
@@ -9180,55 +9205,55 @@
         <v>-2.39</v>
       </c>
       <c r="O87" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P87" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q87" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R87" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S87" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T87" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V87" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W87" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X87" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA87" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AB87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AD87" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88">
         <v>20240066137</v>
       </c>
@@ -9272,55 +9297,55 @@
         <v>-3.57</v>
       </c>
       <c r="O88" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U88" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V88" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y88" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z88" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA88" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AB88" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC88" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AD88" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89">
         <v>20240069492</v>
       </c>
@@ -9364,55 +9389,55 @@
         <v>-2.95</v>
       </c>
       <c r="O89" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U89" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V89" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y89" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z89" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA89" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AB89" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC89" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD89" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90">
         <v>20240067159</v>
       </c>
@@ -9456,34 +9481,34 @@
         <v>-4.7</v>
       </c>
       <c r="O90" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -9492,19 +9517,19 @@
         <v>0</v>
       </c>
       <c r="AA90" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC90" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD90" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91">
         <v>20230028720</v>
       </c>
@@ -9548,34 +9573,34 @@
         <v>-5.62</v>
       </c>
       <c r="O91" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S91" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T91" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U91" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y91">
         <v>0</v>
@@ -9584,19 +9609,19 @@
         <v>0</v>
       </c>
       <c r="AA91" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC91" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92">
         <v>20240046542</v>
       </c>
@@ -9640,55 +9665,55 @@
         <v>-3.52</v>
       </c>
       <c r="O92" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P92" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q92" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R92" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S92" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="T92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y92" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z92">
         <v>0</v>
       </c>
       <c r="AA92" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC92" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD92" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93">
         <v>20230137322</v>
       </c>
@@ -9732,34 +9757,34 @@
         <v>-8.7899999999999991</v>
       </c>
       <c r="O93" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q93" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -9768,19 +9793,19 @@
         <v>0</v>
       </c>
       <c r="AA93" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD93" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94">
         <v>20240015478</v>
       </c>
@@ -9824,55 +9849,55 @@
         <v>-5.43</v>
       </c>
       <c r="O94" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y94" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z94">
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD94" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95">
         <v>20240068424</v>
       </c>
@@ -9916,55 +9941,55 @@
         <v>-1.48</v>
       </c>
       <c r="O95" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P95" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q95" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R95" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="S95" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T95" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U95" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V95" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W95" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X95" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y95" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z95">
         <v>0</v>
       </c>
       <c r="AA95" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB95" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC95" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD95" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96">
         <v>20240071058</v>
       </c>
@@ -10008,55 +10033,55 @@
         <v>-0.16</v>
       </c>
       <c r="O96" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q96" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R96" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S96" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T96" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U96" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="V96" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="W96" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X96" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y96" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Z96" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA96" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AB96" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AC96" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD96" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97">
         <v>20240074728</v>
       </c>
@@ -10100,34 +10125,34 @@
         <v>-3.43</v>
       </c>
       <c r="O97" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P97" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S97" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y97">
         <v>0</v>
@@ -10136,19 +10161,19 @@
         <v>0</v>
       </c>
       <c r="AA97" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC97" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD97" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98">
         <v>20240074281</v>
       </c>
@@ -10192,34 +10217,34 @@
         <v>-7.48</v>
       </c>
       <c r="O98" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q98" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S98" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -10228,19 +10253,19 @@
         <v>0</v>
       </c>
       <c r="AA98" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD98" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99">
         <v>20240076716</v>
       </c>
@@ -10284,34 +10309,34 @@
         <v>-7.15</v>
       </c>
       <c r="O99" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P99" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q99" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S99" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -10320,19 +10345,19 @@
         <v>0</v>
       </c>
       <c r="AA99" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC99" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD99" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100">
         <v>20240078762</v>
       </c>
@@ -10376,55 +10401,55 @@
         <v>-5.65</v>
       </c>
       <c r="O100" t="s">
+        <v>302</v>
+      </c>
+      <c r="P100" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>320</v>
+      </c>
+      <c r="R100" t="s">
+        <v>321</v>
+      </c>
+      <c r="S100" t="s">
+        <v>320</v>
+      </c>
+      <c r="T100" t="s">
+        <v>321</v>
+      </c>
+      <c r="U100" t="s">
+        <v>321</v>
+      </c>
+      <c r="V100" t="s">
+        <v>321</v>
+      </c>
+      <c r="W100" t="s">
+        <v>321</v>
+      </c>
+      <c r="X100" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD100" t="s">
         <v>295</v>
       </c>
-      <c r="P100" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>313</v>
-      </c>
-      <c r="R100" t="s">
-        <v>314</v>
-      </c>
-      <c r="S100" t="s">
-        <v>313</v>
-      </c>
-      <c r="T100" t="s">
-        <v>314</v>
-      </c>
-      <c r="U100" t="s">
-        <v>314</v>
-      </c>
-      <c r="V100" t="s">
-        <v>314</v>
-      </c>
-      <c r="W100" t="s">
-        <v>314</v>
-      </c>
-      <c r="X100" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101">
         <v>20240078772</v>
       </c>
@@ -10468,34 +10493,34 @@
         <v>-6</v>
       </c>
       <c r="O101" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q101" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S101" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y101">
         <v>0</v>
@@ -10504,19 +10529,19 @@
         <v>0</v>
       </c>
       <c r="AA101" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC101" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD101" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102">
         <v>20240062956</v>
       </c>
@@ -10560,34 +10585,34 @@
         <v>-12.54</v>
       </c>
       <c r="O102" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S102" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="V102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y102">
         <v>0</v>
@@ -10596,19 +10621,19 @@
         <v>0</v>
       </c>
       <c r="AA102" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC102" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD102" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103">
         <v>20240088127</v>
       </c>
@@ -10649,34 +10674,34 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S103" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U103" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="V103" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="W103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -10685,19 +10710,19 @@
         <v>0</v>
       </c>
       <c r="AA103" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD103" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104">
         <v>20240076818</v>
       </c>
@@ -10741,34 +10766,34 @@
         <v>-3.57</v>
       </c>
       <c r="O104" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P104" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q104" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="R104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="S104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="U104" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="V104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="W104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="X104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y104">
         <v>0</v>
@@ -10777,19 +10802,19 @@
         <v>0</v>
       </c>
       <c r="AA104" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AB104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AC104" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD104" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105">
         <v>20240070348</v>
       </c>
@@ -10833,16 +10858,16 @@
         <v>7</v>
       </c>
       <c r="O105" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AD105" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106">
         <v>20240028527</v>
       </c>
@@ -10886,7 +10911,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30">
       <c r="A107">
         <v>20230003855</v>
       </c>
@@ -10924,7 +10949,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30">
       <c r="A108">
         <v>20240092861</v>
       </c>
@@ -10956,7 +10981,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30">
       <c r="A109">
         <v>20240087671</v>
       </c>
@@ -11000,7 +11025,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30">
       <c r="A110">
         <v>20230121277</v>
       </c>
@@ -11044,7 +11069,7 @@
         <v>-6.39</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30">
       <c r="A111">
         <v>20240094465</v>
       </c>
@@ -11088,16 +11113,16 @@
         <v>-10.7</v>
       </c>
       <c r="O111" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P111" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AD111" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112">
         <v>20230156801</v>
       </c>
@@ -11141,7 +11166,7 @@
         <v>-7.47</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>20240053790</v>
       </c>
@@ -11185,7 +11210,7 @@
         <v>-1.47</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>20240039512</v>
       </c>
@@ -11229,7 +11254,7 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>20240107218</v>
       </c>
@@ -11273,7 +11298,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>20240099770</v>
       </c>
@@ -11317,7 +11342,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>20240112650</v>
       </c>
@@ -11360,11 +11385,8 @@
       <c r="N117">
         <v>-4.2699999999999996</v>
       </c>
-      <c r="O117" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>20170059075</v>
       </c>
@@ -11407,11 +11429,8 @@
       <c r="N118">
         <v>-0.03</v>
       </c>
-      <c r="O118" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>20210062776</v>
       </c>
@@ -11454,11 +11473,8 @@
       <c r="N119">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="O119" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>20240043449</v>
       </c>
@@ -11498,11 +11514,8 @@
       <c r="N120">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="O120" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>20240076642</v>
       </c>
@@ -11545,11 +11558,8 @@
       <c r="N121">
         <v>-4.5</v>
       </c>
-      <c r="O121" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>20240094375</v>
       </c>
@@ -11592,11 +11602,8 @@
       <c r="N122">
         <v>-1.88</v>
       </c>
-      <c r="O122" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>20240092862</v>
       </c>
@@ -11639,11 +11646,8 @@
       <c r="N123">
         <v>-3.34</v>
       </c>
-      <c r="O123" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>20240070180</v>
       </c>
@@ -11686,16 +11690,13 @@
       <c r="N124">
         <v>-1.88</v>
       </c>
-      <c r="O124" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>20240118730</v>
       </c>
       <c r="B125" t="s">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="C125">
         <v>42</v>
@@ -11733,16 +11734,13 @@
       <c r="N125">
         <v>-7.2</v>
       </c>
-      <c r="O125" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>20240101716</v>
       </c>
       <c r="B126" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="C126">
         <v>54</v>
@@ -11780,16 +11778,13 @@
       <c r="N126">
         <v>-7.09</v>
       </c>
-      <c r="O126" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>20240043267</v>
       </c>
       <c r="B127" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="C127">
         <v>32</v>
@@ -11798,18 +11793,15 @@
         <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>339</v>
-      </c>
-      <c r="O127" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128">
         <v>20200042694</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C128">
         <v>28</v>
@@ -11847,16 +11839,13 @@
       <c r="N128">
         <v>-4.76</v>
       </c>
-      <c r="O128" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129">
         <v>20220028369</v>
       </c>
       <c r="B129" t="s">
-        <v>340</v>
+        <v>209</v>
       </c>
       <c r="C129">
         <v>31</v>
@@ -11894,16 +11883,13 @@
       <c r="N129">
         <v>-6.08</v>
       </c>
-      <c r="O129" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130">
         <v>20240125407</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C130">
         <v>29</v>
@@ -11941,16 +11927,13 @@
       <c r="N130">
         <v>-4.03</v>
       </c>
-      <c r="O130" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131">
         <v>20230046627</v>
       </c>
       <c r="B131" t="s">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="C131">
         <v>22</v>
@@ -11958,16 +11941,13 @@
       <c r="D131" t="s">
         <v>48</v>
       </c>
-      <c r="O131" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132">
         <v>20220046569</v>
       </c>
       <c r="B132" t="s">
-        <v>342</v>
+        <v>212</v>
       </c>
       <c r="C132">
         <v>33</v>
@@ -11978,16 +11958,702 @@
       <c r="F132" t="s">
         <v>3</v>
       </c>
-      <c r="O132" t="s">
-        <v>316</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A132">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:A132 A129 A2:A127">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFC164F-02AC-4E51-81A5-233B6D6DE59E}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>20170059075</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>-5.41</v>
+      </c>
+      <c r="H2">
+        <v>-7.42</v>
+      </c>
+      <c r="I2">
+        <v>-7.85</v>
+      </c>
+      <c r="J2">
+        <v>-5.64</v>
+      </c>
+      <c r="K2">
+        <v>-6.67</v>
+      </c>
+      <c r="L2">
+        <v>-6.34</v>
+      </c>
+      <c r="M2">
+        <v>-3.18</v>
+      </c>
+      <c r="N2">
+        <v>-0.03</v>
+      </c>
+      <c r="O2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>20210062776</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>-5.6</v>
+      </c>
+      <c r="H3">
+        <v>-2.7</v>
+      </c>
+      <c r="I3">
+        <v>-6.7</v>
+      </c>
+      <c r="J3">
+        <v>-6.2</v>
+      </c>
+      <c r="K3">
+        <v>-6.7</v>
+      </c>
+      <c r="L3">
+        <v>-7.5</v>
+      </c>
+      <c r="M3">
+        <v>-6.4</v>
+      </c>
+      <c r="N3">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="O3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>20240043449</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="I4">
+        <v>-7.9</v>
+      </c>
+      <c r="J4">
+        <v>-7.5</v>
+      </c>
+      <c r="K4">
+        <v>-6.9</v>
+      </c>
+      <c r="L4">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="M4">
+        <v>-7.5</v>
+      </c>
+      <c r="N4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="O4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>20240076642</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>-3.66</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-6.01</v>
+      </c>
+      <c r="J5">
+        <v>-7.52</v>
+      </c>
+      <c r="K5">
+        <v>-5.95</v>
+      </c>
+      <c r="L5">
+        <v>-4.18</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>-4.5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>20240094375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="H6">
+        <v>-6.4</v>
+      </c>
+      <c r="I6">
+        <v>-9.24</v>
+      </c>
+      <c r="J6">
+        <v>-7.92</v>
+      </c>
+      <c r="K6">
+        <v>-7.64</v>
+      </c>
+      <c r="L6">
+        <v>-6.12</v>
+      </c>
+      <c r="M6">
+        <v>-3.57</v>
+      </c>
+      <c r="N6">
+        <v>-1.88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>20240092862</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>-7.03</v>
+      </c>
+      <c r="H7">
+        <v>-6.64</v>
+      </c>
+      <c r="I7">
+        <v>-5.54</v>
+      </c>
+      <c r="J7">
+        <v>-6.77</v>
+      </c>
+      <c r="K7">
+        <v>-5.29</v>
+      </c>
+      <c r="L7">
+        <v>-6.46</v>
+      </c>
+      <c r="M7">
+        <v>-5.44</v>
+      </c>
+      <c r="N7">
+        <v>-3.34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>20240070180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>-3.34</v>
+      </c>
+      <c r="H8">
+        <v>-4.09</v>
+      </c>
+      <c r="I8">
+        <v>-6.12</v>
+      </c>
+      <c r="J8">
+        <v>-6.26</v>
+      </c>
+      <c r="K8">
+        <v>-5.35</v>
+      </c>
+      <c r="L8">
+        <v>-5.46</v>
+      </c>
+      <c r="M8">
+        <v>-3.21</v>
+      </c>
+      <c r="N8">
+        <v>-1.88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>20240118730</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>-6.6</v>
+      </c>
+      <c r="H9">
+        <v>-6.29</v>
+      </c>
+      <c r="I9">
+        <v>-4</v>
+      </c>
+      <c r="J9">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="K9">
+        <v>-5.19</v>
+      </c>
+      <c r="L9">
+        <v>-5.79</v>
+      </c>
+      <c r="M9">
+        <v>-6.1</v>
+      </c>
+      <c r="N9">
+        <v>-7.2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>20240101716</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10">
+        <v>-6.7</v>
+      </c>
+      <c r="I10">
+        <v>-7.59</v>
+      </c>
+      <c r="J10">
+        <v>-6.2</v>
+      </c>
+      <c r="K10">
+        <v>-6.9</v>
+      </c>
+      <c r="L10">
+        <v>-2.7</v>
+      </c>
+      <c r="M10">
+        <v>-4.7</v>
+      </c>
+      <c r="N10">
+        <v>-7.09</v>
+      </c>
+      <c r="O10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>20240043267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="O11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>20200042694</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>-4.32</v>
+      </c>
+      <c r="H12">
+        <v>-4.55</v>
+      </c>
+      <c r="I12">
+        <v>-4.8</v>
+      </c>
+      <c r="J12">
+        <v>-5.18</v>
+      </c>
+      <c r="K12">
+        <v>-4.66</v>
+      </c>
+      <c r="L12">
+        <v>-4.84</v>
+      </c>
+      <c r="M12">
+        <v>-3.56</v>
+      </c>
+      <c r="N12">
+        <v>-4.76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>20220028369</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>-7.05</v>
+      </c>
+      <c r="H13">
+        <v>-4.12</v>
+      </c>
+      <c r="I13">
+        <v>-3.21</v>
+      </c>
+      <c r="J13">
+        <v>-5.32</v>
+      </c>
+      <c r="K13">
+        <v>-4.22</v>
+      </c>
+      <c r="L13">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="M13">
+        <v>-4.75</v>
+      </c>
+      <c r="N13">
+        <v>-6.08</v>
+      </c>
+      <c r="O13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>20240125407</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>-5.97</v>
+      </c>
+      <c r="H14">
+        <v>-4.74</v>
+      </c>
+      <c r="I14">
+        <v>-3.87</v>
+      </c>
+      <c r="J14">
+        <v>-4.25</v>
+      </c>
+      <c r="K14">
+        <v>-3.41</v>
+      </c>
+      <c r="L14">
+        <v>-5.21</v>
+      </c>
+      <c r="M14">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="N14">
+        <v>-4.03</v>
+      </c>
+      <c r="O14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>20230046627</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>20220046569</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A16">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAWLOT1.xlsx
+++ b/RAWLOT1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/R2_AUC_ROC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E805ECCC-D25D-4E52-9083-A4BFA9BE90DE}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{03A9C628-70A3-4937-BD69-2C1EB6483543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B799655-E990-4705-B289-69DE9CF2A59F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F0CDC6-0069-4736-A9D7-46CCA469AF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="343">
   <si>
     <t>UHID</t>
   </si>
@@ -1072,7 +1072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,10 +1159,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,18 +1480,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A920B3C-2BE1-4EE3-879D-625035535196}">
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1583,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20220065432</v>
       </c>
@@ -1670,7 +1666,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20240016182</v>
       </c>
@@ -1753,7 +1749,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20230125389</v>
       </c>
@@ -1842,7 +1838,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20180022685</v>
       </c>
@@ -1931,7 +1927,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20201415102</v>
       </c>
@@ -2014,7 +2010,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20240012395</v>
       </c>
@@ -2103,7 +2099,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20220166372</v>
       </c>
@@ -2192,7 +2188,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20240018475</v>
       </c>
@@ -2275,7 +2271,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20230149608</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20240016829</v>
       </c>
@@ -2453,7 +2449,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20230179067</v>
       </c>
@@ -2542,7 +2538,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20180188108</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20230141608</v>
       </c>
@@ -2720,7 +2716,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20240020494</v>
       </c>
@@ -2809,7 +2805,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20240020519</v>
       </c>
@@ -2898,7 +2894,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20240015483</v>
       </c>
@@ -2987,7 +2983,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20240001249</v>
       </c>
@@ -3076,7 +3072,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20210094336</v>
       </c>
@@ -3165,7 +3161,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20240006140</v>
       </c>
@@ -3254,7 +3250,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20240020436</v>
       </c>
@@ -3343,7 +3339,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20240022478</v>
       </c>
@@ -3429,7 +3425,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20240022523</v>
       </c>
@@ -3518,7 +3514,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20220102808</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20240022502</v>
       </c>
@@ -3696,7 +3692,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20240017188</v>
       </c>
@@ -3782,7 +3778,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20220064259</v>
       </c>
@@ -3871,7 +3867,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20240019044</v>
       </c>
@@ -3960,7 +3956,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20240024003</v>
       </c>
@@ -4049,7 +4045,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20240012256</v>
       </c>
@@ -4138,7 +4134,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20210046443</v>
       </c>
@@ -4227,7 +4223,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20240024207</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20220153472</v>
       </c>
@@ -4402,7 +4398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20240024158</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20220088296</v>
       </c>
@@ -4580,7 +4576,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20220064546</v>
       </c>
@@ -4669,7 +4665,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20240024631</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20240022566</v>
       </c>
@@ -4841,7 +4837,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20210126376</v>
       </c>
@@ -4930,7 +4926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20240012094</v>
       </c>
@@ -5019,7 +5015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20240027303</v>
       </c>
@@ -5108,7 +5104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20240002618</v>
       </c>
@@ -5197,7 +5193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20240023202</v>
       </c>
@@ -5286,7 +5282,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20240027383</v>
       </c>
@@ -5375,7 +5371,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20210126581</v>
       </c>
@@ -5461,7 +5457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20240026634</v>
       </c>
@@ -5547,7 +5543,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20240015339</v>
       </c>
@@ -5636,7 +5632,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20240028955</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20240028466</v>
       </c>
@@ -5808,7 +5804,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20240029036</v>
       </c>
@@ -5897,7 +5893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20240028839</v>
       </c>
@@ -5986,7 +5982,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20240025209</v>
       </c>
@@ -6075,7 +6071,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20240028100</v>
       </c>
@@ -6167,7 +6163,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20220083756</v>
       </c>
@@ -6259,7 +6255,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20240030665</v>
       </c>
@@ -6348,7 +6344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20240030957</v>
       </c>
@@ -6440,7 +6436,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20230158280</v>
       </c>
@@ -6532,7 +6528,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20240012274</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20240029225</v>
       </c>
@@ -6716,7 +6712,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20240032359</v>
       </c>
@@ -6808,7 +6804,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20240002772</v>
       </c>
@@ -6891,7 +6887,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20240030597</v>
       </c>
@@ -6983,7 +6979,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20240030258</v>
       </c>
@@ -7075,7 +7071,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20230083087</v>
       </c>
@@ -7164,7 +7160,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20240039022</v>
       </c>
@@ -7256,7 +7252,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20240037502</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20240032128</v>
       </c>
@@ -7440,7 +7436,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20240035983</v>
       </c>
@@ -7526,7 +7522,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20190007174</v>
       </c>
@@ -7612,7 +7608,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20240051938</v>
       </c>
@@ -7704,7 +7700,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20240057825</v>
       </c>
@@ -7793,7 +7789,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20240034567</v>
       </c>
@@ -7885,7 +7881,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20240060316</v>
       </c>
@@ -7977,7 +7973,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20240048714</v>
       </c>
@@ -8057,7 +8053,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20230023891</v>
       </c>
@@ -8149,7 +8145,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20180142185</v>
       </c>
@@ -8241,7 +8237,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20240058395</v>
       </c>
@@ -8333,7 +8329,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20200075595</v>
       </c>
@@ -8425,7 +8421,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20230040481</v>
       </c>
@@ -8517,7 +8513,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20240062455</v>
       </c>
@@ -8609,7 +8605,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20240062254</v>
       </c>
@@ -8701,7 +8697,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20240048215</v>
       </c>
@@ -8793,7 +8789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20240060273</v>
       </c>
@@ -8885,7 +8881,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20240054804</v>
       </c>
@@ -8977,7 +8973,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20240051976</v>
       </c>
@@ -9069,7 +9065,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20240068214</v>
       </c>
@@ -9161,7 +9157,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20240068215</v>
       </c>
@@ -9253,7 +9249,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20240066137</v>
       </c>
@@ -9345,7 +9341,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20240069492</v>
       </c>
@@ -9437,7 +9433,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20240067159</v>
       </c>
@@ -9529,7 +9525,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20230028720</v>
       </c>
@@ -9621,7 +9617,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20240046542</v>
       </c>
@@ -9713,7 +9709,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20230137322</v>
       </c>
@@ -9805,7 +9801,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20240015478</v>
       </c>
@@ -9897,7 +9893,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20240068424</v>
       </c>
@@ -9989,7 +9985,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20240071058</v>
       </c>
@@ -10081,7 +10077,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20240074728</v>
       </c>
@@ -10173,7 +10169,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20240074281</v>
       </c>
@@ -10265,7 +10261,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20240076716</v>
       </c>
@@ -10357,7 +10353,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20240078762</v>
       </c>
@@ -10449,7 +10445,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20240078772</v>
       </c>
@@ -10541,7 +10537,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20240062956</v>
       </c>
@@ -10633,7 +10629,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20240088127</v>
       </c>
@@ -10722,7 +10718,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20240076818</v>
       </c>
@@ -10814,7 +10810,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20240070348</v>
       </c>
@@ -10867,7 +10863,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20240028527</v>
       </c>
@@ -10911,7 +10907,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20230003855</v>
       </c>
@@ -10949,7 +10945,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20240092861</v>
       </c>
@@ -10981,7 +10977,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20240087671</v>
       </c>
@@ -11025,7 +11021,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20230121277</v>
       </c>
@@ -11069,7 +11065,7 @@
         <v>-6.39</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20240094465</v>
       </c>
@@ -11122,7 +11118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20230156801</v>
       </c>
@@ -11166,7 +11162,7 @@
         <v>-7.47</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20240053790</v>
       </c>
@@ -11210,7 +11206,7 @@
         <v>-1.47</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20240039512</v>
       </c>
@@ -11254,7 +11250,7 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20240107218</v>
       </c>
@@ -11298,7 +11294,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20240099770</v>
       </c>
@@ -11342,7 +11338,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20240112650</v>
       </c>
@@ -11386,7 +11382,7 @@
         <v>-4.2699999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20170059075</v>
       </c>
@@ -11429,8 +11425,11 @@
       <c r="N118">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20210062776</v>
       </c>
@@ -11473,8 +11472,11 @@
       <c r="N119">
         <v>-9.6999999999999993</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20240043449</v>
       </c>
@@ -11514,8 +11516,11 @@
       <c r="N120">
         <v>-9.1999999999999993</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20240076642</v>
       </c>
@@ -11558,8 +11563,11 @@
       <c r="N121">
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20240094375</v>
       </c>
@@ -11602,8 +11610,11 @@
       <c r="N122">
         <v>-1.88</v>
       </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="O122" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20240092862</v>
       </c>
@@ -11646,8 +11657,11 @@
       <c r="N123">
         <v>-3.34</v>
       </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="O123" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20240070180</v>
       </c>
@@ -11690,8 +11704,11 @@
       <c r="N124">
         <v>-1.88</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="O124" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>20240118730</v>
       </c>
@@ -11734,8 +11751,11 @@
       <c r="N125">
         <v>-7.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="O125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20240101716</v>
       </c>
@@ -11778,8 +11798,11 @@
       <c r="N126">
         <v>-7.09</v>
       </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="O126" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20240043267</v>
       </c>
@@ -11795,8 +11818,11 @@
       <c r="F127" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="O127" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>20200042694</v>
       </c>
@@ -11839,8 +11865,11 @@
       <c r="N128">
         <v>-4.76</v>
       </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="O128" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20220028369</v>
       </c>
@@ -11883,8 +11912,11 @@
       <c r="N129">
         <v>-6.08</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="O129" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20240125407</v>
       </c>
@@ -11927,8 +11959,11 @@
       <c r="N130">
         <v>-4.03</v>
       </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="O130" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20230046627</v>
       </c>
@@ -11941,8 +11976,11 @@
       <c r="D131" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="O131" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>20220046569</v>
       </c>
@@ -11957,6 +11995,9 @@
       </c>
       <c r="F132" t="s">
         <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -11974,16 +12015,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFC164F-02AC-4E51-81A5-233B6D6DE59E}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12030,7 +12071,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20170059075</v>
       </c>
@@ -12077,7 +12118,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20210062776</v>
       </c>
@@ -12124,7 +12165,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20240043449</v>
       </c>
@@ -12168,7 +12209,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20240076642</v>
       </c>
@@ -12215,7 +12256,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20240094375</v>
       </c>
@@ -12262,7 +12303,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20240092862</v>
       </c>
@@ -12309,7 +12350,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20240070180</v>
       </c>
@@ -12356,7 +12397,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20240118730</v>
       </c>
@@ -12403,7 +12444,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20240101716</v>
       </c>
@@ -12450,7 +12491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20240043267</v>
       </c>
@@ -12470,7 +12511,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20200042694</v>
       </c>
@@ -12517,7 +12558,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20220028369</v>
       </c>
@@ -12564,7 +12605,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20240125407</v>
       </c>
@@ -12611,7 +12652,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20230046627</v>
       </c>
@@ -12628,7 +12669,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20220046569</v>
       </c>
